--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346F8DDC-3650-4C87-A873-AE6701B29773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CFCC74-2528-4BA8-9DE0-054EE3770FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,16 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
-  <si>
-    <t>死亡</t>
-  </si>
-  <si>
-    <t>治愈</t>
-  </si>
-  <si>
-    <t>疑似</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <r>
       <rPr>
@@ -66,10 +57,6 @@
   </si>
   <si>
     <t>确认+疑似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -127,6 +114,26 @@
   </si>
   <si>
     <t>观察中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增(疑似+确认)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,7 +920,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>新增</c:v>
+                  <c:v>新增(疑似+确认)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2553,9 +2560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2566,7 +2573,7 @@
     <col min="4" max="4" width="5.5" style="1" customWidth="1"/>
     <col min="5" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.125" customWidth="1"/>
     <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
@@ -2574,37 +2581,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2618,7 +2628,7 @@
         <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3">
         <v>6</v>
@@ -2631,7 +2641,7 @@
         <v>345</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1">
         <v>922</v>
@@ -2640,7 +2650,7 @@
         <v>43851</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
@@ -2677,7 +2687,7 @@
         <v>43852</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -2714,7 +2724,7 @@
         <v>43853</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -2751,7 +2761,7 @@
         <v>43854</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -2788,7 +2798,7 @@
         <v>43855</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -2825,7 +2835,7 @@
         <v>43856</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -2862,7 +2872,7 @@
         <v>43857</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -2899,7 +2909,7 @@
         <v>43858</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2936,7 +2946,7 @@
         <v>43859</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2976,7 +2986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CFCC74-2528-4BA8-9DE0-054EE3770FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED659A00-0149-416A-A7D7-41548774540F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <r>
       <rPr>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>治愈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至1月29日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,6 +523,9 @@
                 <c:pt idx="8">
                   <c:v>15213</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>19878</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -703,6 +710,9 @@
                 <c:pt idx="8">
                   <c:v>9239</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>12167</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -887,6 +897,9 @@
                 <c:pt idx="8">
                   <c:v>5974</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>7711</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1037,6 +1050,9 @@
                 <c:pt idx="8">
                   <c:v>4904</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>4665</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1161,6 +1177,9 @@
                 <c:pt idx="8">
                   <c:v>1239</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>1370</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1310,6 +1329,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1458,6 +1480,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2223,15 +2248,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2562,19 +2587,19 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="1" customWidth="1"/>
     <col min="5" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.125" customWidth="1"/>
-    <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -2952,6 +2977,38 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43859</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7711</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12167</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1370</v>
+      </c>
+      <c r="E11" s="1">
+        <v>170</v>
+      </c>
+      <c r="F11" s="1">
+        <v>124</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" ref="G11" si="7">B11+C11</f>
+        <v>19878</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" ref="H11" si="8">G11-G10</f>
+        <v>4665</v>
+      </c>
+      <c r="I11" s="1">
+        <v>81947</v>
+      </c>
+      <c r="J11" s="5">
+        <v>43860</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2976,9 +3033,10 @@
     <hyperlink ref="K4" r:id="rId7" xr:uid="{57111FE6-E1B2-481B-96E1-7B683A93460A}"/>
     <hyperlink ref="K3" r:id="rId8" xr:uid="{45BE9127-BDC6-4D5B-9094-CA8DE3F9F4C4}"/>
     <hyperlink ref="K2" r:id="rId9" xr:uid="{B4F9DE7D-B75C-4B21-816E-CA4BA3E17D1F}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{EE65C6E5-EAAE-4143-B235-1ED12B6E4B62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -2987,7 +3045,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED659A00-0149-416A-A7D7-41548774540F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637569D6-AFDE-4676-93B7-538CD9FE50C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -2585,9 +2585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3044,7 +3044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637569D6-AFDE-4676-93B7-538CD9FE50C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF2DFC5-EF58-4F57-B0C8-357A8D9219A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <r>
       <rPr>
@@ -138,6 +138,10 @@
   </si>
   <si>
     <t>截至1月29日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至1月30日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,6 +530,9 @@
                 <c:pt idx="9">
                   <c:v>19878</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>24930</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -713,6 +720,9 @@
                 <c:pt idx="9">
                   <c:v>12167</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>15238</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -900,6 +910,9 @@
                 <c:pt idx="9">
                   <c:v>7711</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>9692</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1053,6 +1066,9 @@
                 <c:pt idx="9">
                   <c:v>4665</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>5052</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1180,6 +1196,9 @@
                 <c:pt idx="9">
                   <c:v>1370</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>1527</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1332,6 +1351,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1483,6 +1505,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2587,7 +2612,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3015,6 +3040,38 @@
       <c r="A12" s="5">
         <v>43860</v>
       </c>
+      <c r="B12" s="1">
+        <v>9692</v>
+      </c>
+      <c r="C12" s="1">
+        <v>15238</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1527</v>
+      </c>
+      <c r="E12" s="1">
+        <v>213</v>
+      </c>
+      <c r="F12" s="1">
+        <v>171</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" ref="G12" si="9">B12+C12</f>
+        <v>24930</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" ref="H12" si="10">G12-G11</f>
+        <v>5052</v>
+      </c>
+      <c r="I12" s="1">
+        <v>102427</v>
+      </c>
+      <c r="J12" s="5">
+        <v>43861</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
@@ -3034,9 +3091,10 @@
     <hyperlink ref="K3" r:id="rId8" xr:uid="{45BE9127-BDC6-4D5B-9094-CA8DE3F9F4C4}"/>
     <hyperlink ref="K2" r:id="rId9" xr:uid="{B4F9DE7D-B75C-4B21-816E-CA4BA3E17D1F}"/>
     <hyperlink ref="K11" r:id="rId10" xr:uid="{EE65C6E5-EAAE-4143-B235-1ED12B6E4B62}"/>
+    <hyperlink ref="K12" r:id="rId11" display="截至1月29日24时" xr:uid="{BAB6CDA9-16FB-41CA-AEA4-52A15F843B13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF2DFC5-EF58-4F57-B0C8-357A8D9219A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F54066-ABEA-47D8-8753-2E31324A4503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -2272,16 +2272,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2610,9 +2610,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3091,7 +3091,7 @@
     <hyperlink ref="K3" r:id="rId8" xr:uid="{45BE9127-BDC6-4D5B-9094-CA8DE3F9F4C4}"/>
     <hyperlink ref="K2" r:id="rId9" xr:uid="{B4F9DE7D-B75C-4B21-816E-CA4BA3E17D1F}"/>
     <hyperlink ref="K11" r:id="rId10" xr:uid="{EE65C6E5-EAAE-4143-B235-1ED12B6E4B62}"/>
-    <hyperlink ref="K12" r:id="rId11" display="截至1月29日24时" xr:uid="{BAB6CDA9-16FB-41CA-AEA4-52A15F843B13}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{BAB6CDA9-16FB-41CA-AEA4-52A15F843B13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
@@ -3102,8 +3102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F54066-ABEA-47D8-8753-2E31324A4503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B504C4-3B86-4C29-A55C-62415CA0CFED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -522,7 +522,7 @@
                   <c:v>8538</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10309</c:v>
+                  <c:v>11488</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>15213</c:v>
@@ -712,7 +712,7 @@
                   <c:v>5794</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5794</c:v>
+                  <c:v>6973</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9239</c:v>
@@ -1058,10 +1058,10 @@
                   <c:v>3879</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1771</c:v>
+                  <c:v>2950</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4904</c:v>
+                  <c:v>3725</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4665</c:v>
@@ -2610,9 +2610,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2933,7 +2933,7 @@
         <v>4515</v>
       </c>
       <c r="C9" s="1">
-        <v>5794</v>
+        <v>6973</v>
       </c>
       <c r="D9" s="1">
         <v>976</v>
@@ -2946,11 +2946,11 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" ref="G9:G10" si="5">B9+C9</f>
-        <v>10309</v>
+        <v>11488</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" ref="H9:H10" si="6">G9-G8</f>
-        <v>1771</v>
+        <v>2950</v>
       </c>
       <c r="I9" s="1">
         <v>44132</v>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" si="6"/>
-        <v>4904</v>
+        <v>3725</v>
       </c>
       <c r="I10" s="1">
         <v>59990</v>
@@ -3102,7 +3102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B504C4-3B86-4C29-A55C-62415CA0CFED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF4606E-D1A6-4AF3-A5D0-A7C65F398C9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <r>
       <rPr>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>截至1月30日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至1月31日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +458,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$12</c:f>
+              <c:f>数据!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -490,16 +494,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43860</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$G$2:$G$12</c:f>
+              <c:f>数据!$G$2:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -532,6 +539,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>24930</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -644,10 +654,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$12</c:f>
+              <c:f>数据!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -680,16 +690,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43860</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$C$2:$C$12</c:f>
+              <c:f>数据!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -722,6 +735,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>15238</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -834,10 +850,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$12</c:f>
+              <c:f>数据!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -870,16 +886,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43860</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$B$2:$B$12</c:f>
+              <c:f>数据!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -912,6 +931,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>9692</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1032,10 +1054,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>数据!$H$2:$H$12</c:f>
+              <c:f>数据!$H$2:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1068,6 +1090,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5052</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1162,10 +1187,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>数据!$D$2:$D$13</c:f>
+              <c:f>数据!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1198,6 +1223,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1527</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1318,10 +1346,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$E$2:$E$12</c:f>
+              <c:f>数据!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1354,6 +1382,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1472,10 +1503,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$F$2:$F$12</c:f>
+              <c:f>数据!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -1508,6 +1539,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2610,9 +2644,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3077,6 +3111,38 @@
       <c r="A13" s="5">
         <v>43861</v>
       </c>
+      <c r="B13" s="1">
+        <v>11791</v>
+      </c>
+      <c r="C13" s="1">
+        <v>17988</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1795</v>
+      </c>
+      <c r="E13" s="1">
+        <v>259</v>
+      </c>
+      <c r="F13" s="1">
+        <v>243</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" ref="G13" si="11">B13+C13</f>
+        <v>29779</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ref="H13" si="12">G13-G12</f>
+        <v>4849</v>
+      </c>
+      <c r="I13" s="1">
+        <v>118478</v>
+      </c>
+      <c r="J13" s="5">
+        <v>43862</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3092,9 +3158,10 @@
     <hyperlink ref="K2" r:id="rId9" xr:uid="{B4F9DE7D-B75C-4B21-816E-CA4BA3E17D1F}"/>
     <hyperlink ref="K11" r:id="rId10" xr:uid="{EE65C6E5-EAAE-4143-B235-1ED12B6E4B62}"/>
     <hyperlink ref="K12" r:id="rId11" xr:uid="{BAB6CDA9-16FB-41CA-AEA4-52A15F843B13}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{A230C252-1713-4F1D-A004-E996D489D674}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -3102,8 +3169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF4606E-D1A6-4AF3-A5D0-A7C65F398C9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320DB6BC-6469-4A6C-BD33-5802EAECD826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <r>
       <rPr>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>截至1月31日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月1日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,6 +502,9 @@
                 <c:pt idx="11">
                   <c:v>43861</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>43862</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -542,6 +549,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>29779</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -694,6 +704,9 @@
                 <c:pt idx="11">
                   <c:v>43861</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>43862</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -738,6 +751,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>17988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,6 +906,9 @@
                 <c:pt idx="11">
                   <c:v>43861</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>43862</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -934,6 +953,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>11791</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,6 +1116,9 @@
                 <c:pt idx="11">
                   <c:v>4849</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>4145</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1227,6 +1252,9 @@
                 <c:pt idx="11">
                   <c:v>1795</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>2110</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1385,6 +1413,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1542,6 +1573,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2642,11 +2676,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13:K13"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3144,6 +3178,43 @@
         <v>24</v>
       </c>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>43862</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14380</v>
+      </c>
+      <c r="C14" s="1">
+        <v>19544</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2110</v>
+      </c>
+      <c r="E14" s="1">
+        <v>304</v>
+      </c>
+      <c r="F14" s="1">
+        <v>328</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ref="G14" si="13">B14+C14</f>
+        <v>33924</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14" si="14">G14-G13</f>
+        <v>4145</v>
+      </c>
+      <c r="I14" s="1">
+        <v>137594</v>
+      </c>
+      <c r="J14" s="5">
+        <v>43863</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3159,9 +3230,10 @@
     <hyperlink ref="K11" r:id="rId10" xr:uid="{EE65C6E5-EAAE-4143-B235-1ED12B6E4B62}"/>
     <hyperlink ref="K12" r:id="rId11" xr:uid="{BAB6CDA9-16FB-41CA-AEA4-52A15F843B13}"/>
     <hyperlink ref="K13" r:id="rId12" xr:uid="{A230C252-1713-4F1D-A004-E996D489D674}"/>
+    <hyperlink ref="K14" r:id="rId13" display="截至2月1日25时" xr:uid="{7E0BD5F8-ADA6-457E-AB96-4DFDB2E63117}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320DB6BC-6469-4A6C-BD33-5802EAECD826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6858AF38-06B2-49F3-A66C-FF812D64E0FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <r>
       <rPr>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>截至2月1日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月2日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,6 +509,9 @@
                 <c:pt idx="12">
                   <c:v>43862</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>43863</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -552,6 +559,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>33924</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -707,6 +717,9 @@
                 <c:pt idx="12">
                   <c:v>43862</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>43863</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -754,6 +767,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>19544</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,6 +925,9 @@
                 <c:pt idx="12">
                   <c:v>43862</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>43863</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -956,6 +975,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>14380</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,6 +1141,9 @@
                 <c:pt idx="12">
                   <c:v>4145</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>4839</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1255,6 +1280,9 @@
                 <c:pt idx="12">
                   <c:v>2110</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>2296</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1416,6 +1444,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1576,6 +1607,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2676,11 +2710,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3215,6 +3249,48 @@
         <v>25</v>
       </c>
     </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>43863</v>
+      </c>
+      <c r="B15" s="1">
+        <v>17205</v>
+      </c>
+      <c r="C15" s="1">
+        <v>21558</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2296</v>
+      </c>
+      <c r="E15" s="1">
+        <v>361</v>
+      </c>
+      <c r="F15" s="1">
+        <v>475</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" ref="G15" si="15">B15+C15</f>
+        <v>38763</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" ref="H15" si="16">G15-G14</f>
+        <v>4839</v>
+      </c>
+      <c r="I15" s="1">
+        <v>152700</v>
+      </c>
+      <c r="J15" s="5">
+        <v>43864</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>43864</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3231,9 +3307,10 @@
     <hyperlink ref="K12" r:id="rId11" xr:uid="{BAB6CDA9-16FB-41CA-AEA4-52A15F843B13}"/>
     <hyperlink ref="K13" r:id="rId12" xr:uid="{A230C252-1713-4F1D-A004-E996D489D674}"/>
     <hyperlink ref="K14" r:id="rId13" display="截至2月1日25时" xr:uid="{7E0BD5F8-ADA6-457E-AB96-4DFDB2E63117}"/>
+    <hyperlink ref="K15" r:id="rId14" xr:uid="{F068D771-29BA-4F46-BD6A-05C16A5F7009}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6858AF38-06B2-49F3-A66C-FF812D64E0FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CDBBF4-AF3B-4C6B-A896-47C35A785AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <r>
       <rPr>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>截至2月2日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月3日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +470,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$15</c:f>
+              <c:f>数据!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -511,16 +515,22 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$G$2:$G$15</c:f>
+              <c:f>数据!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -562,6 +572,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>38763</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -674,10 +687,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$15</c:f>
+              <c:f>数据!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -719,16 +732,22 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$C$2:$C$15</c:f>
+              <c:f>数据!$C$2:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -770,6 +789,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>21558</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -882,10 +904,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$15</c:f>
+              <c:f>数据!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -927,16 +949,22 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$B$2:$B$15</c:f>
+              <c:f>数据!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -978,6 +1006,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>17205</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,12 +1127,69 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>数据!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>43850</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43853</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43854</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43855</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43858</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43859</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43860</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$H$2:$H$15</c:f>
+              <c:f>数据!$H$2:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1143,6 +1231,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>4839</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1235,12 +1326,69 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>数据!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>43850</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43853</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43854</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43855</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43858</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43859</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43860</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$D$2:$D$15</c:f>
+              <c:f>数据!$D$2:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1282,6 +1430,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2296</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1402,10 +1553,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$E$2:$E$15</c:f>
+              <c:f>数据!$E$2:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1447,6 +1598,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,10 +1719,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$F$2:$F$15</c:f>
+              <c:f>数据!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -1610,6 +1764,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2710,11 +2867,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:K15"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3290,6 +3447,43 @@
       <c r="A16" s="5">
         <v>43864</v>
       </c>
+      <c r="B16" s="1">
+        <v>20438</v>
+      </c>
+      <c r="C16" s="1">
+        <v>23214</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2788</v>
+      </c>
+      <c r="E16" s="1">
+        <v>425</v>
+      </c>
+      <c r="F16" s="1">
+        <v>632</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ref="G16" si="17">B16+C16</f>
+        <v>43652</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" ref="H16" si="18">G16-G15</f>
+        <v>4889</v>
+      </c>
+      <c r="I16" s="1">
+        <v>171329</v>
+      </c>
+      <c r="J16" s="5">
+        <v>43865</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>43865</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3308,9 +3502,10 @@
     <hyperlink ref="K13" r:id="rId12" xr:uid="{A230C252-1713-4F1D-A004-E996D489D674}"/>
     <hyperlink ref="K14" r:id="rId13" display="截至2月1日25时" xr:uid="{7E0BD5F8-ADA6-457E-AB96-4DFDB2E63117}"/>
     <hyperlink ref="K15" r:id="rId14" xr:uid="{F068D771-29BA-4F46-BD6A-05C16A5F7009}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{D3304278-1401-45C7-A1C8-642C92261DCF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -3318,8 +3513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CDBBF4-AF3B-4C6B-A896-47C35A785AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704A1794-9C84-4004-8A01-85F83A3B00DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <r>
       <rPr>
@@ -158,6 +158,10 @@
   </si>
   <si>
     <t>截至2月3日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月4日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,6 +526,9 @@
                 <c:pt idx="15">
                   <c:v>43865</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>43866</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -575,6 +582,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43652</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,6 +749,9 @@
                 <c:pt idx="15">
                   <c:v>43865</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>43866</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -792,6 +805,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>23214</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -956,6 +972,9 @@
                 <c:pt idx="15">
                   <c:v>43865</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>43866</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1009,6 +1028,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>20438</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1181,6 +1203,9 @@
                 <c:pt idx="15">
                   <c:v>43865</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>43866</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1234,6 +1259,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4889</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,6 +1408,9 @@
                 <c:pt idx="15">
                   <c:v>43865</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>43866</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1433,6 +1464,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2788</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1601,6 +1635,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1767,6 +1804,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2867,11 +2907,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16:K16"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3480,9 +3520,46 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43865</v>
+      </c>
+      <c r="B17" s="1">
+        <v>24324</v>
+      </c>
+      <c r="C17" s="1">
+        <v>23260</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3219</v>
+      </c>
+      <c r="E17" s="1">
+        <v>490</v>
+      </c>
+      <c r="F17" s="1">
+        <v>892</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ref="G17" si="19">B17+C17</f>
+        <v>47584</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" ref="H17" si="20">G17-G16</f>
+        <v>3932</v>
+      </c>
+      <c r="I17" s="1">
+        <v>185555</v>
+      </c>
+      <c r="J17" s="5">
+        <v>43866</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>43866</v>
       </c>
     </row>
   </sheetData>
@@ -3503,9 +3580,10 @@
     <hyperlink ref="K14" r:id="rId13" display="截至2月1日25时" xr:uid="{7E0BD5F8-ADA6-457E-AB96-4DFDB2E63117}"/>
     <hyperlink ref="K15" r:id="rId14" xr:uid="{F068D771-29BA-4F46-BD6A-05C16A5F7009}"/>
     <hyperlink ref="K16" r:id="rId15" xr:uid="{D3304278-1401-45C7-A1C8-642C92261DCF}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{EC1455B1-14E2-49BA-81B5-B26CFFDEE400}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704A1794-9C84-4004-8A01-85F83A3B00DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25482F06-DC9E-4DEA-8D0E-6D9C55B66C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <r>
       <rPr>
@@ -162,6 +162,10 @@
   </si>
   <si>
     <t>截至2月4日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月5日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,6 +590,9 @@
                 <c:pt idx="15">
                   <c:v>47584</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>52720</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -809,6 +816,9 @@
                 <c:pt idx="15">
                   <c:v>23260</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>24702</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1032,6 +1042,9 @@
                 <c:pt idx="15">
                   <c:v>24324</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>28018</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1263,6 +1276,9 @@
                 <c:pt idx="15">
                   <c:v>3932</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>5136</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1468,6 +1484,9 @@
                 <c:pt idx="15">
                   <c:v>3219</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>3859</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1638,6 +1657,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1807,6 +1829,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2909,9 +2934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3560,6 +3585,38 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43866</v>
+      </c>
+      <c r="B18" s="1">
+        <v>28018</v>
+      </c>
+      <c r="C18" s="1">
+        <v>24702</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3859</v>
+      </c>
+      <c r="E18" s="1">
+        <v>563</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1153</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" ref="G18" si="21">B18+C18</f>
+        <v>52720</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" ref="H18" si="22">G18-G17</f>
+        <v>5136</v>
+      </c>
+      <c r="I18" s="1">
+        <v>186354</v>
+      </c>
+      <c r="J18" s="5">
+        <v>43867</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3581,9 +3638,10 @@
     <hyperlink ref="K15" r:id="rId14" xr:uid="{F068D771-29BA-4F46-BD6A-05C16A5F7009}"/>
     <hyperlink ref="K16" r:id="rId15" xr:uid="{D3304278-1401-45C7-A1C8-642C92261DCF}"/>
     <hyperlink ref="K17" r:id="rId16" xr:uid="{EC1455B1-14E2-49BA-81B5-B26CFFDEE400}"/>
+    <hyperlink ref="K18" r:id="rId17" display="截至2月4日24时" xr:uid="{36123F81-8601-448C-BE09-2B86C428B34D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -3591,7 +3649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25482F06-DC9E-4DEA-8D0E-6D9C55B66C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B9A29D-E641-4C33-8D07-C67D06D46930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <r>
       <rPr>
@@ -166,6 +166,10 @@
   </si>
   <si>
     <t>截至2月5日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月6日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,6 +537,9 @@
                 <c:pt idx="16">
                   <c:v>43866</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>43867</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -592,6 +599,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>52720</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -759,6 +769,9 @@
                 <c:pt idx="16">
                   <c:v>43866</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>43867</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -818,6 +831,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>24702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,6 +1001,9 @@
                 <c:pt idx="16">
                   <c:v>43866</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>43867</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1044,6 +1063,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>28018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,6 +1241,9 @@
                 <c:pt idx="16">
                   <c:v>43866</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>43867</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1278,6 +1303,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>5136</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1427,6 +1455,9 @@
                 <c:pt idx="16">
                   <c:v>43866</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>43867</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1486,6 +1517,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3859</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4821</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1660,6 +1694,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1832,6 +1869,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1153</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1540</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2932,11 +2972,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3617,6 +3657,43 @@
       </c>
       <c r="K18" s="6" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>43867</v>
+      </c>
+      <c r="B19" s="1">
+        <v>31161</v>
+      </c>
+      <c r="C19" s="1">
+        <v>26359</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4821</v>
+      </c>
+      <c r="E19" s="1">
+        <v>636</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1540</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" ref="G19" si="23">B19+C19</f>
+        <v>57520</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" ref="H19" si="24">G19-G18</f>
+        <v>4800</v>
+      </c>
+      <c r="I19" s="1">
+        <v>186045</v>
+      </c>
+      <c r="J19" s="5">
+        <v>43868</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3639,9 +3716,10 @@
     <hyperlink ref="K16" r:id="rId15" xr:uid="{D3304278-1401-45C7-A1C8-642C92261DCF}"/>
     <hyperlink ref="K17" r:id="rId16" xr:uid="{EC1455B1-14E2-49BA-81B5-B26CFFDEE400}"/>
     <hyperlink ref="K18" r:id="rId17" display="截至2月4日24时" xr:uid="{36123F81-8601-448C-BE09-2B86C428B34D}"/>
+    <hyperlink ref="K19" r:id="rId18" xr:uid="{8E9D44E4-0D5E-4C58-B50C-98FC461B4494}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -3649,7 +3727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B9A29D-E641-4C33-8D07-C67D06D46930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB65DBA-0CF5-466A-A657-6783456F132A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="218" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="382" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
     <sheet name="图表" sheetId="3" r:id="rId2"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <r>
       <rPr>
@@ -170,6 +171,10 @@
   </si>
   <si>
     <t>截至2月6日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月7日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +487,17 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$20</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$2:$A$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -539,16 +551,29 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$G$2:$G$20</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$G$2:$G$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -602,6 +627,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>57520</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -714,10 +742,17 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$20</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$2:$A$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -771,16 +806,29 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$C$2:$C$20</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$C$2:$C$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -834,6 +882,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>26359</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -946,10 +997,17 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$20</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$2:$A$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1003,16 +1061,29 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$B$2:$B$20</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$B$2:$B$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1066,6 +1137,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>31161</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1186,6 +1260,13 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$2:$A$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>数据!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
@@ -1244,15 +1325,25 @@
                 <c:pt idx="17">
                   <c:v>43867</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>43868</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$H$2:$H$20</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$H$2:$H$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1306,6 +1397,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1400,6 +1494,13 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$2:$A$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>数据!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
@@ -1458,15 +1559,25 @@
                 <c:pt idx="17">
                   <c:v>43867</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>43868</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$D$2:$D$20</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$D$2:$D$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1520,6 +1631,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4821</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1628,7 +1742,14 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$4:$A$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$4:$A$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$A$4</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1640,10 +1761,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$E$2:$E$20</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$E$2:$E$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1697,6 +1825,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1803,7 +1934,14 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$4:$A$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$4:$A$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$A$4</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1815,10 +1953,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$F$2:$F$20</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$F$2:$F$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -1872,6 +2017,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2125,7 +2273,263 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1569018095"/>
+        <c:axId val="1573783535"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1569018095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1573783535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1573783535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1569018095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2632,6 +3036,520 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{682E4445-65CC-444F-9DA7-8FF8636951A5}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2672,6 +3590,39 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9305192" cy="6081346"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F605D37-F30B-4F7A-89E9-4F71D103E024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2972,11 +3923,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3694,6 +4645,93 @@
       </c>
       <c r="K19" s="6" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>43868</v>
+      </c>
+      <c r="B20" s="1">
+        <v>34546</v>
+      </c>
+      <c r="C20" s="1">
+        <v>27657</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6101</v>
+      </c>
+      <c r="E20" s="1">
+        <v>722</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2050</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ref="G20" si="25">B20+C20</f>
+        <v>62203</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ref="H20" si="26">G20-G19</f>
+        <v>4683</v>
+      </c>
+      <c r="I20" s="1">
+        <v>189660</v>
+      </c>
+      <c r="J20" s="5">
+        <v>43869</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>43869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>43870</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>43872</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>43874</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>43877</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>43878</v>
       </c>
     </row>
   </sheetData>
@@ -3717,9 +4755,10 @@
     <hyperlink ref="K17" r:id="rId16" xr:uid="{EC1455B1-14E2-49BA-81B5-B26CFFDEE400}"/>
     <hyperlink ref="K18" r:id="rId17" display="截至2月4日24时" xr:uid="{36123F81-8601-448C-BE09-2B86C428B34D}"/>
     <hyperlink ref="K19" r:id="rId18" xr:uid="{8E9D44E4-0D5E-4C58-B50C-98FC461B4494}"/>
+    <hyperlink ref="K20" r:id="rId19" xr:uid="{13DFE643-7BCE-49F3-BC20-226CFC1D201A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -3727,8 +4766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB65DBA-0CF5-466A-A657-6783456F132A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FF5FC1-7E0E-4A07-8AFB-7BE48CE587EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="382" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="273" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
     <sheet name="图表" sheetId="3" r:id="rId2"/>
-    <sheet name="Chart1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2268,268 +2267,12 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1569018095"/>
-        <c:axId val="1573783535"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1569018095"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1573783535"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1573783535"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1569018095"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3036,520 +2779,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{682E4445-65CC-444F-9DA7-8FF8636951A5}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3590,39 +2819,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305192" cy="6081346"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F605D37-F30B-4F7A-89E9-4F71D103E024}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4766,14 +3962,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FF5FC1-7E0E-4A07-8AFB-7BE48CE587EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3A6A18-95E8-48A6-AE19-9E25DB2F0A3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="273" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <r>
       <rPr>
@@ -174,6 +174,10 @@
   </si>
   <si>
     <t>截至2月7日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月8日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,6 +634,9 @@
                 <c:pt idx="18">
                   <c:v>62203</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>66140</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -885,6 +892,9 @@
                 <c:pt idx="18">
                   <c:v>27657</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>28942</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1140,6 +1150,9 @@
                 <c:pt idx="18">
                   <c:v>34546</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>37198</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1400,6 +1413,9 @@
                 <c:pt idx="18">
                   <c:v>4683</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>3937</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1634,6 +1650,9 @@
                 <c:pt idx="18">
                   <c:v>6101</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>6188</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1827,6 +1846,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2019,6 +2041,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3123,7 +3148,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3883,6 +3908,38 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43869</v>
+      </c>
+      <c r="B21" s="1">
+        <v>37198</v>
+      </c>
+      <c r="C21" s="1">
+        <v>28942</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6188</v>
+      </c>
+      <c r="E21" s="1">
+        <v>811</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2649</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" ref="G21" si="27">B21+C21</f>
+        <v>66140</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ref="H21" si="28">G21-G20</f>
+        <v>3937</v>
+      </c>
+      <c r="I21" s="1">
+        <v>188183</v>
+      </c>
+      <c r="J21" s="5">
+        <v>43870</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3952,9 +4009,10 @@
     <hyperlink ref="K18" r:id="rId17" display="截至2月4日24时" xr:uid="{36123F81-8601-448C-BE09-2B86C428B34D}"/>
     <hyperlink ref="K19" r:id="rId18" xr:uid="{8E9D44E4-0D5E-4C58-B50C-98FC461B4494}"/>
     <hyperlink ref="K20" r:id="rId19" xr:uid="{13DFE643-7BCE-49F3-BC20-226CFC1D201A}"/>
+    <hyperlink ref="K21" r:id="rId20" xr:uid="{7C3FA9BD-F23B-49B1-BC1A-3C2967EE1323}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3A6A18-95E8-48A6-AE19-9E25DB2F0A3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C700FB1-C594-4BE3-A70D-4E6E999824D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="273" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="273" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,33 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确诊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认+疑似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,10 +88,6 @@
   </si>
   <si>
     <t>观察中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增(疑似+确认)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -180,6 +150,30 @@
     <t>截至2月8日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>新增(疑似+确诊)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确诊+疑似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增疑似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡/确诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增确诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -224,15 +218,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -256,15 +252,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,11 +282,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -383,7 +395,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>确认+疑似</c:v>
+                  <c:v>确诊+疑似</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -913,7 +925,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>确诊 </c:v>
+                  <c:v>确诊</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1182,11 +1194,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>数据!$H$1</c:f>
+              <c:f>数据!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>新增(疑似+确认)</c:v>
+                  <c:v>新增(疑似+确诊)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1348,73 +1360,73 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>数据!$H$2:$H$30</c15:sqref>
+                    <c15:sqref>数据!$J$2:$J$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$21</c:f>
+              <c:f>数据!$J$2:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>487</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>938</c:v>
+                  <c:v>939</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1350</c:v>
+                  <c:v>1562</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1407</c:v>
+                  <c:v>1997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3879</c:v>
+                  <c:v>4575</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2950</c:v>
+                  <c:v>3848</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3725</c:v>
+                  <c:v>4707</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4665</c:v>
+                  <c:v>5885</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5052</c:v>
+                  <c:v>6794</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4849</c:v>
+                  <c:v>7121</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4145</c:v>
+                  <c:v>7152</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4839</c:v>
+                  <c:v>8002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4889</c:v>
+                  <c:v>8307</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3932</c:v>
+                  <c:v>7858</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5136</c:v>
+                  <c:v>9022</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4800</c:v>
+                  <c:v>7976</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4683</c:v>
+                  <c:v>7613</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3937</c:v>
+                  <c:v>6572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3144,11 +3156,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:M21"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3159,51 +3171,62 @@
     <col min="4" max="4" width="5.5" style="1" customWidth="1"/>
     <col min="5" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" style="9" customWidth="1"/>
+    <col min="12" max="12" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>15</v>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>43850</v>
       </c>
@@ -3214,7 +3237,7 @@
         <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3">
         <v>6</v>
@@ -3226,20 +3249,31 @@
         <f>B2+C2</f>
         <v>345</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
+      <c r="H2" s="1">
+        <v>77</v>
       </c>
       <c r="I2" s="1">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J19" si="0">H2+I2</f>
+        <v>104</v>
+      </c>
+      <c r="K2" s="8">
+        <f>E2/B2</f>
+        <v>2.0618556701030927E-2</v>
+      </c>
+      <c r="L2" s="1">
         <v>922</v>
       </c>
-      <c r="J2" s="5">
+      <c r="M2" s="5">
         <v>43851</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>8</v>
+      <c r="N2" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43851</v>
       </c>
@@ -3263,20 +3297,30 @@
         <v>477</v>
       </c>
       <c r="H3" s="1">
-        <f>G3-G2</f>
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="I3" s="1">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="K3" s="8">
+        <f t="shared" ref="K3:K21" si="1">E3/B3</f>
+        <v>2.0454545454545454E-2</v>
+      </c>
+      <c r="L3" s="1">
         <v>1394</v>
       </c>
-      <c r="J3" s="5">
+      <c r="M3" s="5">
         <v>43852</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>9</v>
+      <c r="N3" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43852</v>
       </c>
@@ -3300,20 +3344,30 @@
         <v>964</v>
       </c>
       <c r="H4" s="1">
-        <f>G4-G3</f>
-        <v>487</v>
+        <v>131</v>
       </c>
       <c r="I4" s="1">
+        <v>257</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="K4" s="8">
+        <f t="shared" si="1"/>
+        <v>2.9772329246935202E-2</v>
+      </c>
+      <c r="L4" s="1">
         <v>4928</v>
       </c>
-      <c r="J4" s="5">
+      <c r="M4" s="5">
         <v>43853</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>3</v>
+      <c r="N4" s="6" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43853</v>
       </c>
@@ -3333,24 +3387,34 @@
         <v>34</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5" si="0">B5+C5</f>
+        <f t="shared" ref="G5" si="2">B5+C5</f>
         <v>1902</v>
       </c>
       <c r="H5" s="1">
-        <f>G5-G4</f>
-        <v>938</v>
+        <v>259</v>
       </c>
       <c r="I5" s="1">
+        <v>680</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>939</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" si="1"/>
+        <v>3.0120481927710843E-2</v>
+      </c>
+      <c r="L5" s="1">
         <v>8420</v>
       </c>
-      <c r="J5" s="5">
+      <c r="M5" s="5">
         <v>43854</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>10</v>
+      <c r="N5" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43854</v>
       </c>
@@ -3370,24 +3434,34 @@
         <v>38</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6" si="1">B6+C6</f>
+        <f t="shared" ref="G6" si="3">B6+C6</f>
         <v>3252</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ref="H6" si="2">G6-G5</f>
-        <v>1350</v>
+        <v>444</v>
       </c>
       <c r="I6" s="1">
+        <v>1118</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>1562</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="1"/>
+        <v>3.1857031857031856E-2</v>
+      </c>
+      <c r="L6" s="1">
         <v>13967</v>
       </c>
-      <c r="J6" s="5">
+      <c r="M6" s="5">
         <v>43855</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>6</v>
+      <c r="N6" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43855</v>
       </c>
@@ -3407,24 +3481,34 @@
         <v>49</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:G8" si="3">B7+C7</f>
+        <f t="shared" ref="G7:G8" si="4">B7+C7</f>
         <v>4659</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H8" si="4">G7-G6</f>
-        <v>1407</v>
+        <v>688</v>
       </c>
       <c r="I7" s="1">
+        <v>1309</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>1997</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" si="1"/>
+        <v>2.8354430379746835E-2</v>
+      </c>
+      <c r="L7" s="1">
         <v>21556</v>
       </c>
-      <c r="J7" s="5">
+      <c r="M7" s="5">
         <v>43856</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>5</v>
+      <c r="N7" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43856</v>
       </c>
@@ -3444,24 +3528,34 @@
         <v>51</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8538</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="4"/>
-        <v>3879</v>
+        <v>769</v>
       </c>
       <c r="I8" s="1">
+        <v>3806</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>4575</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="1"/>
+        <v>2.9154518950437316E-2</v>
+      </c>
+      <c r="L8" s="1">
         <v>30453</v>
       </c>
-      <c r="J8" s="5">
+      <c r="M8" s="5">
         <v>43857</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>4</v>
+      <c r="N8" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43857</v>
       </c>
@@ -3485,20 +3579,30 @@
         <v>11488</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" ref="H9:H10" si="6">G9-G8</f>
-        <v>2950</v>
+        <v>1771</v>
       </c>
       <c r="I9" s="1">
+        <v>2077</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>3848</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="1"/>
+        <v>2.3477297895902548E-2</v>
+      </c>
+      <c r="L9" s="1">
         <v>44132</v>
       </c>
-      <c r="J9" s="5">
+      <c r="M9" s="5">
         <v>43858</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>13</v>
+      <c r="N9" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43858</v>
       </c>
@@ -3522,20 +3626,30 @@
         <v>15213</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="6"/>
-        <v>3725</v>
+        <v>1459</v>
       </c>
       <c r="I10" s="1">
+        <v>3248</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>4707</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="1"/>
+        <v>2.2095748242383664E-2</v>
+      </c>
+      <c r="L10" s="1">
         <v>59990</v>
       </c>
-      <c r="J10" s="5">
+      <c r="M10" s="5">
         <v>43859</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>14</v>
+      <c r="N10" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43859</v>
       </c>
@@ -3555,24 +3669,34 @@
         <v>124</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ref="G11" si="7">B11+C11</f>
+        <f t="shared" ref="G11" si="6">B11+C11</f>
         <v>19878</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" ref="H11" si="8">G11-G10</f>
-        <v>4665</v>
+        <v>1737</v>
       </c>
       <c r="I11" s="1">
+        <v>4148</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>5885</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="1"/>
+        <v>2.2046427181947867E-2</v>
+      </c>
+      <c r="L11" s="1">
         <v>81947</v>
       </c>
-      <c r="J11" s="5">
+      <c r="M11" s="5">
         <v>43860</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>22</v>
+      <c r="N11" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43860</v>
       </c>
@@ -3592,24 +3716,34 @@
         <v>171</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ref="G12" si="9">B12+C12</f>
+        <f t="shared" ref="G12" si="7">B12+C12</f>
         <v>24930</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" ref="H12" si="10">G12-G11</f>
-        <v>5052</v>
+        <v>1982</v>
       </c>
       <c r="I12" s="1">
+        <v>4812</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>6794</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="1"/>
+        <v>2.1976888155179529E-2</v>
+      </c>
+      <c r="L12" s="1">
         <v>102427</v>
       </c>
-      <c r="J12" s="5">
+      <c r="M12" s="5">
         <v>43861</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>23</v>
+      <c r="N12" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43861</v>
       </c>
@@ -3629,24 +3763,34 @@
         <v>243</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ref="G13" si="11">B13+C13</f>
+        <f t="shared" ref="G13" si="8">B13+C13</f>
         <v>29779</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ref="H13" si="12">G13-G12</f>
-        <v>4849</v>
+        <v>2102</v>
       </c>
       <c r="I13" s="1">
+        <v>5019</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>7121</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="1"/>
+        <v>2.1965906199643795E-2</v>
+      </c>
+      <c r="L13" s="1">
         <v>118478</v>
       </c>
-      <c r="J13" s="5">
+      <c r="M13" s="5">
         <v>43862</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>24</v>
+      <c r="N13" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43862</v>
       </c>
@@ -3666,24 +3810,34 @@
         <v>328</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G14" si="13">B14+C14</f>
+        <f t="shared" ref="G14" si="9">B14+C14</f>
         <v>33924</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ref="H14" si="14">G14-G13</f>
-        <v>4145</v>
+        <v>2590</v>
       </c>
       <c r="I14" s="1">
+        <v>4562</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>7152</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="1"/>
+        <v>2.114047287899861E-2</v>
+      </c>
+      <c r="L14" s="1">
         <v>137594</v>
       </c>
-      <c r="J14" s="5">
+      <c r="M14" s="5">
         <v>43863</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>25</v>
+      <c r="N14" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43863</v>
       </c>
@@ -3703,24 +3857,34 @@
         <v>475</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ref="G15" si="15">B15+C15</f>
+        <f t="shared" ref="G15" si="10">B15+C15</f>
         <v>38763</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" ref="H15" si="16">G15-G14</f>
-        <v>4839</v>
+        <v>2829</v>
       </c>
       <c r="I15" s="1">
+        <v>5173</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>8002</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0982272595175822E-2</v>
+      </c>
+      <c r="L15" s="1">
         <v>152700</v>
       </c>
-      <c r="J15" s="5">
+      <c r="M15" s="5">
         <v>43864</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>26</v>
+      <c r="N15" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43864</v>
       </c>
@@ -3740,24 +3904,34 @@
         <v>632</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ref="G16" si="17">B16+C16</f>
+        <f t="shared" ref="G16" si="11">B16+C16</f>
         <v>43652</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" ref="H16" si="18">G16-G15</f>
-        <v>4889</v>
+        <v>3235</v>
       </c>
       <c r="I16" s="1">
+        <v>5072</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>8307</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0794598297289364E-2</v>
+      </c>
+      <c r="L16" s="1">
         <v>171329</v>
       </c>
-      <c r="J16" s="5">
+      <c r="M16" s="5">
         <v>43865</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>27</v>
+      <c r="N16" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43865</v>
       </c>
@@ -3777,24 +3951,34 @@
         <v>892</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ref="G17" si="19">B17+C17</f>
+        <f t="shared" ref="G17" si="12">B17+C17</f>
         <v>47584</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" ref="H17" si="20">G17-G16</f>
-        <v>3932</v>
+        <v>3887</v>
       </c>
       <c r="I17" s="1">
+        <v>3971</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>7858</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0144713040618319E-2</v>
+      </c>
+      <c r="L17" s="1">
         <v>185555</v>
       </c>
-      <c r="J17" s="5">
+      <c r="M17" s="5">
         <v>43866</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>28</v>
+      <c r="N17" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43866</v>
       </c>
@@ -3814,24 +3998,34 @@
         <v>1153</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" ref="G18" si="21">B18+C18</f>
+        <f t="shared" ref="G18" si="13">B18+C18</f>
         <v>52720</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" ref="H18" si="22">G18-G17</f>
-        <v>5136</v>
+        <v>3694</v>
       </c>
       <c r="I18" s="1">
+        <v>5328</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="0"/>
+        <v>9022</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0094225140980797E-2</v>
+      </c>
+      <c r="L18" s="1">
         <v>186354</v>
       </c>
-      <c r="J18" s="5">
+      <c r="M18" s="5">
         <v>43867</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>29</v>
+      <c r="N18" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43867</v>
       </c>
@@ -3851,24 +4045,34 @@
         <v>1540</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ref="G19" si="23">B19+C19</f>
+        <f t="shared" ref="G19" si="14">B19+C19</f>
         <v>57520</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" ref="H19" si="24">G19-G18</f>
-        <v>4800</v>
+        <v>3143</v>
       </c>
       <c r="I19" s="1">
+        <v>4833</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="0"/>
+        <v>7976</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0410128044671225E-2</v>
+      </c>
+      <c r="L19" s="1">
         <v>186045</v>
       </c>
-      <c r="J19" s="5">
+      <c r="M19" s="5">
         <v>43868</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>30</v>
+      <c r="N19" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43868</v>
       </c>
@@ -3888,24 +4092,34 @@
         <v>2050</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ref="G20" si="25">B20+C20</f>
+        <f t="shared" ref="G20" si="15">B20+C20</f>
         <v>62203</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20" si="26">G20-G19</f>
-        <v>4683</v>
+        <v>3399</v>
       </c>
       <c r="I20" s="1">
+        <v>4214</v>
+      </c>
+      <c r="J20" s="1">
+        <f>H20+I20</f>
+        <v>7613</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0899670005210445E-2</v>
+      </c>
+      <c r="L20" s="1">
         <v>189660</v>
       </c>
-      <c r="J20" s="5">
+      <c r="M20" s="5">
         <v>43869</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>31</v>
+      <c r="N20" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43869</v>
       </c>
@@ -3925,64 +4139,74 @@
         <v>2649</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ref="G21" si="27">B21+C21</f>
+        <f t="shared" ref="G21" si="16">B21+C21</f>
         <v>66140</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21" si="28">G21-G20</f>
-        <v>3937</v>
+        <v>2656</v>
       </c>
       <c r="I21" s="1">
+        <v>3916</v>
+      </c>
+      <c r="J21" s="1">
+        <f>H21+I21</f>
+        <v>6572</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="1"/>
+        <v>2.180224743265767E-2</v>
+      </c>
+      <c r="L21" s="1">
         <v>188183</v>
       </c>
-      <c r="J21" s="5">
+      <c r="M21" s="5">
         <v>43870</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>32</v>
+      <c r="N21" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43870</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43871</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43872</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43873</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43874</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43875</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43876</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43877</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43878</v>
       </c>
@@ -3990,26 +4214,26 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K9" r:id="rId1" xr:uid="{1E04C867-9FDE-4798-A57C-0BB466A40135}"/>
-    <hyperlink ref="K8" r:id="rId2" xr:uid="{1BFEFE30-D45D-429C-9159-826C5E746FE3}"/>
-    <hyperlink ref="K7" r:id="rId3" xr:uid="{81F09B14-57A9-484C-9C40-BA5A9E9D9FBE}"/>
-    <hyperlink ref="K6" r:id="rId4" xr:uid="{16BC8876-AEC6-44F7-B169-418BA2D2AEFF}"/>
-    <hyperlink ref="K10" r:id="rId5" xr:uid="{4538C653-3775-411A-A7EC-B071CECF4DEE}"/>
-    <hyperlink ref="K5" r:id="rId6" xr:uid="{DE5B0AB7-AAC2-48E0-A489-F3B5DC6D2BAC}"/>
-    <hyperlink ref="K4" r:id="rId7" xr:uid="{57111FE6-E1B2-481B-96E1-7B683A93460A}"/>
-    <hyperlink ref="K3" r:id="rId8" xr:uid="{45BE9127-BDC6-4D5B-9094-CA8DE3F9F4C4}"/>
-    <hyperlink ref="K2" r:id="rId9" xr:uid="{B4F9DE7D-B75C-4B21-816E-CA4BA3E17D1F}"/>
-    <hyperlink ref="K11" r:id="rId10" xr:uid="{EE65C6E5-EAAE-4143-B235-1ED12B6E4B62}"/>
-    <hyperlink ref="K12" r:id="rId11" xr:uid="{BAB6CDA9-16FB-41CA-AEA4-52A15F843B13}"/>
-    <hyperlink ref="K13" r:id="rId12" xr:uid="{A230C252-1713-4F1D-A004-E996D489D674}"/>
-    <hyperlink ref="K14" r:id="rId13" display="截至2月1日25时" xr:uid="{7E0BD5F8-ADA6-457E-AB96-4DFDB2E63117}"/>
-    <hyperlink ref="K15" r:id="rId14" xr:uid="{F068D771-29BA-4F46-BD6A-05C16A5F7009}"/>
-    <hyperlink ref="K16" r:id="rId15" xr:uid="{D3304278-1401-45C7-A1C8-642C92261DCF}"/>
-    <hyperlink ref="K17" r:id="rId16" xr:uid="{EC1455B1-14E2-49BA-81B5-B26CFFDEE400}"/>
-    <hyperlink ref="K18" r:id="rId17" display="截至2月4日24时" xr:uid="{36123F81-8601-448C-BE09-2B86C428B34D}"/>
-    <hyperlink ref="K19" r:id="rId18" xr:uid="{8E9D44E4-0D5E-4C58-B50C-98FC461B4494}"/>
-    <hyperlink ref="K20" r:id="rId19" xr:uid="{13DFE643-7BCE-49F3-BC20-226CFC1D201A}"/>
-    <hyperlink ref="K21" r:id="rId20" xr:uid="{7C3FA9BD-F23B-49B1-BC1A-3C2967EE1323}"/>
+    <hyperlink ref="N9" r:id="rId1" xr:uid="{1E04C867-9FDE-4798-A57C-0BB466A40135}"/>
+    <hyperlink ref="N8" r:id="rId2" xr:uid="{1BFEFE30-D45D-429C-9159-826C5E746FE3}"/>
+    <hyperlink ref="N7" r:id="rId3" xr:uid="{81F09B14-57A9-484C-9C40-BA5A9E9D9FBE}"/>
+    <hyperlink ref="N6" r:id="rId4" xr:uid="{16BC8876-AEC6-44F7-B169-418BA2D2AEFF}"/>
+    <hyperlink ref="N10" r:id="rId5" xr:uid="{4538C653-3775-411A-A7EC-B071CECF4DEE}"/>
+    <hyperlink ref="N5" r:id="rId6" xr:uid="{DE5B0AB7-AAC2-48E0-A489-F3B5DC6D2BAC}"/>
+    <hyperlink ref="N4" r:id="rId7" xr:uid="{57111FE6-E1B2-481B-96E1-7B683A93460A}"/>
+    <hyperlink ref="N3" r:id="rId8" xr:uid="{45BE9127-BDC6-4D5B-9094-CA8DE3F9F4C4}"/>
+    <hyperlink ref="N2" r:id="rId9" xr:uid="{B4F9DE7D-B75C-4B21-816E-CA4BA3E17D1F}"/>
+    <hyperlink ref="N11" r:id="rId10" xr:uid="{EE65C6E5-EAAE-4143-B235-1ED12B6E4B62}"/>
+    <hyperlink ref="N12" r:id="rId11" xr:uid="{BAB6CDA9-16FB-41CA-AEA4-52A15F843B13}"/>
+    <hyperlink ref="N13" r:id="rId12" xr:uid="{A230C252-1713-4F1D-A004-E996D489D674}"/>
+    <hyperlink ref="N14" r:id="rId13" display="截至2月1日25时" xr:uid="{7E0BD5F8-ADA6-457E-AB96-4DFDB2E63117}"/>
+    <hyperlink ref="N15" r:id="rId14" xr:uid="{F068D771-29BA-4F46-BD6A-05C16A5F7009}"/>
+    <hyperlink ref="N16" r:id="rId15" xr:uid="{D3304278-1401-45C7-A1C8-642C92261DCF}"/>
+    <hyperlink ref="N17" r:id="rId16" xr:uid="{EC1455B1-14E2-49BA-81B5-B26CFFDEE400}"/>
+    <hyperlink ref="N18" r:id="rId17" display="截至2月4日24时" xr:uid="{36123F81-8601-448C-BE09-2B86C428B34D}"/>
+    <hyperlink ref="N19" r:id="rId18" xr:uid="{8E9D44E4-0D5E-4C58-B50C-98FC461B4494}"/>
+    <hyperlink ref="N20" r:id="rId19" xr:uid="{13DFE643-7BCE-49F3-BC20-226CFC1D201A}"/>
+    <hyperlink ref="N21" r:id="rId20" xr:uid="{7C3FA9BD-F23B-49B1-BC1A-3C2967EE1323}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
@@ -4020,7 +4244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C700FB1-C594-4BE3-A70D-4E6E999824D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCB1EC1-3844-477F-A6E4-EA289857CFD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="273" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,10 @@
   </si>
   <si>
     <t>确诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月9日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +513,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$21</c:f>
+              <c:f>数据!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -572,6 +576,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43870</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,10 +592,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$21</c:f>
+              <c:f>数据!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -648,6 +655,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>66140</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>63760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -767,10 +777,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$21</c:f>
+              <c:f>数据!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -830,6 +840,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43870</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,10 +856,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$C$2:$C$21</c:f>
+              <c:f>数据!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -906,6 +919,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>28942</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1025,10 +1041,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$21</c:f>
+              <c:f>数据!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1088,6 +1104,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43870</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,10 +1120,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$21</c:f>
+              <c:f>数据!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1164,6 +1183,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>37198</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,10 +1386,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$J$2:$J$21</c:f>
+              <c:f>数据!$J$2:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1427,6 +1449,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>6572</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7070</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1601,10 +1626,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$21</c:f>
+              <c:f>数据!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1664,6 +1689,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>6188</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1798,10 +1826,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$21</c:f>
+              <c:f>数据!$E$2:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1861,6 +1889,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1993,10 +2024,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$21</c:f>
+              <c:f>数据!$F$2:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2056,6 +2087,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2649</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3160,7 +3194,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3171,7 +3205,7 @@
     <col min="4" max="4" width="5.5" style="1" customWidth="1"/>
     <col min="5" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11" customWidth="1"/>
+    <col min="8" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.75" style="9" customWidth="1"/>
     <col min="12" max="12" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -3307,7 +3341,7 @@
         <v>175</v>
       </c>
       <c r="K3" s="8">
-        <f t="shared" ref="K3:K21" si="1">E3/B3</f>
+        <f t="shared" ref="K3:K22" si="1">E3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="L3" s="1">
@@ -4139,7 +4173,7 @@
         <v>2649</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ref="G21" si="16">B21+C21</f>
+        <f t="shared" ref="G21:G22" si="16">B21+C21</f>
         <v>66140</v>
       </c>
       <c r="H21" s="1">
@@ -4169,6 +4203,48 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43870</v>
+      </c>
+      <c r="B22" s="1">
+        <v>40171</v>
+      </c>
+      <c r="C22" s="1">
+        <v>23589</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6484</v>
+      </c>
+      <c r="E22" s="1">
+        <v>908</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3281</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="16"/>
+        <v>63760</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3062</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4008</v>
+      </c>
+      <c r="J22" s="1">
+        <f>H22+I22</f>
+        <v>7070</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" si="1"/>
+        <v>2.2603370590724651E-2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>187518</v>
+      </c>
+      <c r="M22" s="5">
+        <v>43871</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -4234,9 +4310,10 @@
     <hyperlink ref="N19" r:id="rId18" xr:uid="{8E9D44E4-0D5E-4C58-B50C-98FC461B4494}"/>
     <hyperlink ref="N20" r:id="rId19" xr:uid="{13DFE643-7BCE-49F3-BC20-226CFC1D201A}"/>
     <hyperlink ref="N21" r:id="rId20" xr:uid="{7C3FA9BD-F23B-49B1-BC1A-3C2967EE1323}"/>
+    <hyperlink ref="N22" r:id="rId21" xr:uid="{14602034-A7B1-4610-9133-EC43984CF514}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -4244,8 +4321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCB1EC1-3844-477F-A6E4-EA289857CFD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DBB396-3566-40C6-A3BB-374EB3F7566F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="273" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="225" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重症</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,19 +87,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>疑似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治愈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -155,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确诊+疑似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新增疑似</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,11 +151,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确诊</t>
+    <t>截至2月9日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>截至2月9日24时</t>
+    <t>现有疑似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有重症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计治愈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计确诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有确诊（含重症）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计确诊+现有疑似</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,11 +399,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>数据!$G$1</c:f>
+              <c:f>数据!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>确诊+疑似</c:v>
+                  <c:v>累计确诊+现有疑似</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -588,11 +592,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>数据!$G$2:$G$30</c15:sqref>
+                    <c15:sqref>数据!$H$2:$H$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$22</c:f>
+              <c:f>数据!$H$2:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -673,11 +677,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>数据!$C$1</c:f>
+              <c:f>数据!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>疑似</c:v>
+                  <c:v>现有疑似</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -852,11 +856,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>数据!$C$2:$C$30</c15:sqref>
+                    <c15:sqref>数据!$D$2:$D$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$C$2:$C$22</c:f>
+              <c:f>数据!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -941,7 +945,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>确诊</c:v>
+                  <c:v>累计确诊</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1216,7 +1220,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>数据!$J$1</c:f>
+              <c:f>数据!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1382,11 +1386,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>数据!$J$2:$J$30</c15:sqref>
+                    <c15:sqref>数据!$K$2:$K$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$J$2:$J$22</c:f>
+              <c:f>数据!$K$2:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1468,11 +1472,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>数据!$D$1</c:f>
+              <c:f>数据!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>重症</c:v>
+                  <c:v>现有重症</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1622,11 +1626,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>数据!$D$2:$D$30</c15:sqref>
+                    <c15:sqref>数据!$E$2:$E$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$22</c:f>
+              <c:f>数据!$E$2:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1724,11 +1728,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>数据!$E$1</c:f>
+              <c:f>数据!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>死亡</c:v>
+                  <c:v>累计死亡</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1822,11 +1826,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>数据!$E$2:$E$30</c15:sqref>
+                    <c15:sqref>数据!$F$2:$F$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$22</c:f>
+              <c:f>数据!$F$2:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1908,11 +1912,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>数据!$F$1</c:f>
+              <c:f>数据!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>治愈</c:v>
+                  <c:v>累计治愈</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2020,11 +2024,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>数据!$F$2:$F$30</c15:sqref>
+                    <c15:sqref>数据!$G$2:$G$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$22</c:f>
+              <c:f>数据!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3190,1099 +3194,1164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" sqref="A1:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.75" style="9" customWidth="1"/>
-    <col min="12" max="12" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.75" style="9" customWidth="1"/>
+    <col min="13" max="13" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
+      <c r="C1" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>13</v>
+      <c r="P1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>43850</v>
       </c>
       <c r="B2" s="2">
         <v>291</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3">
         <v>54</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3">
         <v>6</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>25</v>
       </c>
-      <c r="G2" s="1">
-        <f>B2+C2</f>
+      <c r="H2" s="1">
+        <f>B2+D2</f>
         <v>345</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>77</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>27</v>
       </c>
-      <c r="J2" s="1">
-        <f t="shared" ref="J2:J19" si="0">H2+I2</f>
+      <c r="K2" s="1">
+        <f t="shared" ref="K2:K19" si="0">I2+J2</f>
         <v>104</v>
       </c>
-      <c r="K2" s="8">
-        <f>E2/B2</f>
+      <c r="L2" s="8">
+        <f>F2/B2</f>
         <v>2.0618556701030927E-2</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>922</v>
       </c>
-      <c r="M2" s="5">
+      <c r="N2" s="5">
         <v>43851</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43851</v>
       </c>
       <c r="B3" s="2">
         <v>440</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
         <v>37</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>102</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>9</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>28</v>
       </c>
-      <c r="G3" s="1">
-        <f>B3+C3</f>
+      <c r="H3" s="1">
+        <f>B3+D3</f>
         <v>477</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>149</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>26</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="K3" s="8">
-        <f t="shared" ref="K3:K22" si="1">E3/B3</f>
+      <c r="L3" s="8">
+        <f t="shared" ref="L3:L22" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>1394</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>43852</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43852</v>
       </c>
       <c r="B4" s="3">
         <v>571</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
         <v>393</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>95</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>17</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>49</v>
       </c>
-      <c r="G4" s="1">
-        <f>B4+C4</f>
+      <c r="H4" s="1">
+        <f>B4+D4</f>
         <v>964</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>131</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>257</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <f t="shared" si="0"/>
         <v>388</v>
       </c>
-      <c r="K4" s="8">
+      <c r="L4" s="8">
         <f t="shared" si="1"/>
         <v>2.9772329246935202E-2</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>4928</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>43853</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43853</v>
       </c>
       <c r="B5" s="1">
         <v>830</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
         <v>1072</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>177</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>25</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>34</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" ref="G5" si="2">B5+C5</f>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5" si="2">B5+D5</f>
         <v>1902</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>259</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>680</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <f t="shared" si="0"/>
         <v>939</v>
       </c>
-      <c r="K5" s="8">
+      <c r="L5" s="8">
         <f t="shared" si="1"/>
         <v>3.0120481927710843E-2</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>8420</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>43854</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43854</v>
       </c>
       <c r="B6" s="1">
         <v>1287</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
         <v>1965</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>237</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>41</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>38</v>
       </c>
-      <c r="G6" s="1">
-        <f t="shared" ref="G6" si="3">B6+C6</f>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6" si="3">B6+D6</f>
         <v>3252</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>444</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>1118</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <f t="shared" si="0"/>
         <v>1562</v>
       </c>
-      <c r="K6" s="8">
+      <c r="L6" s="8">
         <f t="shared" si="1"/>
         <v>3.1857031857031856E-2</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>13967</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <v>43855</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43855</v>
       </c>
       <c r="B7" s="1">
         <v>1975</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
         <v>2684</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>324</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>56</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>49</v>
       </c>
-      <c r="G7" s="1">
-        <f t="shared" ref="G7:G8" si="4">B7+C7</f>
+      <c r="H7" s="1">
+        <f t="shared" ref="H7:H8" si="4">B7+D7</f>
         <v>4659</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>688</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>1309</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <f t="shared" si="0"/>
         <v>1997</v>
       </c>
-      <c r="K7" s="8">
+      <c r="L7" s="8">
         <f t="shared" si="1"/>
         <v>2.8354430379746835E-2</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>21556</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>43856</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43856</v>
       </c>
       <c r="B8" s="1">
         <v>2744</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
         <v>5794</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>461</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>80</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>51</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <f t="shared" si="4"/>
         <v>8538</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>769</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>3806</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <f t="shared" si="0"/>
         <v>4575</v>
       </c>
-      <c r="K8" s="8">
+      <c r="L8" s="8">
         <f t="shared" si="1"/>
         <v>2.9154518950437316E-2</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>30453</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>43857</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="O8" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43857</v>
       </c>
       <c r="B9" s="1">
         <v>4515</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
         <v>6973</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>976</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>106</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>60</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" ref="G9:G10" si="5">B9+C9</f>
+      <c r="H9" s="1">
+        <f t="shared" ref="H9:H10" si="5">B9+D9</f>
         <v>11488</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>1771</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>2077</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <f t="shared" si="0"/>
         <v>3848</v>
       </c>
-      <c r="K9" s="8">
+      <c r="L9" s="8">
         <f t="shared" si="1"/>
         <v>2.3477297895902548E-2</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>44132</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>43858</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>11</v>
+      <c r="O9" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43858</v>
       </c>
       <c r="B10" s="1">
         <v>5974</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
         <v>9239</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>1239</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>132</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>103</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <f t="shared" si="5"/>
         <v>15213</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>1459</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>3248</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <f t="shared" si="0"/>
         <v>4707</v>
       </c>
-      <c r="K10" s="8">
+      <c r="L10" s="8">
         <f t="shared" si="1"/>
         <v>2.2095748242383664E-2</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>59990</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>43859</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>12</v>
+      <c r="O10" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43859</v>
       </c>
       <c r="B11" s="1">
         <v>7711</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
         <v>12167</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>1370</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>170</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>124</v>
       </c>
-      <c r="G11" s="1">
-        <f t="shared" ref="G11" si="6">B11+C11</f>
+      <c r="H11" s="1">
+        <f t="shared" ref="H11" si="6">B11+D11</f>
         <v>19878</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>1737</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>4148</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <f t="shared" si="0"/>
         <v>5885</v>
       </c>
-      <c r="K11" s="8">
+      <c r="L11" s="8">
         <f t="shared" si="1"/>
         <v>2.2046427181947867E-2</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>81947</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <v>43860</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>19</v>
+      <c r="O11" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43860</v>
       </c>
       <c r="B12" s="1">
         <v>9692</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
         <v>15238</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>1527</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>213</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>171</v>
       </c>
-      <c r="G12" s="1">
-        <f t="shared" ref="G12" si="7">B12+C12</f>
+      <c r="H12" s="1">
+        <f t="shared" ref="H12" si="7">B12+D12</f>
         <v>24930</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>1982</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>4812</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <f t="shared" si="0"/>
         <v>6794</v>
       </c>
-      <c r="K12" s="8">
+      <c r="L12" s="8">
         <f t="shared" si="1"/>
         <v>2.1976888155179529E-2</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>102427</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <v>43861</v>
       </c>
-      <c r="N12" s="6" t="s">
-        <v>20</v>
+      <c r="O12" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43861</v>
       </c>
       <c r="B13" s="1">
         <v>11791</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
         <v>17988</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>1795</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>259</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>243</v>
       </c>
-      <c r="G13" s="1">
-        <f t="shared" ref="G13" si="8">B13+C13</f>
+      <c r="H13" s="1">
+        <f t="shared" ref="H13" si="8">B13+D13</f>
         <v>29779</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>2102</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>5019</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <f t="shared" si="0"/>
         <v>7121</v>
       </c>
-      <c r="K13" s="8">
+      <c r="L13" s="8">
         <f t="shared" si="1"/>
         <v>2.1965906199643795E-2</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>118478</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>43862</v>
       </c>
-      <c r="N13" s="6" t="s">
-        <v>21</v>
+      <c r="O13" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43862</v>
       </c>
       <c r="B14" s="1">
         <v>14380</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
         <v>19544</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>2110</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>304</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>328</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" ref="G14" si="9">B14+C14</f>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14" si="9">B14+D14</f>
         <v>33924</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>2590</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>4562</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <f t="shared" si="0"/>
         <v>7152</v>
       </c>
-      <c r="K14" s="8">
+      <c r="L14" s="8">
         <f t="shared" si="1"/>
         <v>2.114047287899861E-2</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>137594</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>43863</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>22</v>
+      <c r="O14" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43863</v>
       </c>
       <c r="B15" s="1">
         <v>17205</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
         <v>21558</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>2296</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>361</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>475</v>
       </c>
-      <c r="G15" s="1">
-        <f t="shared" ref="G15" si="10">B15+C15</f>
+      <c r="H15" s="1">
+        <f t="shared" ref="H15" si="10">B15+D15</f>
         <v>38763</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>2829</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>5173</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <f t="shared" si="0"/>
         <v>8002</v>
       </c>
-      <c r="K15" s="8">
+      <c r="L15" s="8">
         <f t="shared" si="1"/>
         <v>2.0982272595175822E-2</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>152700</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N15" s="5">
         <v>43864</v>
       </c>
-      <c r="N15" s="6" t="s">
-        <v>23</v>
+      <c r="O15" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43864</v>
       </c>
       <c r="B16" s="1">
         <v>20438</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
         <v>23214</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>2788</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>425</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>632</v>
       </c>
-      <c r="G16" s="1">
-        <f t="shared" ref="G16" si="11">B16+C16</f>
+      <c r="H16" s="1">
+        <f t="shared" ref="H16" si="11">B16+D16</f>
         <v>43652</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>3235</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>5072</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <f t="shared" si="0"/>
         <v>8307</v>
       </c>
-      <c r="K16" s="8">
+      <c r="L16" s="8">
         <f t="shared" si="1"/>
         <v>2.0794598297289364E-2</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>171329</v>
       </c>
-      <c r="M16" s="5">
+      <c r="N16" s="5">
         <v>43865</v>
       </c>
-      <c r="N16" s="6" t="s">
-        <v>24</v>
+      <c r="O16" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43865</v>
       </c>
       <c r="B17" s="1">
         <v>24324</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1">
         <v>23260</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>3219</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>490</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>892</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" ref="G17" si="12">B17+C17</f>
+      <c r="H17" s="1">
+        <f t="shared" ref="H17" si="12">B17+D17</f>
         <v>47584</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>3887</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>3971</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <f t="shared" si="0"/>
         <v>7858</v>
       </c>
-      <c r="K17" s="8">
+      <c r="L17" s="8">
         <f t="shared" si="1"/>
         <v>2.0144713040618319E-2</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>185555</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <v>43866</v>
       </c>
-      <c r="N17" s="6" t="s">
-        <v>25</v>
+      <c r="O17" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43866</v>
       </c>
       <c r="B18" s="1">
         <v>28018</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1">
         <v>24702</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>3859</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>563</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>1153</v>
       </c>
-      <c r="G18" s="1">
-        <f t="shared" ref="G18" si="13">B18+C18</f>
+      <c r="H18" s="1">
+        <f t="shared" ref="H18" si="13">B18+D18</f>
         <v>52720</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>3694</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>5328</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <f t="shared" si="0"/>
         <v>9022</v>
       </c>
-      <c r="K18" s="8">
+      <c r="L18" s="8">
         <f t="shared" si="1"/>
         <v>2.0094225140980797E-2</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>186354</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
         <v>43867</v>
       </c>
-      <c r="N18" s="6" t="s">
-        <v>26</v>
+      <c r="O18" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43867</v>
       </c>
       <c r="B19" s="1">
         <v>31161</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
+        <v>28985</v>
+      </c>
+      <c r="D19" s="1">
         <v>26359</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>4821</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>636</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>1540</v>
       </c>
-      <c r="G19" s="1">
-        <f t="shared" ref="G19" si="14">B19+C19</f>
+      <c r="H19" s="1">
+        <f t="shared" ref="H19" si="14">B19+D19</f>
         <v>57520</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>3143</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>4833</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <f t="shared" si="0"/>
         <v>7976</v>
       </c>
-      <c r="K19" s="8">
+      <c r="L19" s="8">
         <f t="shared" si="1"/>
         <v>2.0410128044671225E-2</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>186045</v>
       </c>
-      <c r="M19" s="5">
+      <c r="N19" s="5">
         <v>43868</v>
       </c>
-      <c r="N19" s="6" t="s">
-        <v>27</v>
+      <c r="O19" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43868</v>
       </c>
       <c r="B20" s="1">
         <v>34546</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
+        <v>31774</v>
+      </c>
+      <c r="D20" s="1">
         <v>27657</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>6101</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>722</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>2050</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" ref="G20" si="15">B20+C20</f>
+      <c r="H20" s="1">
+        <f t="shared" ref="H20" si="15">B20+D20</f>
         <v>62203</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>3399</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>4214</v>
       </c>
-      <c r="J20" s="1">
-        <f>H20+I20</f>
+      <c r="K20" s="1">
+        <f>I20+J20</f>
         <v>7613</v>
       </c>
-      <c r="K20" s="8">
+      <c r="L20" s="8">
         <f t="shared" si="1"/>
         <v>2.0899670005210445E-2</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>189660</v>
       </c>
-      <c r="M20" s="5">
+      <c r="N20" s="5">
         <v>43869</v>
       </c>
-      <c r="N20" s="6" t="s">
-        <v>28</v>
+      <c r="O20" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43869</v>
       </c>
       <c r="B21" s="1">
         <v>37198</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
+        <v>33738</v>
+      </c>
+      <c r="D21" s="1">
         <v>28942</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>6188</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>811</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>2649</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" ref="G21:G22" si="16">B21+C21</f>
+      <c r="H21" s="1">
+        <f t="shared" ref="H21:H22" si="16">B21+D21</f>
         <v>66140</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>2656</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>3916</v>
       </c>
-      <c r="J21" s="1">
-        <f>H21+I21</f>
+      <c r="K21" s="1">
+        <f>I21+J21</f>
         <v>6572</v>
       </c>
-      <c r="K21" s="8">
+      <c r="L21" s="8">
         <f t="shared" si="1"/>
         <v>2.180224743265767E-2</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>188183</v>
       </c>
-      <c r="M21" s="5">
+      <c r="N21" s="5">
         <v>43870</v>
       </c>
-      <c r="N21" s="6" t="s">
-        <v>29</v>
+      <c r="O21" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43870</v>
       </c>
       <c r="B22" s="1">
         <v>40171</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
+        <v>35982</v>
+      </c>
+      <c r="D22" s="1">
         <v>23589</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>6484</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>908</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>3281</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <f t="shared" si="16"/>
         <v>63760</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>3062</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>4008</v>
       </c>
-      <c r="J22" s="1">
-        <f>H22+I22</f>
+      <c r="K22" s="1">
+        <f>I22+J22</f>
         <v>7070</v>
       </c>
-      <c r="K22" s="8">
+      <c r="L22" s="8">
         <f t="shared" si="1"/>
         <v>2.2603370590724651E-2</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>187518</v>
       </c>
-      <c r="M22" s="5">
+      <c r="N22" s="5">
         <v>43871</v>
       </c>
-      <c r="N22" s="6" t="s">
-        <v>36</v>
+      <c r="O22" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43871</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43872</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43873</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43874</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43875</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43876</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43877</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43878</v>
       </c>
@@ -4290,27 +4359,27 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N9" r:id="rId1" xr:uid="{1E04C867-9FDE-4798-A57C-0BB466A40135}"/>
-    <hyperlink ref="N8" r:id="rId2" xr:uid="{1BFEFE30-D45D-429C-9159-826C5E746FE3}"/>
-    <hyperlink ref="N7" r:id="rId3" xr:uid="{81F09B14-57A9-484C-9C40-BA5A9E9D9FBE}"/>
-    <hyperlink ref="N6" r:id="rId4" xr:uid="{16BC8876-AEC6-44F7-B169-418BA2D2AEFF}"/>
-    <hyperlink ref="N10" r:id="rId5" xr:uid="{4538C653-3775-411A-A7EC-B071CECF4DEE}"/>
-    <hyperlink ref="N5" r:id="rId6" xr:uid="{DE5B0AB7-AAC2-48E0-A489-F3B5DC6D2BAC}"/>
-    <hyperlink ref="N4" r:id="rId7" xr:uid="{57111FE6-E1B2-481B-96E1-7B683A93460A}"/>
-    <hyperlink ref="N3" r:id="rId8" xr:uid="{45BE9127-BDC6-4D5B-9094-CA8DE3F9F4C4}"/>
-    <hyperlink ref="N2" r:id="rId9" xr:uid="{B4F9DE7D-B75C-4B21-816E-CA4BA3E17D1F}"/>
-    <hyperlink ref="N11" r:id="rId10" xr:uid="{EE65C6E5-EAAE-4143-B235-1ED12B6E4B62}"/>
-    <hyperlink ref="N12" r:id="rId11" xr:uid="{BAB6CDA9-16FB-41CA-AEA4-52A15F843B13}"/>
-    <hyperlink ref="N13" r:id="rId12" xr:uid="{A230C252-1713-4F1D-A004-E996D489D674}"/>
-    <hyperlink ref="N14" r:id="rId13" display="截至2月1日25时" xr:uid="{7E0BD5F8-ADA6-457E-AB96-4DFDB2E63117}"/>
-    <hyperlink ref="N15" r:id="rId14" xr:uid="{F068D771-29BA-4F46-BD6A-05C16A5F7009}"/>
-    <hyperlink ref="N16" r:id="rId15" xr:uid="{D3304278-1401-45C7-A1C8-642C92261DCF}"/>
-    <hyperlink ref="N17" r:id="rId16" xr:uid="{EC1455B1-14E2-49BA-81B5-B26CFFDEE400}"/>
-    <hyperlink ref="N18" r:id="rId17" display="截至2月4日24时" xr:uid="{36123F81-8601-448C-BE09-2B86C428B34D}"/>
-    <hyperlink ref="N19" r:id="rId18" xr:uid="{8E9D44E4-0D5E-4C58-B50C-98FC461B4494}"/>
-    <hyperlink ref="N20" r:id="rId19" xr:uid="{13DFE643-7BCE-49F3-BC20-226CFC1D201A}"/>
-    <hyperlink ref="N21" r:id="rId20" xr:uid="{7C3FA9BD-F23B-49B1-BC1A-3C2967EE1323}"/>
-    <hyperlink ref="N22" r:id="rId21" xr:uid="{14602034-A7B1-4610-9133-EC43984CF514}"/>
+    <hyperlink ref="O9" r:id="rId1" xr:uid="{1E04C867-9FDE-4798-A57C-0BB466A40135}"/>
+    <hyperlink ref="O8" r:id="rId2" xr:uid="{1BFEFE30-D45D-429C-9159-826C5E746FE3}"/>
+    <hyperlink ref="O7" r:id="rId3" xr:uid="{81F09B14-57A9-484C-9C40-BA5A9E9D9FBE}"/>
+    <hyperlink ref="O6" r:id="rId4" xr:uid="{16BC8876-AEC6-44F7-B169-418BA2D2AEFF}"/>
+    <hyperlink ref="O10" r:id="rId5" xr:uid="{4538C653-3775-411A-A7EC-B071CECF4DEE}"/>
+    <hyperlink ref="O5" r:id="rId6" xr:uid="{DE5B0AB7-AAC2-48E0-A489-F3B5DC6D2BAC}"/>
+    <hyperlink ref="O4" r:id="rId7" xr:uid="{57111FE6-E1B2-481B-96E1-7B683A93460A}"/>
+    <hyperlink ref="O3" r:id="rId8" xr:uid="{45BE9127-BDC6-4D5B-9094-CA8DE3F9F4C4}"/>
+    <hyperlink ref="O2" r:id="rId9" xr:uid="{B4F9DE7D-B75C-4B21-816E-CA4BA3E17D1F}"/>
+    <hyperlink ref="O11" r:id="rId10" xr:uid="{EE65C6E5-EAAE-4143-B235-1ED12B6E4B62}"/>
+    <hyperlink ref="O12" r:id="rId11" xr:uid="{BAB6CDA9-16FB-41CA-AEA4-52A15F843B13}"/>
+    <hyperlink ref="O13" r:id="rId12" xr:uid="{A230C252-1713-4F1D-A004-E996D489D674}"/>
+    <hyperlink ref="O14" r:id="rId13" display="截至2月1日25时" xr:uid="{7E0BD5F8-ADA6-457E-AB96-4DFDB2E63117}"/>
+    <hyperlink ref="O15" r:id="rId14" xr:uid="{F068D771-29BA-4F46-BD6A-05C16A5F7009}"/>
+    <hyperlink ref="O16" r:id="rId15" xr:uid="{D3304278-1401-45C7-A1C8-642C92261DCF}"/>
+    <hyperlink ref="O17" r:id="rId16" xr:uid="{EC1455B1-14E2-49BA-81B5-B26CFFDEE400}"/>
+    <hyperlink ref="O18" r:id="rId17" display="截至2月4日24时" xr:uid="{36123F81-8601-448C-BE09-2B86C428B34D}"/>
+    <hyperlink ref="O19" r:id="rId18" xr:uid="{8E9D44E4-0D5E-4C58-B50C-98FC461B4494}"/>
+    <hyperlink ref="O20" r:id="rId19" xr:uid="{13DFE643-7BCE-49F3-BC20-226CFC1D201A}"/>
+    <hyperlink ref="O21" r:id="rId20" xr:uid="{7C3FA9BD-F23B-49B1-BC1A-3C2967EE1323}"/>
+    <hyperlink ref="O22" r:id="rId21" xr:uid="{14602034-A7B1-4610-9133-EC43984CF514}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
@@ -4321,7 +4390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DBB396-3566-40C6-A3BB-374EB3F7566F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67743132-75A2-40F1-A0C3-6C087832015D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="225" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,10 @@
   </si>
   <si>
     <t>累计确诊+现有疑似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月10日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,10 +521,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$22</c:f>
+              <c:f>数据!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -583,6 +587,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,10 +606,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$22</c:f>
+              <c:f>数据!$H$2:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -662,6 +672,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>63760</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,10 +794,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$22</c:f>
+              <c:f>数据!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -847,6 +860,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -860,10 +879,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$22</c:f>
+              <c:f>数据!$D$2:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -926,6 +945,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>23589</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1045,10 +1067,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$22</c:f>
+              <c:f>数据!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1111,6 +1133,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,10 +1152,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$22</c:f>
+              <c:f>数据!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1190,6 +1218,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>40171</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1390,10 +1421,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$22</c:f>
+              <c:f>数据!$K$2:$K$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1456,6 +1487,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>7070</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1630,10 +1664,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$22</c:f>
+              <c:f>数据!$E$2:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1696,6 +1730,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>6484</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1830,10 +1867,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$22</c:f>
+              <c:f>数据!$F$2:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1896,6 +1933,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2028,10 +2068,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$22</c:f>
+              <c:f>数据!$G$2:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2094,6 +2134,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3281</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3196,9 +3239,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:O22"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3353,7 +3396,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L22" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L23" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4239,7 +4282,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H22" si="16">B21+D21</f>
+        <f t="shared" ref="H21:H23" si="16">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -4319,6 +4362,51 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43871</v>
+      </c>
+      <c r="B23" s="1">
+        <v>42638</v>
+      </c>
+      <c r="C23" s="1">
+        <v>37626</v>
+      </c>
+      <c r="D23" s="1">
+        <v>21675</v>
+      </c>
+      <c r="E23" s="1">
+        <v>7333</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1016</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3996</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="16"/>
+        <v>64313</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2478</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3536</v>
+      </c>
+      <c r="K23" s="1">
+        <f>I23+J23</f>
+        <v>6014</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="1"/>
+        <v>2.3828509780008444E-2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>187728</v>
+      </c>
+      <c r="N23" s="5">
+        <v>43872</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -4380,9 +4468,10 @@
     <hyperlink ref="O20" r:id="rId19" xr:uid="{13DFE643-7BCE-49F3-BC20-226CFC1D201A}"/>
     <hyperlink ref="O21" r:id="rId20" xr:uid="{7C3FA9BD-F23B-49B1-BC1A-3C2967EE1323}"/>
     <hyperlink ref="O22" r:id="rId21" xr:uid="{14602034-A7B1-4610-9133-EC43984CF514}"/>
+    <hyperlink ref="O23" r:id="rId22" xr:uid="{C3E130D9-82DE-4263-897F-4F03E6758DD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -4390,8 +4479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67743132-75A2-40F1-A0C3-6C087832015D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D32BDBF-6573-4B04-BC20-1AE3CF07D006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="225" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="225" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,10 @@
   </si>
   <si>
     <t>截至2月10日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月11日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,6 +680,9 @@
                 <c:pt idx="21">
                   <c:v>64313</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>60720</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -949,6 +956,9 @@
                 <c:pt idx="21">
                   <c:v>21675</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>16067</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1222,6 +1232,9 @@
                 <c:pt idx="21">
                   <c:v>42638</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>44653</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1491,6 +1504,9 @@
                 <c:pt idx="21">
                   <c:v>6014</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>5357</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1734,6 +1750,9 @@
                 <c:pt idx="21">
                   <c:v>7333</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>8204</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1936,6 +1955,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2137,6 +2159,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4740</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3239,9 +3264,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O24" sqref="A24:O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3396,7 +3421,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L23" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L24" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4282,7 +4307,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H23" si="16">B21+D21</f>
+        <f t="shared" ref="H21:H24" si="16">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -4412,6 +4437,51 @@
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43872</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C24" s="1">
+        <v>38800</v>
+      </c>
+      <c r="D24" s="1">
+        <v>16067</v>
+      </c>
+      <c r="E24" s="1">
+        <v>8204</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1113</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4740</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="16"/>
+        <v>60720</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2015</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3342</v>
+      </c>
+      <c r="K24" s="1">
+        <f>I24+J24</f>
+        <v>5357</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="1"/>
+        <v>2.4925536918012227E-2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>185037</v>
+      </c>
+      <c r="N24" s="5">
+        <v>43873</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -4469,9 +4539,10 @@
     <hyperlink ref="O21" r:id="rId20" xr:uid="{7C3FA9BD-F23B-49B1-BC1A-3C2967EE1323}"/>
     <hyperlink ref="O22" r:id="rId21" xr:uid="{14602034-A7B1-4610-9133-EC43984CF514}"/>
     <hyperlink ref="O23" r:id="rId22" xr:uid="{C3E130D9-82DE-4263-897F-4F03E6758DD7}"/>
+    <hyperlink ref="O24" r:id="rId23" display="截至2月10日24时" xr:uid="{1031DB3E-C1E9-497E-8E7C-926C04ECD54B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -4479,7 +4550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D32BDBF-6573-4B04-BC20-1AE3CF07D006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91655564-0EB3-4E33-AB10-6E774C9CBFF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="225" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,10 @@
   </si>
   <si>
     <t>截至2月11日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月12日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +529,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$24</c:f>
+              <c:f>数据!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -597,6 +601,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -610,10 +617,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$24</c:f>
+              <c:f>数据!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -682,6 +689,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>60720</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>73239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -801,10 +811,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$24</c:f>
+              <c:f>数据!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -873,6 +883,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -886,10 +899,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$24</c:f>
+              <c:f>数据!$D$2:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -958,6 +971,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>16067</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,10 +1093,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$24</c:f>
+              <c:f>数据!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1149,6 +1165,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1162,10 +1181,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$24</c:f>
+              <c:f>数据!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1234,6 +1253,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44653</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>59804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1434,10 +1456,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$24</c:f>
+              <c:f>数据!$K$2:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1506,6 +1528,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5357</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,10 +1705,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$24</c:f>
+              <c:f>数据!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1752,6 +1777,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>8204</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8030</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1886,10 +1914,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$24</c:f>
+              <c:f>数据!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1958,6 +1986,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1113</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2090,10 +2121,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$24</c:f>
+              <c:f>数据!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2162,6 +2193,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4740</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3266,7 +3300,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O24" sqref="A24:O24"/>
+      <selection pane="bottomLeft" activeCell="O25" sqref="A25:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3421,7 +3455,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L24" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L25" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4307,7 +4341,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H24" si="16">B21+D21</f>
+        <f t="shared" ref="H21:H25" si="16">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -4487,6 +4521,51 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43873</v>
+      </c>
+      <c r="B25" s="1">
+        <v>59804</v>
+      </c>
+      <c r="C25" s="1">
+        <v>52526</v>
+      </c>
+      <c r="D25" s="1">
+        <v>13435</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8030</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1367</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5911</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="16"/>
+        <v>73239</v>
+      </c>
+      <c r="I25" s="1">
+        <v>15152</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2807</v>
+      </c>
+      <c r="K25" s="1">
+        <f>I25+J25</f>
+        <v>17959</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="1"/>
+        <v>2.2858002809176645E-2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>181386</v>
+      </c>
+      <c r="N25" s="5">
+        <v>43874</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -4540,9 +4619,10 @@
     <hyperlink ref="O22" r:id="rId21" xr:uid="{14602034-A7B1-4610-9133-EC43984CF514}"/>
     <hyperlink ref="O23" r:id="rId22" xr:uid="{C3E130D9-82DE-4263-897F-4F03E6758DD7}"/>
     <hyperlink ref="O24" r:id="rId23" display="截至2月10日24时" xr:uid="{1031DB3E-C1E9-497E-8E7C-926C04ECD54B}"/>
+    <hyperlink ref="O25" r:id="rId24" xr:uid="{B44F35AD-1957-48C8-9A0F-00CCF3053CA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -4550,8 +4630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91655564-0EB3-4E33-AB10-6E774C9CBFF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B079D8-C30A-4FA8-8086-029C37DAA3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="225" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>截至2月12日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月13日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,10 +533,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$25</c:f>
+              <c:f>数据!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -604,6 +608,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -617,10 +624,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$25</c:f>
+              <c:f>数据!$H$2:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -692,6 +699,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>73239</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>73960</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,10 +821,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$25</c:f>
+              <c:f>数据!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -886,6 +896,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -899,10 +912,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$25</c:f>
+              <c:f>数据!$D$2:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -974,6 +987,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>13435</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,10 +1109,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$25</c:f>
+              <c:f>数据!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1168,6 +1184,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1181,10 +1200,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$25</c:f>
+              <c:f>数据!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1256,6 +1275,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>59804</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1456,10 +1478,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$25</c:f>
+              <c:f>数据!$K$2:$K$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1531,6 +1553,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>17959</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7540</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1705,10 +1730,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$25</c:f>
+              <c:f>数据!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1780,6 +1805,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>8030</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1914,10 +1942,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$25</c:f>
+              <c:f>数据!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1989,6 +2017,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1367</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2121,10 +2152,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$25</c:f>
+              <c:f>数据!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2196,6 +2227,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>5911</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3300,7 +3334,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O25" sqref="A25:O25"/>
+      <selection pane="bottomLeft" activeCell="O26" sqref="B26:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3455,7 +3489,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L25" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L26" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4301,7 +4335,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f>I20+J20</f>
+        <f t="shared" ref="K20:K26" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4341,7 +4375,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H25" si="16">B21+D21</f>
+        <f t="shared" ref="H21:H26" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -4351,7 +4385,7 @@
         <v>3916</v>
       </c>
       <c r="K21" s="1">
-        <f>I21+J21</f>
+        <f t="shared" si="16"/>
         <v>6572</v>
       </c>
       <c r="L21" s="8">
@@ -4391,7 +4425,7 @@
         <v>3281</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>63760</v>
       </c>
       <c r="I22" s="1">
@@ -4401,7 +4435,7 @@
         <v>4008</v>
       </c>
       <c r="K22" s="1">
-        <f>I22+J22</f>
+        <f t="shared" si="16"/>
         <v>7070</v>
       </c>
       <c r="L22" s="8">
@@ -4441,7 +4475,7 @@
         <v>3996</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>64313</v>
       </c>
       <c r="I23" s="1">
@@ -4451,7 +4485,7 @@
         <v>3536</v>
       </c>
       <c r="K23" s="1">
-        <f>I23+J23</f>
+        <f t="shared" si="16"/>
         <v>6014</v>
       </c>
       <c r="L23" s="8">
@@ -4491,7 +4525,7 @@
         <v>4740</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>60720</v>
       </c>
       <c r="I24" s="1">
@@ -4501,7 +4535,7 @@
         <v>3342</v>
       </c>
       <c r="K24" s="1">
-        <f>I24+J24</f>
+        <f t="shared" si="16"/>
         <v>5357</v>
       </c>
       <c r="L24" s="8">
@@ -4541,7 +4575,7 @@
         <v>5911</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>73239</v>
       </c>
       <c r="I25" s="1">
@@ -4551,7 +4585,7 @@
         <v>2807</v>
       </c>
       <c r="K25" s="1">
-        <f>I25+J25</f>
+        <f t="shared" si="16"/>
         <v>17959</v>
       </c>
       <c r="L25" s="8">
@@ -4571,6 +4605,51 @@
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43874</v>
+      </c>
+      <c r="B26" s="1">
+        <v>63851</v>
+      </c>
+      <c r="C26" s="1">
+        <v>55748</v>
+      </c>
+      <c r="D26" s="1">
+        <v>10109</v>
+      </c>
+      <c r="E26" s="1">
+        <v>10204</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1380</v>
+      </c>
+      <c r="G26" s="1">
+        <v>6723</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="17"/>
+        <v>73960</v>
+      </c>
+      <c r="I26" s="1">
+        <v>5090</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2450</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="16"/>
+        <v>7540</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="1"/>
+        <v>2.1612817340370551E-2</v>
+      </c>
+      <c r="M26" s="1">
+        <v>177984</v>
+      </c>
+      <c r="N26" s="5">
+        <v>43875</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -4620,9 +4699,10 @@
     <hyperlink ref="O23" r:id="rId22" xr:uid="{C3E130D9-82DE-4263-897F-4F03E6758DD7}"/>
     <hyperlink ref="O24" r:id="rId23" display="截至2月10日24时" xr:uid="{1031DB3E-C1E9-497E-8E7C-926C04ECD54B}"/>
     <hyperlink ref="O25" r:id="rId24" xr:uid="{B44F35AD-1957-48C8-9A0F-00CCF3053CA2}"/>
+    <hyperlink ref="O26" r:id="rId25" xr:uid="{12E6CE8B-A4C8-4AAB-B1C4-F94B4651E05D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -4630,8 +4710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B079D8-C30A-4FA8-8086-029C37DAA3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C3AE00-B701-4217-92DB-03A1020EE4A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="225" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,10 @@
   </si>
   <si>
     <t>截至2月13日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月14日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +537,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$26</c:f>
+              <c:f>数据!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -611,6 +615,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -624,10 +631,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$26</c:f>
+              <c:f>数据!$H$2:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -702,6 +709,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>73960</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>75461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,10 +831,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$26</c:f>
+              <c:f>数据!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -899,6 +909,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -912,10 +925,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$26</c:f>
+              <c:f>数据!$D$2:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -990,6 +1003,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>10109</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,10 +1125,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$26</c:f>
+              <c:f>数据!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1187,6 +1203,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,10 +1219,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$26</c:f>
+              <c:f>数据!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1278,6 +1297,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>63851</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>66492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1478,10 +1500,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$26</c:f>
+              <c:f>数据!$K$2:$K$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1556,6 +1578,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>7540</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1730,10 +1755,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$26</c:f>
+              <c:f>数据!$E$2:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1808,6 +1833,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>10204</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1942,10 +1970,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$26</c:f>
+              <c:f>数据!$F$2:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2020,6 +2048,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2152,10 +2183,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$26</c:f>
+              <c:f>数据!$G$2:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2230,6 +2261,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>6723</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3334,7 +3368,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O26" sqref="B26:O26"/>
+      <selection pane="bottomLeft" activeCell="O27" sqref="A27:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3489,7 +3523,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L26" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L27" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4335,7 +4369,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K26" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K27" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4375,7 +4409,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H26" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H27" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -4655,6 +4689,51 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43875</v>
+      </c>
+      <c r="B27" s="1">
+        <v>66492</v>
+      </c>
+      <c r="C27" s="1">
+        <v>56873</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8969</v>
+      </c>
+      <c r="E27" s="1">
+        <v>11053</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1523</v>
+      </c>
+      <c r="G27" s="1">
+        <v>8096</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="17"/>
+        <v>75461</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2641</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2277</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="16"/>
+        <v>4918</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="1"/>
+        <v>2.2905011129158395E-2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>169039</v>
+      </c>
+      <c r="N27" s="5">
+        <v>43876</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -4700,9 +4779,10 @@
     <hyperlink ref="O24" r:id="rId23" display="截至2月10日24时" xr:uid="{1031DB3E-C1E9-497E-8E7C-926C04ECD54B}"/>
     <hyperlink ref="O25" r:id="rId24" xr:uid="{B44F35AD-1957-48C8-9A0F-00CCF3053CA2}"/>
     <hyperlink ref="O26" r:id="rId25" xr:uid="{12E6CE8B-A4C8-4AAB-B1C4-F94B4651E05D}"/>
+    <hyperlink ref="O27" r:id="rId26" xr:uid="{9D1118F9-58E4-479A-94CD-7CA6225FD480}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -4711,7 +4791,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C3AE00-B701-4217-92DB-03A1020EE4A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4568CA-1BEC-432B-9AD8-FF77F5A4AFE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="225" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="225" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,10 @@
   </si>
   <si>
     <t>截至2月14日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月15日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,10 +541,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$27</c:f>
+              <c:f>数据!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -618,6 +622,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -631,10 +638,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$27</c:f>
+              <c:f>数据!$H$2:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -712,6 +719,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>75461</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>76728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,10 +841,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$27</c:f>
+              <c:f>数据!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -912,6 +922,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -925,10 +938,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$27</c:f>
+              <c:f>数据!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1006,6 +1019,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>8969</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1125,10 +1141,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$27</c:f>
+              <c:f>数据!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1206,6 +1222,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,10 +1238,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$27</c:f>
+              <c:f>数据!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1300,6 +1319,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>66492</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1500,10 +1522,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$27</c:f>
+              <c:f>数据!$K$2:$K$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1581,6 +1603,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>4918</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,10 +1780,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$27</c:f>
+              <c:f>数据!$E$2:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1836,6 +1861,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>11053</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1970,10 +1998,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$27</c:f>
+              <c:f>数据!$F$2:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2051,6 +2079,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1523</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2183,10 +2214,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$27</c:f>
+              <c:f>数据!$G$2:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2264,6 +2295,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>8096</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3366,9 +3400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O27" sqref="A27:O27"/>
+      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3523,7 +3557,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L27" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L28" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4369,7 +4403,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K27" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K28" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4409,7 +4443,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H27" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H28" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -4739,6 +4773,51 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43876</v>
+      </c>
+      <c r="B28" s="1">
+        <v>68500</v>
+      </c>
+      <c r="C28" s="1">
+        <v>57416</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8228</v>
+      </c>
+      <c r="E28" s="1">
+        <v>11272</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1665</v>
+      </c>
+      <c r="G28" s="1">
+        <v>9419</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="17"/>
+        <v>76728</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2009</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1918</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="16"/>
+        <v>3927</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="1"/>
+        <v>2.4306569343065694E-2</v>
+      </c>
+      <c r="M28" s="1">
+        <v>158764</v>
+      </c>
+      <c r="N28" s="5">
+        <v>43877</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -4780,9 +4859,10 @@
     <hyperlink ref="O25" r:id="rId24" xr:uid="{B44F35AD-1957-48C8-9A0F-00CCF3053CA2}"/>
     <hyperlink ref="O26" r:id="rId25" xr:uid="{12E6CE8B-A4C8-4AAB-B1C4-F94B4651E05D}"/>
     <hyperlink ref="O27" r:id="rId26" xr:uid="{9D1118F9-58E4-479A-94CD-7CA6225FD480}"/>
+    <hyperlink ref="O28" r:id="rId27" xr:uid="{8F78FDA5-81B7-4FAF-B1A2-B50EDB4AFAF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -4790,8 +4870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4568CA-1BEC-432B-9AD8-FF77F5A4AFE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CC24FC-DE5C-4DCF-AD79-111D21799CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="225" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="225" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,10 @@
   </si>
   <si>
     <t>截至2月15日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月16日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,10 +545,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$28</c:f>
+              <c:f>数据!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -625,6 +629,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -638,10 +645,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$28</c:f>
+              <c:f>数据!$H$2:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -722,6 +729,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>76728</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>77812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,10 +851,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$28</c:f>
+              <c:f>数据!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -925,6 +935,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -938,10 +951,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$28</c:f>
+              <c:f>数据!$D$2:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1022,6 +1035,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>8228</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1141,10 +1157,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$28</c:f>
+              <c:f>数据!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1225,6 +1241,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,10 +1257,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$28</c:f>
+              <c:f>数据!$B$2:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1322,6 +1341,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>68500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1522,10 +1544,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$28</c:f>
+              <c:f>数据!$K$2:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1606,6 +1628,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>3927</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1780,10 +1805,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$28</c:f>
+              <c:f>数据!$E$2:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1864,6 +1889,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>11272</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1998,10 +2026,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$28</c:f>
+              <c:f>数据!$F$2:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2082,6 +2110,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1665</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1770</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2214,10 +2245,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$28</c:f>
+              <c:f>数据!$G$2:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2298,6 +2329,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>9419</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3400,9 +3434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
+      <selection pane="bottomLeft" activeCell="O29" sqref="A29:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3557,7 +3591,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L28" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L29" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4403,7 +4437,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K28" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K29" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4443,7 +4477,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H28" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H29" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -4823,6 +4857,51 @@
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43877</v>
+      </c>
+      <c r="B29" s="1">
+        <v>70548</v>
+      </c>
+      <c r="C29" s="1">
+        <v>57934</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7264</v>
+      </c>
+      <c r="E29" s="1">
+        <v>10644</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1770</v>
+      </c>
+      <c r="G29" s="1">
+        <v>10844</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="17"/>
+        <v>77812</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2048</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1563</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="16"/>
+        <v>3611</v>
+      </c>
+      <c r="L29" s="8">
+        <f t="shared" si="1"/>
+        <v>2.5089300901513862E-2</v>
+      </c>
+      <c r="M29" s="1">
+        <v>150539</v>
+      </c>
+      <c r="N29" s="5">
+        <v>43878</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -4860,9 +4939,10 @@
     <hyperlink ref="O26" r:id="rId25" xr:uid="{12E6CE8B-A4C8-4AAB-B1C4-F94B4651E05D}"/>
     <hyperlink ref="O27" r:id="rId26" xr:uid="{9D1118F9-58E4-479A-94CD-7CA6225FD480}"/>
     <hyperlink ref="O28" r:id="rId27" xr:uid="{8F78FDA5-81B7-4FAF-B1A2-B50EDB4AFAF3}"/>
+    <hyperlink ref="O29" r:id="rId28" xr:uid="{77A84C43-563D-4DEF-A49D-48CDBC5F50D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
 </worksheet>
 </file>
 
@@ -4870,8 +4950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CC24FC-DE5C-4DCF-AD79-111D21799CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB87EF7-D2A4-4077-ADC8-45FE80932F0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="225" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="225" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,10 @@
   </si>
   <si>
     <t>截至2月16日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月17日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,59 +473,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -541,14 +492,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>数据!$A$2:$A$30</c15:sqref>
+                    <c15:sqref>数据!$A$2:$A$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$29</c:f>
+              <c:f>数据!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -632,6 +583,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,14 +595,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>数据!$H$2:$H$30</c15:sqref>
+                    <c15:sqref>数据!$H$2:$H$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$29</c:f>
+              <c:f>数据!$H$2:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -732,6 +686,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>77812</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>78678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,72 +746,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>数据!$A$2:$A$30</c15:sqref>
+                    <c15:sqref>数据!$A$2:$A$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$29</c:f>
+              <c:f>数据!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -938,6 +842,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,14 +854,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>数据!$D$2:$D$30</c15:sqref>
+                    <c15:sqref>数据!$D$2:$D$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$29</c:f>
+              <c:f>数据!$D$2:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1038,6 +945,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>7264</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,72 +1005,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>数据!$A$2:$A$30</c15:sqref>
+                    <c15:sqref>数据!$A$2:$A$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$29</c:f>
+              <c:f>数据!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1244,6 +1101,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,14 +1113,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>数据!$B$2:$B$30</c15:sqref>
+                    <c15:sqref>数据!$B$2:$B$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$29</c:f>
+              <c:f>数据!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1344,6 +1204,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>70548</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>72436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,7 +1219,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1395,59 +1258,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -1540,14 +1350,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>数据!$K$2:$K$30</c15:sqref>
+                    <c15:sqref>数据!$K$2:$K$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$29</c:f>
+              <c:f>数据!$K$2:$K$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1631,6 +1441,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>3611</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1670,59 +1483,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:extLst>
@@ -1801,14 +1561,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>数据!$E$2:$E$30</c15:sqref>
+                    <c15:sqref>数据!$E$2:$E$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$29</c:f>
+              <c:f>数据!$E$2:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1892,6 +1652,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>10644</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1905,7 +1668,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1945,59 +1708,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:extLst>
@@ -2022,14 +1732,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>数据!$F$2:$F$30</c15:sqref>
+                    <c15:sqref>数据!$F$2:$F$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$29</c:f>
+              <c:f>数据!$F$2:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2113,6 +1823,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2150,59 +1863,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -2241,14 +1901,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>数据!$G$2:$G$30</c15:sqref>
+                    <c15:sqref>数据!$G$2:$G$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$29</c:f>
+              <c:f>数据!$G$2:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2332,6 +1992,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>10844</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2345,7 +2008,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3432,11 +3095,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O29" sqref="A29:O29"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3591,7 +3254,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L29" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L30" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4437,7 +4100,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K29" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K30" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4477,7 +4140,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H29" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H30" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -4907,6 +4570,66 @@
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43878</v>
+      </c>
+      <c r="B30" s="1">
+        <v>72436</v>
+      </c>
+      <c r="C30" s="1">
+        <v>58016</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6242</v>
+      </c>
+      <c r="E30" s="1">
+        <v>11741</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1868</v>
+      </c>
+      <c r="G30" s="1">
+        <v>12552</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="17"/>
+        <v>78678</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1886</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1432</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="16"/>
+        <v>3318</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="1"/>
+        <v>2.5788282069689104E-2</v>
+      </c>
+      <c r="M30" s="1">
+        <v>141552</v>
+      </c>
+      <c r="N30" s="5">
+        <v>43879</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>43879</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>43880</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>43881</v>
       </c>
     </row>
   </sheetData>
@@ -4940,9 +4663,10 @@
     <hyperlink ref="O27" r:id="rId26" xr:uid="{9D1118F9-58E4-479A-94CD-7CA6225FD480}"/>
     <hyperlink ref="O28" r:id="rId27" xr:uid="{8F78FDA5-81B7-4FAF-B1A2-B50EDB4AFAF3}"/>
     <hyperlink ref="O29" r:id="rId28" xr:uid="{77A84C43-563D-4DEF-A49D-48CDBC5F50D7}"/>
+    <hyperlink ref="O30" r:id="rId29" xr:uid="{B4E14A8D-FFF4-4D8A-BD89-9BEA36A93F36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId30"/>
 </worksheet>
 </file>
 
@@ -4950,8 +4674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB87EF7-D2A4-4077-ADC8-45FE80932F0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE59B7D3-D051-4620-9CD0-2EE78845843E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="225" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,10 @@
   </si>
   <si>
     <t>截至2月17日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月18日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,10 +500,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$30</c:f>
+              <c:f>数据!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -586,6 +590,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -599,10 +606,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$30</c:f>
+              <c:f>数据!$H$2:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -689,6 +696,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>78678</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>79433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -755,10 +765,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$30</c:f>
+              <c:f>数据!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -845,6 +855,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -858,10 +871,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$30</c:f>
+              <c:f>数据!$D$2:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -948,6 +961,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6242</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,10 +1030,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$30</c:f>
+              <c:f>数据!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1104,6 +1120,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1117,10 +1136,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$30</c:f>
+              <c:f>数据!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1207,6 +1226,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>72436</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1354,10 +1376,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$30</c:f>
+              <c:f>数据!$K$2:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1444,6 +1466,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3318</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,10 +1590,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$30</c:f>
+              <c:f>数据!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1655,6 +1680,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>11741</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1736,10 +1764,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$30</c:f>
+              <c:f>数据!$F$2:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1826,6 +1854,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1868</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1905,10 +1936,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$30</c:f>
+              <c:f>数据!$G$2:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -1995,6 +2026,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>12552</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3097,9 +3131,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3254,7 +3288,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L30" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L31" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4100,7 +4134,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K30" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K31" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4140,7 +4174,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H30" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H31" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -4620,6 +4654,51 @@
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43879</v>
+      </c>
+      <c r="B31" s="1">
+        <v>74185</v>
+      </c>
+      <c r="C31" s="1">
+        <v>57805</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5248</v>
+      </c>
+      <c r="E31" s="1">
+        <v>11977</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2004</v>
+      </c>
+      <c r="G31" s="1">
+        <v>14376</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="17"/>
+        <v>79433</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1749</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1185</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="16"/>
+        <v>2934</v>
+      </c>
+      <c r="L31" s="8">
+        <f t="shared" si="1"/>
+        <v>2.701354721304846E-2</v>
+      </c>
+      <c r="M31" s="1">
+        <v>135881</v>
+      </c>
+      <c r="N31" s="5">
+        <v>43880</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -4664,9 +4743,10 @@
     <hyperlink ref="O28" r:id="rId27" xr:uid="{8F78FDA5-81B7-4FAF-B1A2-B50EDB4AFAF3}"/>
     <hyperlink ref="O29" r:id="rId28" xr:uid="{77A84C43-563D-4DEF-A49D-48CDBC5F50D7}"/>
     <hyperlink ref="O30" r:id="rId29" xr:uid="{B4E14A8D-FFF4-4D8A-BD89-9BEA36A93F36}"/>
+    <hyperlink ref="O31" r:id="rId30" xr:uid="{CCDADF2C-0898-4101-A0DC-8EAE54EBA559}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -4674,7 +4754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE59B7D3-D051-4620-9CD0-2EE78845843E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9679F7-7716-4378-81E5-7605E680DDC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="225" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="225" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,10 @@
   </si>
   <si>
     <t>截至2月18日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月19日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +504,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$31</c:f>
+              <c:f>数据!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -593,6 +597,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -606,10 +613,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$31</c:f>
+              <c:f>数据!$H$2:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -699,6 +706,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>79433</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>79498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,10 +775,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$31</c:f>
+              <c:f>数据!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -858,6 +868,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -871,10 +884,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$31</c:f>
+              <c:f>数据!$D$2:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -964,6 +977,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>5248</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1030,10 +1046,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$31</c:f>
+              <c:f>数据!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1123,6 +1139,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1136,10 +1155,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$31</c:f>
+              <c:f>数据!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1229,6 +1248,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>74185</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>74576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1376,10 +1398,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$31</c:f>
+              <c:f>数据!$K$2:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1469,6 +1491,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2934</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,10 +1615,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$31</c:f>
+              <c:f>数据!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1683,6 +1708,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>11977</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1764,10 +1792,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$31</c:f>
+              <c:f>数据!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1857,6 +1885,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1936,10 +1967,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$31</c:f>
+              <c:f>数据!$G$2:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2029,6 +2060,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>14376</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3131,9 +3165,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3145,7 +3179,7 @@
     <col min="8" max="8" width="19.875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.75" style="9" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
@@ -3288,7 +3322,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L31" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L32" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4134,7 +4168,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K31" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K32" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4174,7 +4208,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H31" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H32" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -4704,6 +4738,51 @@
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43880</v>
+      </c>
+      <c r="B32" s="1">
+        <v>74576</v>
+      </c>
+      <c r="C32" s="1">
+        <v>56303</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4922</v>
+      </c>
+      <c r="E32" s="1">
+        <v>11864</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2118</v>
+      </c>
+      <c r="G32" s="1">
+        <v>16155</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="17"/>
+        <v>79498</v>
+      </c>
+      <c r="I32" s="1">
+        <v>394</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1277</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="16"/>
+        <v>1671</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" si="1"/>
+        <v>2.8400557820210254E-2</v>
+      </c>
+      <c r="M32" s="1">
+        <v>126363</v>
+      </c>
+      <c r="N32" s="5">
+        <v>43881</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -4744,9 +4823,10 @@
     <hyperlink ref="O29" r:id="rId28" xr:uid="{77A84C43-563D-4DEF-A49D-48CDBC5F50D7}"/>
     <hyperlink ref="O30" r:id="rId29" xr:uid="{B4E14A8D-FFF4-4D8A-BD89-9BEA36A93F36}"/>
     <hyperlink ref="O31" r:id="rId30" xr:uid="{CCDADF2C-0898-4101-A0DC-8EAE54EBA559}"/>
+    <hyperlink ref="O32" r:id="rId31" xr:uid="{5AA36AEB-B86E-4868-9BA6-87B23F43E2A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId32"/>
 </worksheet>
 </file>
 
@@ -4754,7 +4834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9679F7-7716-4378-81E5-7605E680DDC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD09AD3A-CE9D-4FA6-AE03-BAE8F8B5422E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="225" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="225" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,10 @@
   </si>
   <si>
     <t>截至2月19日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月20日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,17 +501,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$2:$A$33</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$A$2:$A$32</c:f>
+              <c:f>数据!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -600,23 +597,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$H$2:$H$33</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$H$2:$H$32</c:f>
+              <c:f>数据!$H$2:$H$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -709,6 +702,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>79498</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>80671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -768,17 +764,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$2:$A$33</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$A$2:$A$32</c:f>
+              <c:f>数据!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -871,23 +860,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$D$2:$D$33</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$D$2:$D$32</c:f>
+              <c:f>数据!$D$2:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -980,6 +965,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>4922</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,17 +1027,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$2:$A$33</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$A$2:$A$32</c:f>
+              <c:f>数据!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1142,23 +1123,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$B$2:$B$33</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$B$2:$B$32</c:f>
+              <c:f>数据!$B$2:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1251,6 +1228,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>74576</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>75465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1318,13 +1298,6 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$2:$A$20</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>数据!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
@@ -1391,17 +1364,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$K$2:$K$33</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$K$2:$K$32</c:f>
+              <c:f>数据!$K$2:$K$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1494,6 +1460,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1671</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1535,13 +1504,6 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$2:$A$20</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>数据!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
@@ -1608,17 +1570,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$E$2:$E$33</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$E$2:$E$32</c:f>
+              <c:f>数据!$E$2:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1711,6 +1666,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>11864</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1766,14 +1724,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$4:$A$4</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$A$4</c:f>
+              <c:f>数据!$A$4:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1785,17 +1736,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$F$2:$F$33</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$F$2:$F$32</c:f>
+              <c:f>数据!$F$2:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1888,6 +1832,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2118</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1941,14 +1888,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$4:$A$4</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$A$4</c:f>
+              <c:f>数据!$A$4:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1960,17 +1900,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$G$2:$G$33</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$G$2:$G$32</c:f>
+              <c:f>数据!$G$2:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2063,6 +1996,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>16155</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3165,9 +3101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="A32:XFD32"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3322,7 +3258,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L32" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L33" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4168,7 +4104,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K32" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K33" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4208,7 +4144,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H32" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H33" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -4785,9 +4721,54 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43881</v>
+      </c>
+      <c r="B33" s="1">
+        <v>75465</v>
+      </c>
+      <c r="C33" s="1">
+        <v>54965</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5206</v>
+      </c>
+      <c r="E33" s="1">
+        <v>11633</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2236</v>
+      </c>
+      <c r="G33" s="1">
+        <v>18264</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="17"/>
+        <v>80671</v>
+      </c>
+      <c r="I33" s="1">
+        <v>889</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1614</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="16"/>
+        <v>2503</v>
+      </c>
+      <c r="L33" s="8">
+        <f t="shared" si="1"/>
+        <v>2.9629629629629631E-2</v>
+      </c>
+      <c r="M33" s="1">
+        <v>120302</v>
+      </c>
+      <c r="N33" s="5">
+        <v>43882</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4824,9 +4805,10 @@
     <hyperlink ref="O30" r:id="rId29" xr:uid="{B4E14A8D-FFF4-4D8A-BD89-9BEA36A93F36}"/>
     <hyperlink ref="O31" r:id="rId30" xr:uid="{CCDADF2C-0898-4101-A0DC-8EAE54EBA559}"/>
     <hyperlink ref="O32" r:id="rId31" xr:uid="{5AA36AEB-B86E-4868-9BA6-87B23F43E2A5}"/>
+    <hyperlink ref="O33" r:id="rId32" xr:uid="{D7AEF34B-973B-4C36-9617-220084A8A041}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId33"/>
 </worksheet>
 </file>
 
@@ -4834,8 +4816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD09AD3A-CE9D-4FA6-AE03-BAE8F8B5422E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B1F49B-FC04-46C3-B424-2223A4EEB5D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="225" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -606,10 +606,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$H$2:$H$33</c:f>
+              <c:f>数据!$H$2:$H$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -869,10 +869,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$D$2:$D$33</c:f>
+              <c:f>数据!$D$2:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1132,10 +1132,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$B$2:$B$33</c:f>
+              <c:f>数据!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1298,10 +1298,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$20</c:f>
+              <c:f>数据!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1358,16 +1358,82 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$K$2:$K$33</c:f>
+              <c:f>数据!$K$2:$K$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1504,10 +1570,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$20</c:f>
+              <c:f>数据!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1564,16 +1630,82 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$E$2:$E$33</c:f>
+              <c:f>数据!$E$2:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1736,10 +1868,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$F$2:$F$33</c:f>
+              <c:f>数据!$F$2:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1900,10 +2032,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$G$2:$G$33</c:f>
+              <c:f>数据!$G$2:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -3099,11 +3231,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4769,6 +4901,51 @@
       </c>
       <c r="O33" s="6" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>43888</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>43890</v>
       </c>
     </row>
   </sheetData>
@@ -4816,7 +4993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B1F49B-FC04-46C3-B424-2223A4EEB5D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E8AAF0-12A9-4E5B-89B3-DD1D5D6D7051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="225" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,10 @@
   </si>
   <si>
     <t>截至2月20日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月21日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,10 +505,17 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$33</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$2:$A$42</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -600,16 +611,26 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$H$2:$H$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$H$2:$H$42</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$H$2:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -705,6 +726,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>80671</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>81653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -764,10 +788,17 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$33</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$2:$A$42</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -863,16 +894,26 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$D$2:$D$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$D$2:$D$42</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$D$2:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -968,6 +1009,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5206</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,10 +1071,17 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$33</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$2:$A$42</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1126,16 +1177,26 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$B$2:$B$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$B$2:$B$42</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1231,6 +1292,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>75465</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>76288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,10 +1362,17 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$2:$A$42</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1400,40 +1471,23 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43882</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43883</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43884</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43885</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43886</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43887</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43888</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$K$2:$K$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$K$2:$K$42</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$K$2:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1529,6 +1583,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2503</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1570,10 +1627,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$2:$A$42</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1672,40 +1736,23 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43882</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43883</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43884</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43885</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43886</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43887</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43888</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$E$2:$E$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$E$2:$E$42</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$E$2:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1801,6 +1848,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>11633</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1856,7 +1906,14 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$4:$A$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$4:$A$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$A$4</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1868,10 +1925,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$F$2:$F$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$F$2:$F$42</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$F$2:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1967,6 +2031,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2236</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2020,7 +2087,14 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$4:$A$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$4:$A$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$A$4</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2032,10 +2106,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$G$2:$G$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$G$2:$G$42</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$G$2:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2131,6 +2212,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>18264</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3234,8 +3318,8 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3390,7 +3474,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L33" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L34" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4236,7 +4320,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K33" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K34" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4276,7 +4360,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H33" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H34" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -4906,6 +4990,51 @@
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43882</v>
+      </c>
+      <c r="B34" s="1">
+        <v>76288</v>
+      </c>
+      <c r="C34" s="1">
+        <v>53284</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5365</v>
+      </c>
+      <c r="E34" s="1">
+        <v>11477</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2345</v>
+      </c>
+      <c r="G34" s="1">
+        <v>20659</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="17"/>
+        <v>81653</v>
+      </c>
+      <c r="I34" s="1">
+        <v>397</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1361</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="16"/>
+        <v>1758</v>
+      </c>
+      <c r="L34" s="8">
+        <f t="shared" si="1"/>
+        <v>3.0738779362416108E-2</v>
+      </c>
+      <c r="M34" s="1">
+        <v>113564</v>
+      </c>
+      <c r="N34" s="5">
+        <v>43883</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -4983,9 +5112,10 @@
     <hyperlink ref="O31" r:id="rId30" xr:uid="{CCDADF2C-0898-4101-A0DC-8EAE54EBA559}"/>
     <hyperlink ref="O32" r:id="rId31" xr:uid="{5AA36AEB-B86E-4868-9BA6-87B23F43E2A5}"/>
     <hyperlink ref="O33" r:id="rId32" xr:uid="{D7AEF34B-973B-4C36-9617-220084A8A041}"/>
+    <hyperlink ref="O34" r:id="rId33" xr:uid="{12AD451B-4D68-47F5-A1C1-AC5851C3FE52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId34"/>
 </worksheet>
 </file>
 
@@ -4993,7 +5123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E8AAF0-12A9-4E5B-89B3-DD1D5D6D7051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930ACD27-E569-4003-BFEE-4ECDBE054BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,10 @@
   </si>
   <si>
     <t>截至2月21日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月22日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,10 +516,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$34</c:f>
+              <c:f>数据!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -614,6 +618,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -627,10 +634,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$34</c:f>
+              <c:f>数据!$H$2:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -729,6 +736,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>81653</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>81084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,10 +805,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$34</c:f>
+              <c:f>数据!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -897,6 +907,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,10 +923,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$34</c:f>
+              <c:f>数据!$D$2:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1012,6 +1025,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>5365</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,10 +1094,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$34</c:f>
+              <c:f>数据!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1180,6 +1196,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1193,10 +1212,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$34</c:f>
+              <c:f>数据!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1295,6 +1314,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>76288</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>76936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1369,10 +1391,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$34</c:f>
+              <c:f>数据!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1471,6 +1493,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1484,10 +1509,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$34</c:f>
+              <c:f>数据!$K$2:$K$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1586,6 +1611,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1758</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,10 +1662,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$34</c:f>
+              <c:f>数据!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1736,6 +1764,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1749,10 +1780,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$34</c:f>
+              <c:f>数据!$E$2:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1851,6 +1882,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>11477</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1932,10 +1966,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$34</c:f>
+              <c:f>数据!$F$2:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2034,6 +2068,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>2345</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2113,10 +2150,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$34</c:f>
+              <c:f>数据!$G$2:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2215,6 +2252,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>20659</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3317,9 +3357,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="A34:XFD34"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3474,7 +3514,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L34" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L35" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4320,7 +4360,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K34" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K35" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4360,7 +4400,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H34" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H35" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -5040,6 +5080,51 @@
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43883</v>
+      </c>
+      <c r="B35" s="1">
+        <v>76936</v>
+      </c>
+      <c r="C35" s="1">
+        <v>51606</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4148</v>
+      </c>
+      <c r="E35" s="1">
+        <v>10968</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2442</v>
+      </c>
+      <c r="G35" s="1">
+        <v>22888</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="17"/>
+        <v>81084</v>
+      </c>
+      <c r="I35" s="1">
+        <v>648</v>
+      </c>
+      <c r="J35" s="1">
+        <v>882</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="16"/>
+        <v>1530</v>
+      </c>
+      <c r="L35" s="8">
+        <f t="shared" si="1"/>
+        <v>3.1740667567848602E-2</v>
+      </c>
+      <c r="M35" s="1">
+        <v>106089</v>
+      </c>
+      <c r="N35" s="5">
+        <v>43884</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -5113,9 +5198,10 @@
     <hyperlink ref="O32" r:id="rId31" xr:uid="{5AA36AEB-B86E-4868-9BA6-87B23F43E2A5}"/>
     <hyperlink ref="O33" r:id="rId32" xr:uid="{D7AEF34B-973B-4C36-9617-220084A8A041}"/>
     <hyperlink ref="O34" r:id="rId33" xr:uid="{12AD451B-4D68-47F5-A1C1-AC5851C3FE52}"/>
+    <hyperlink ref="O35" r:id="rId34" xr:uid="{6BB81315-82A3-4B61-9F94-4512D7574265}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId35"/>
 </worksheet>
 </file>
 
@@ -5123,8 +5209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930ACD27-E569-4003-BFEE-4ECDBE054BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032559B2-E984-4C0B-A485-5C9B01AD7547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,10 @@
   </si>
   <si>
     <t>截至2月22日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月23日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,10 +520,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$35</c:f>
+              <c:f>数据!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -621,6 +625,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -634,10 +641,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$35</c:f>
+              <c:f>数据!$H$2:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -739,6 +746,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>81084</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>80584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -805,10 +815,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$35</c:f>
+              <c:f>数据!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -910,6 +920,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,10 +936,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$35</c:f>
+              <c:f>数据!$D$2:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1028,6 +1041,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>4148</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,10 +1110,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$35</c:f>
+              <c:f>数据!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1199,6 +1215,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,10 +1231,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$35</c:f>
+              <c:f>数据!$B$2:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1317,6 +1336,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>76936</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>77150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,10 +1413,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$35</c:f>
+              <c:f>数据!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1496,6 +1518,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1509,10 +1534,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$35</c:f>
+              <c:f>数据!$K$2:$K$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1614,6 +1639,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1662,10 +1690,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$35</c:f>
+              <c:f>数据!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1767,6 +1795,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1780,10 +1811,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$35</c:f>
+              <c:f>数据!$E$2:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1885,6 +1916,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>10968</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1966,10 +2000,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$35</c:f>
+              <c:f>数据!$F$2:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2071,6 +2105,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2442</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2150,10 +2187,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$35</c:f>
+              <c:f>数据!$G$2:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2255,6 +2292,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>22888</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3359,7 +3399,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="A35:XFD35"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3514,7 +3554,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L35" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L36" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4360,7 +4400,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K35" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K36" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4400,7 +4440,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H35" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H36" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -5130,6 +5170,51 @@
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43884</v>
+      </c>
+      <c r="B36" s="1">
+        <v>77150</v>
+      </c>
+      <c r="C36" s="1">
+        <v>49824</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3434</v>
+      </c>
+      <c r="E36" s="1">
+        <v>9915</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2592</v>
+      </c>
+      <c r="G36" s="1">
+        <v>24734</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="17"/>
+        <v>80584</v>
+      </c>
+      <c r="I36" s="1">
+        <v>409</v>
+      </c>
+      <c r="J36" s="1">
+        <v>620</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="16"/>
+        <v>1029</v>
+      </c>
+      <c r="L36" s="8">
+        <f t="shared" si="1"/>
+        <v>3.359688917692806E-2</v>
+      </c>
+      <c r="M36" s="1">
+        <v>97481</v>
+      </c>
+      <c r="N36" s="5">
+        <v>43885</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -5199,9 +5284,10 @@
     <hyperlink ref="O33" r:id="rId32" xr:uid="{D7AEF34B-973B-4C36-9617-220084A8A041}"/>
     <hyperlink ref="O34" r:id="rId33" xr:uid="{12AD451B-4D68-47F5-A1C1-AC5851C3FE52}"/>
     <hyperlink ref="O35" r:id="rId34" xr:uid="{6BB81315-82A3-4B61-9F94-4512D7574265}"/>
+    <hyperlink ref="O36" r:id="rId35" xr:uid="{9E342FBC-03B0-44C6-B5E4-04443639D03A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId36"/>
 </worksheet>
 </file>
 
@@ -5210,7 +5296,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032559B2-E984-4C0B-A485-5C9B01AD7547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A8AE39-3EBF-4BCF-9426-AFA04D81A5AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,10 @@
   </si>
   <si>
     <t>截至2月23日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月24日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,10 +524,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$36</c:f>
+              <c:f>数据!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -628,6 +632,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,10 +648,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$36</c:f>
+              <c:f>数据!$H$2:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -749,6 +756,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>80584</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>80482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -815,10 +825,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$36</c:f>
+              <c:f>数据!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -923,6 +933,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,10 +949,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$36</c:f>
+              <c:f>数据!$D$2:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1044,6 +1057,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3434</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,10 +1126,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$36</c:f>
+              <c:f>数据!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1218,6 +1234,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1231,10 +1250,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$36</c:f>
+              <c:f>数据!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1339,6 +1358,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>77150</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>77658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1413,10 +1435,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$36</c:f>
+              <c:f>数据!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1521,6 +1543,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1534,10 +1559,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$36</c:f>
+              <c:f>数据!$K$2:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1642,6 +1667,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1690,10 +1718,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$36</c:f>
+              <c:f>数据!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1798,6 +1826,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1811,10 +1842,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$36</c:f>
+              <c:f>数据!$E$2:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1919,6 +1950,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>9915</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2000,10 +2034,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$36</c:f>
+              <c:f>数据!$F$2:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2108,6 +2142,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2592</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2187,10 +2224,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$36</c:f>
+              <c:f>数据!$G$2:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2295,6 +2332,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>24734</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3399,7 +3439,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="A36:XFD36"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3554,7 +3594,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L36" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L37" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4400,7 +4440,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K36" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K37" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4440,7 +4480,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H36" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H37" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -5220,6 +5260,51 @@
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43885</v>
+      </c>
+      <c r="B37" s="1">
+        <v>77658</v>
+      </c>
+      <c r="C37" s="1">
+        <v>47672</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2824</v>
+      </c>
+      <c r="E37" s="1">
+        <v>9126</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2663</v>
+      </c>
+      <c r="G37" s="1">
+        <v>27323</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="17"/>
+        <v>80482</v>
+      </c>
+      <c r="I37" s="1">
+        <v>508</v>
+      </c>
+      <c r="J37" s="1">
+        <v>530</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="16"/>
+        <v>1038</v>
+      </c>
+      <c r="L37" s="8">
+        <f t="shared" si="1"/>
+        <v>3.4291380154008601E-2</v>
+      </c>
+      <c r="M37" s="1">
+        <v>87902</v>
+      </c>
+      <c r="N37" s="5">
+        <v>43886</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -5285,9 +5370,10 @@
     <hyperlink ref="O34" r:id="rId33" xr:uid="{12AD451B-4D68-47F5-A1C1-AC5851C3FE52}"/>
     <hyperlink ref="O35" r:id="rId34" xr:uid="{6BB81315-82A3-4B61-9F94-4512D7574265}"/>
     <hyperlink ref="O36" r:id="rId35" xr:uid="{9E342FBC-03B0-44C6-B5E4-04443639D03A}"/>
+    <hyperlink ref="O37" r:id="rId36" xr:uid="{8444A93C-C747-47D4-AFF5-3B51A1A9AD1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId37"/>
 </worksheet>
 </file>
 
@@ -5296,7 +5382,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A8AE39-3EBF-4BCF-9426-AFA04D81A5AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99797294-F307-43D8-8F44-1304B0312D5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,10 @@
   </si>
   <si>
     <t>截至2月24日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月25日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,10 +528,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$37</c:f>
+              <c:f>数据!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -635,6 +639,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,10 +655,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$37</c:f>
+              <c:f>数据!$H$2:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -759,6 +766,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>80482</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>80555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,10 +835,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$37</c:f>
+              <c:f>数据!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -936,6 +946,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -949,10 +962,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$37</c:f>
+              <c:f>数据!$D$2:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1060,6 +1073,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2824</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,10 +1142,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$37</c:f>
+              <c:f>数据!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1237,6 +1253,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1250,10 +1269,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$37</c:f>
+              <c:f>数据!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1361,6 +1380,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>77658</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1435,10 +1457,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$37</c:f>
+              <c:f>数据!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1546,6 +1568,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1559,10 +1584,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$37</c:f>
+              <c:f>数据!$K$2:$K$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1670,6 +1695,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1038</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1718,10 +1746,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$37</c:f>
+              <c:f>数据!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1829,6 +1857,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1842,10 +1873,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$37</c:f>
+              <c:f>数据!$E$2:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1953,6 +1984,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>9126</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2034,10 +2068,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$37</c:f>
+              <c:f>数据!$F$2:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2145,6 +2179,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2663</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2224,10 +2261,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$37</c:f>
+              <c:f>数据!$G$2:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2335,6 +2372,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>27323</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3437,9 +3477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="A37:XFD37"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3594,7 +3634,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L37" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L38" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4440,7 +4480,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K37" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K38" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4480,7 +4520,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H37" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H38" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -5310,6 +5350,51 @@
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43886</v>
+      </c>
+      <c r="B38" s="1">
+        <v>78064</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45604</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2491</v>
+      </c>
+      <c r="E38" s="1">
+        <v>8752</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2715</v>
+      </c>
+      <c r="G38" s="1">
+        <v>29745</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="17"/>
+        <v>80555</v>
+      </c>
+      <c r="I38" s="1">
+        <v>406</v>
+      </c>
+      <c r="J38" s="1">
+        <v>439</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="16"/>
+        <v>845</v>
+      </c>
+      <c r="L38" s="8">
+        <f t="shared" si="1"/>
+        <v>3.477915556466489E-2</v>
+      </c>
+      <c r="M38" s="1">
+        <v>79108</v>
+      </c>
+      <c r="N38" s="5">
+        <v>43887</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -5371,9 +5456,10 @@
     <hyperlink ref="O35" r:id="rId34" xr:uid="{6BB81315-82A3-4B61-9F94-4512D7574265}"/>
     <hyperlink ref="O36" r:id="rId35" xr:uid="{9E342FBC-03B0-44C6-B5E4-04443639D03A}"/>
     <hyperlink ref="O37" r:id="rId36" xr:uid="{8444A93C-C747-47D4-AFF5-3B51A1A9AD1A}"/>
+    <hyperlink ref="O38" r:id="rId37" xr:uid="{420874C6-AD87-4DAD-B86C-C45D2A07F886}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
 </worksheet>
 </file>
 
@@ -5381,8 +5467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99797294-F307-43D8-8F44-1304B0312D5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FCA0C0-AA12-4EFA-AB31-304FC7664E92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>截至2月25日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月26日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,10 +532,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$38</c:f>
+              <c:f>数据!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -642,6 +646,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -655,10 +662,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$38</c:f>
+              <c:f>数据!$H$2:$H$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -769,6 +776,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>80555</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>80855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -835,10 +845,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$38</c:f>
+              <c:f>数据!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -949,6 +959,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,10 +975,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$38</c:f>
+              <c:f>数据!$D$2:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1076,6 +1089,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2491</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,10 +1158,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$38</c:f>
+              <c:f>数据!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1256,6 +1272,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1269,10 +1288,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$38</c:f>
+              <c:f>数据!$B$2:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1383,6 +1402,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>78064</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>78497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1457,10 +1479,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$38</c:f>
+              <c:f>数据!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1571,6 +1593,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1584,10 +1609,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$38</c:f>
+              <c:f>数据!$K$2:$K$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1698,6 +1723,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1746,10 +1774,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$38</c:f>
+              <c:f>数据!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1860,6 +1888,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1873,10 +1904,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$38</c:f>
+              <c:f>数据!$E$2:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1987,6 +2018,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8752</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2068,10 +2102,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$38</c:f>
+              <c:f>数据!$F$2:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2182,6 +2216,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2715</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2261,10 +2298,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$38</c:f>
+              <c:f>数据!$G$2:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2375,6 +2412,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>29745</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3479,7 +3519,7 @@
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="A38:XFD38"/>
+      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3634,7 +3674,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L38" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L39" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4480,7 +4520,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K38" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K39" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4520,7 +4560,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H38" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H39" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -5400,6 +5440,51 @@
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43887</v>
+      </c>
+      <c r="B39" s="1">
+        <v>78497</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43258</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2358</v>
+      </c>
+      <c r="E39" s="1">
+        <v>8346</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2744</v>
+      </c>
+      <c r="G39" s="1">
+        <v>32495</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="17"/>
+        <v>80855</v>
+      </c>
+      <c r="I39" s="1">
+        <v>433</v>
+      </c>
+      <c r="J39" s="1">
+        <v>508</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="16"/>
+        <v>941</v>
+      </c>
+      <c r="L39" s="8">
+        <f t="shared" si="1"/>
+        <v>3.4956749939488135E-2</v>
+      </c>
+      <c r="M39" s="1">
+        <v>71572</v>
+      </c>
+      <c r="N39" s="5">
+        <v>43888</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -5457,9 +5542,10 @@
     <hyperlink ref="O36" r:id="rId35" xr:uid="{9E342FBC-03B0-44C6-B5E4-04443639D03A}"/>
     <hyperlink ref="O37" r:id="rId36" xr:uid="{8444A93C-C747-47D4-AFF5-3B51A1A9AD1A}"/>
     <hyperlink ref="O38" r:id="rId37" xr:uid="{420874C6-AD87-4DAD-B86C-C45D2A07F886}"/>
+    <hyperlink ref="O39" r:id="rId38" xr:uid="{A52171E0-C19B-49A4-B870-4A3F83DC4B74}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
 </worksheet>
 </file>
 
@@ -5468,7 +5554,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FCA0C0-AA12-4EFA-AB31-304FC7664E92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79E8BA1-0747-4B58-8ECC-5F2AFD96CA9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -3517,9 +3517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5553,7 +5553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79E8BA1-0747-4B58-8ECC-5F2AFD96CA9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4B7306-9930-4034-BD7F-DE7C2DCF04AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,10 @@
   </si>
   <si>
     <t>截至2月26日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月27日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,10 +536,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$39</c:f>
+              <c:f>数据!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -649,6 +653,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -662,10 +669,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$39</c:f>
+              <c:f>数据!$H$2:$H$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -779,6 +786,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>80855</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>81132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -845,10 +855,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$39</c:f>
+              <c:f>数据!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -962,6 +972,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -975,10 +988,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$39</c:f>
+              <c:f>数据!$D$2:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1092,6 +1105,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2358</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1158,10 +1174,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$39</c:f>
+              <c:f>数据!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1275,6 +1291,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,10 +1307,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$39</c:f>
+              <c:f>数据!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1405,6 +1424,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>78497</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1479,10 +1501,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$39</c:f>
+              <c:f>数据!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1596,6 +1618,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1609,10 +1634,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$39</c:f>
+              <c:f>数据!$K$2:$K$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1726,6 +1751,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1774,10 +1802,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$39</c:f>
+              <c:f>数据!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1891,6 +1919,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1904,10 +1935,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$39</c:f>
+              <c:f>数据!$E$2:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2021,6 +2052,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8346</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2102,10 +2136,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$39</c:f>
+              <c:f>数据!$F$2:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2219,6 +2253,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2744</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2298,10 +2335,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$39</c:f>
+              <c:f>数据!$G$2:$G$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2415,6 +2452,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>32495</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3517,9 +3557,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3674,7 +3714,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L39" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L40" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4520,7 +4560,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K39" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K40" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4560,7 +4600,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H39" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H40" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -5490,6 +5530,51 @@
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43888</v>
+      </c>
+      <c r="B40" s="1">
+        <v>78824</v>
+      </c>
+      <c r="C40" s="1">
+        <v>39919</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2308</v>
+      </c>
+      <c r="E40" s="1">
+        <v>7952</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2788</v>
+      </c>
+      <c r="G40" s="1">
+        <v>36117</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="17"/>
+        <v>81132</v>
+      </c>
+      <c r="I40" s="1">
+        <v>327</v>
+      </c>
+      <c r="J40" s="1">
+        <v>452</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="16"/>
+        <v>779</v>
+      </c>
+      <c r="L40" s="8">
+        <f t="shared" si="1"/>
+        <v>3.5369938089921851E-2</v>
+      </c>
+      <c r="M40" s="1">
+        <v>65225</v>
+      </c>
+      <c r="N40" s="5">
+        <v>43889</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -5543,9 +5628,10 @@
     <hyperlink ref="O37" r:id="rId36" xr:uid="{8444A93C-C747-47D4-AFF5-3B51A1A9AD1A}"/>
     <hyperlink ref="O38" r:id="rId37" xr:uid="{420874C6-AD87-4DAD-B86C-C45D2A07F886}"/>
     <hyperlink ref="O39" r:id="rId38" xr:uid="{A52171E0-C19B-49A4-B870-4A3F83DC4B74}"/>
+    <hyperlink ref="O40" r:id="rId39" xr:uid="{A6414136-ABF3-4EA9-867A-69C1147F97DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
 </worksheet>
 </file>
 
@@ -5553,8 +5639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4B7306-9930-4034-BD7F-DE7C2DCF04AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F27A4C-A2A2-4926-9BD7-F24C8D0600E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,10 @@
   </si>
   <si>
     <t>截至2月27日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2月28日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,10 +540,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$40</c:f>
+              <c:f>数据!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -656,6 +660,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,10 +676,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$40</c:f>
+              <c:f>数据!$H$2:$H$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -789,6 +796,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>81132</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,10 +865,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$40</c:f>
+              <c:f>数据!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -975,6 +985,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,10 +1001,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$40</c:f>
+              <c:f>数据!$D$2:$D$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1108,6 +1121,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2308</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1174,10 +1190,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$40</c:f>
+              <c:f>数据!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1294,6 +1310,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1307,10 +1326,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$40</c:f>
+              <c:f>数据!$B$2:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1427,6 +1446,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>78824</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1501,10 +1523,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$40</c:f>
+              <c:f>数据!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1621,6 +1643,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,10 +1659,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$40</c:f>
+              <c:f>数据!$K$2:$K$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1754,6 +1779,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1802,10 +1830,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$40</c:f>
+              <c:f>数据!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1922,6 +1950,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1935,10 +1966,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$40</c:f>
+              <c:f>数据!$E$2:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2055,6 +2086,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>7952</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2136,10 +2170,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$40</c:f>
+              <c:f>数据!$F$2:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2256,6 +2290,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2788</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2335,10 +2372,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$40</c:f>
+              <c:f>数据!$G$2:$G$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2455,6 +2492,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>36117</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3557,9 +3597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="A40:XFD40"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3714,7 +3754,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L40" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L41" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4560,7 +4600,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K40" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K41" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4600,7 +4640,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H40" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H41" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -5580,6 +5620,51 @@
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43889</v>
+      </c>
+      <c r="B41" s="1">
+        <v>79251</v>
+      </c>
+      <c r="C41" s="1">
+        <v>37414</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1418</v>
+      </c>
+      <c r="E41" s="1">
+        <v>7664</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2835</v>
+      </c>
+      <c r="G41" s="1">
+        <v>39002</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="17"/>
+        <v>80669</v>
+      </c>
+      <c r="I41" s="1">
+        <v>427</v>
+      </c>
+      <c r="J41" s="1">
+        <v>248</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="16"/>
+        <v>675</v>
+      </c>
+      <c r="L41" s="8">
+        <f t="shared" si="1"/>
+        <v>3.5772419275466559E-2</v>
+      </c>
+      <c r="M41" s="1">
+        <v>58233</v>
+      </c>
+      <c r="N41" s="5">
+        <v>43890</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -5629,9 +5714,10 @@
     <hyperlink ref="O38" r:id="rId37" xr:uid="{420874C6-AD87-4DAD-B86C-C45D2A07F886}"/>
     <hyperlink ref="O39" r:id="rId38" xr:uid="{A52171E0-C19B-49A4-B870-4A3F83DC4B74}"/>
     <hyperlink ref="O40" r:id="rId39" xr:uid="{A6414136-ABF3-4EA9-867A-69C1147F97DC}"/>
+    <hyperlink ref="O41" r:id="rId40" xr:uid="{229C6E2D-08CD-4BBB-A358-010DBB24D16D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId41"/>
 </worksheet>
 </file>
 
@@ -5639,7 +5725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F27A4C-A2A2-4926-9BD7-F24C8D0600E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AB708B-C292-4AAD-B6BD-9E5E72B141E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,10 @@
     <t>截至2月28日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>截至2月29日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -533,17 +537,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$2:$A$42</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$A$2:$A$41</c:f>
+              <c:f>数据!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -663,23 +660,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$H$2:$H$42</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$H$2:$H$41</c:f>
+              <c:f>数据!$H$2:$H$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -799,6 +792,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>80669</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -858,17 +854,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$2:$A$42</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$A$2:$A$41</c:f>
+              <c:f>数据!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -988,23 +977,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$D$2:$D$42</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$D$2:$D$41</c:f>
+              <c:f>数据!$D$2:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1124,6 +1109,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1418</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1183,17 +1171,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$2:$A$42</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$A$2:$A$41</c:f>
+              <c:f>数据!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1313,23 +1294,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$B$2:$B$42</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$B$2:$B$41</c:f>
+              <c:f>数据!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1449,6 +1426,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>79251</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>79824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1516,17 +1496,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$2:$A$42</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$A$2:$A$41</c:f>
+              <c:f>数据!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1646,23 +1619,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$K$2:$K$42</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$K$2:$K$41</c:f>
+              <c:f>数据!$K$2:$K$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1782,6 +1751,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,17 +1795,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$2:$A$42</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$A$2:$A$41</c:f>
+              <c:f>数据!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1953,23 +1918,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$E$2:$E$42</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$E$2:$E$41</c:f>
+              <c:f>数据!$E$2:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2089,6 +2050,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>7664</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2144,14 +2108,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$4:$A$4</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$A$4</c:f>
+              <c:f>数据!$A$4:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2163,17 +2120,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$F$2:$F$42</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$F$2:$F$41</c:f>
+              <c:f>数据!$F$2:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2293,6 +2243,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2835</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2870</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2346,14 +2299,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$4:$A$4</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$A$4</c:f>
+              <c:f>数据!$A$4:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2365,17 +2311,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$G$2:$G$42</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$G$2:$G$41</c:f>
+              <c:f>数据!$G$2:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2495,6 +2434,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>39002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3597,9 +3539,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41:XFD41"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3754,7 +3696,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L41" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L42" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4600,7 +4542,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K41" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K42" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4640,7 +4582,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H41" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H42" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -5670,6 +5612,51 @@
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43890</v>
+      </c>
+      <c r="B42" s="1">
+        <v>79824</v>
+      </c>
+      <c r="C42" s="1">
+        <v>35329</v>
+      </c>
+      <c r="D42" s="1">
+        <v>851</v>
+      </c>
+      <c r="E42" s="1">
+        <v>7365</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2870</v>
+      </c>
+      <c r="G42" s="1">
+        <v>41625</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="17"/>
+        <v>80675</v>
+      </c>
+      <c r="I42" s="1">
+        <v>573</v>
+      </c>
+      <c r="J42" s="1">
+        <v>132</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="16"/>
+        <v>705</v>
+      </c>
+      <c r="L42" s="8">
+        <f t="shared" si="1"/>
+        <v>3.5954099017839247E-2</v>
+      </c>
+      <c r="M42" s="1">
+        <v>51856</v>
+      </c>
+      <c r="N42" s="5">
+        <v>43891</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5715,9 +5702,10 @@
     <hyperlink ref="O39" r:id="rId38" xr:uid="{A52171E0-C19B-49A4-B870-4A3F83DC4B74}"/>
     <hyperlink ref="O40" r:id="rId39" xr:uid="{A6414136-ABF3-4EA9-867A-69C1147F97DC}"/>
     <hyperlink ref="O41" r:id="rId40" xr:uid="{229C6E2D-08CD-4BBB-A358-010DBB24D16D}"/>
+    <hyperlink ref="O42" r:id="rId41" xr:uid="{40250C01-650B-4987-95B1-63E3DAEA594B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
 </worksheet>
 </file>
 
@@ -5726,7 +5714,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AB708B-C292-4AAD-B6BD-9E5E72B141E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A905C1E-C0E6-4296-9C89-9B4630550C29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,10 @@
     <t>截至2月29日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>截至3月1日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -537,10 +541,17 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$2:$A$60</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -663,16 +674,26 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$H$2:$H$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$H$2:$H$60</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$H$2:$H$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -795,6 +816,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>80675</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>80741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -854,10 +878,17 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$2:$A$60</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -980,16 +1011,26 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$D$2:$D$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$D$2:$D$60</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$D$2:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1112,6 +1153,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1171,10 +1215,17 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$2:$A$60</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1297,16 +1348,26 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$B$2:$B$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$B$2:$B$60</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$B$2:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1429,6 +1490,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>79824</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>80026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1496,10 +1560,17 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$2:$A$60</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1622,16 +1693,26 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$K$2:$K$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$K$2:$K$60</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$K$2:$K$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1754,6 +1835,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1795,10 +1879,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$2:$A$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$2:$A$60</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1921,16 +2012,26 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$E$2:$E$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$E$2:$E$60</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$E$2:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2053,6 +2154,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>7365</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2108,7 +2212,14 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$4:$A$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$4:$A$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$A$4</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2120,10 +2231,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$F$2:$F$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$F$2:$F$60</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$F$2:$F$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2246,6 +2364,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2870</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2299,7 +2420,14 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>数据!$A$4:$A$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$A$4:$A$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$A$4</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2311,10 +2439,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>数据!$G$2:$G$42</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>数据!$G$2:$G$60</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>数据!$G$2:$G$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2437,6 +2572,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>41625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3537,11 +3675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="A42:XFD42"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3696,7 +3834,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L42" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L43" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4542,7 +4680,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K42" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K43" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4582,7 +4720,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H42" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H43" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -5657,6 +5795,141 @@
       </c>
       <c r="O42" s="6" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>43891</v>
+      </c>
+      <c r="B43" s="1">
+        <v>80026</v>
+      </c>
+      <c r="C43" s="1">
+        <v>32652</v>
+      </c>
+      <c r="D43" s="1">
+        <v>715</v>
+      </c>
+      <c r="E43" s="1">
+        <v>7110</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2912</v>
+      </c>
+      <c r="G43" s="1">
+        <v>44462</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="17"/>
+        <v>80741</v>
+      </c>
+      <c r="I43" s="1">
+        <v>202</v>
+      </c>
+      <c r="J43" s="1">
+        <v>141</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="16"/>
+        <v>343</v>
+      </c>
+      <c r="L43" s="8">
+        <f t="shared" si="1"/>
+        <v>3.6388173843500862E-2</v>
+      </c>
+      <c r="M43" s="1">
+        <v>46219</v>
+      </c>
+      <c r="N43" s="5">
+        <v>43892</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>43908</v>
       </c>
     </row>
   </sheetData>
@@ -5703,9 +5976,10 @@
     <hyperlink ref="O40" r:id="rId39" xr:uid="{A6414136-ABF3-4EA9-867A-69C1147F97DC}"/>
     <hyperlink ref="O41" r:id="rId40" xr:uid="{229C6E2D-08CD-4BBB-A358-010DBB24D16D}"/>
     <hyperlink ref="O42" r:id="rId41" xr:uid="{40250C01-650B-4987-95B1-63E3DAEA594B}"/>
+    <hyperlink ref="O43" r:id="rId42" xr:uid="{485BAD8C-EA54-4137-9166-94AB83C9A8B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId43"/>
 </worksheet>
 </file>
 
@@ -5713,8 +5987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A905C1E-C0E6-4296-9C89-9B4630550C29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B1DEB1-909F-43EB-B2DD-D28EB7C2C9B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +266,10 @@
     <t>截至3月1日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>截至3月2日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -548,10 +552,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$43</c:f>
+              <c:f>数据!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -677,6 +681,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -690,10 +697,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$43</c:f>
+              <c:f>数据!$H$2:$H$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -819,6 +826,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>80741</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>80738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -885,10 +895,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$43</c:f>
+              <c:f>数据!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1014,6 +1024,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,10 +1040,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$43</c:f>
+              <c:f>数据!$D$2:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1156,6 +1169,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1222,10 +1238,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$43</c:f>
+              <c:f>数据!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1351,6 +1367,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,10 +1383,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$43</c:f>
+              <c:f>数据!$B$2:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1493,6 +1512,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>80026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>80151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1567,10 +1589,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$43</c:f>
+              <c:f>数据!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1696,6 +1718,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,10 +1734,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$43</c:f>
+              <c:f>数据!$K$2:$K$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1838,6 +1863,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1886,10 +1914,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$43</c:f>
+              <c:f>数据!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2015,6 +2043,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2028,10 +2059,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$43</c:f>
+              <c:f>数据!$E$2:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2157,6 +2188,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>7110</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2238,10 +2272,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$43</c:f>
+              <c:f>数据!$F$2:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2367,6 +2401,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>2912</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2446,10 +2483,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$43</c:f>
+              <c:f>数据!$G$2:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2575,6 +2612,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44462</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3677,9 +3717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD43"/>
+      <selection pane="bottomLeft" activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3834,7 +3874,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L43" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L44" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4680,7 +4720,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K43" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K44" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4720,7 +4760,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H43" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H44" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -5850,6 +5890,51 @@
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43892</v>
+      </c>
+      <c r="B44" s="1">
+        <v>80151</v>
+      </c>
+      <c r="C44" s="1">
+        <v>30004</v>
+      </c>
+      <c r="D44" s="1">
+        <v>587</v>
+      </c>
+      <c r="E44" s="1">
+        <v>6806</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2943</v>
+      </c>
+      <c r="G44" s="1">
+        <v>47204</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="17"/>
+        <v>80738</v>
+      </c>
+      <c r="I44" s="1">
+        <v>125</v>
+      </c>
+      <c r="J44" s="1">
+        <v>129</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="16"/>
+        <v>254</v>
+      </c>
+      <c r="L44" s="8">
+        <f t="shared" si="1"/>
+        <v>3.6718194408054794E-2</v>
+      </c>
+      <c r="M44" s="1">
+        <v>40651</v>
+      </c>
+      <c r="N44" s="5">
+        <v>43893</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -5977,9 +6062,10 @@
     <hyperlink ref="O41" r:id="rId40" xr:uid="{229C6E2D-08CD-4BBB-A358-010DBB24D16D}"/>
     <hyperlink ref="O42" r:id="rId41" xr:uid="{40250C01-650B-4987-95B1-63E3DAEA594B}"/>
     <hyperlink ref="O43" r:id="rId42" xr:uid="{485BAD8C-EA54-4137-9166-94AB83C9A8B4}"/>
+    <hyperlink ref="O44" r:id="rId43" xr:uid="{88E0185A-7AC5-442E-8200-E94F7A85A8A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId43"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId44"/>
 </worksheet>
 </file>
 
@@ -5988,7 +6074,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B1DEB1-909F-43EB-B2DD-D28EB7C2C9B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C085D2E-E5C9-40C8-9598-ED41C47D49B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,10 @@
     <t>截至3月2日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>截至3月3日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -552,10 +556,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$44</c:f>
+              <c:f>数据!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -684,6 +688,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -697,10 +704,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$44</c:f>
+              <c:f>数据!$H$2:$H$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -829,6 +836,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>80738</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>80790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,10 +905,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$44</c:f>
+              <c:f>数据!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1027,6 +1037,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,10 +1053,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$44</c:f>
+              <c:f>数据!$D$2:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1172,6 +1185,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,10 +1254,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$44</c:f>
+              <c:f>数据!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1370,6 +1386,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,10 +1402,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$44</c:f>
+              <c:f>数据!$B$2:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1515,6 +1534,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>80151</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>80270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,10 +1611,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$44</c:f>
+              <c:f>数据!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1721,6 +1743,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,10 +1759,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$44</c:f>
+              <c:f>数据!$K$2:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1866,6 +1891,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1914,10 +1942,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$44</c:f>
+              <c:f>数据!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2046,6 +2074,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2059,10 +2090,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$44</c:f>
+              <c:f>数据!$E$2:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2191,6 +2222,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>6806</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2272,10 +2306,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$44</c:f>
+              <c:f>数据!$F$2:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2404,6 +2438,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2943</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2483,10 +2520,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$44</c:f>
+              <c:f>数据!$G$2:$G$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2615,6 +2652,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>47204</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>49856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3717,9 +3757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M47" sqref="M47"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3874,7 +3914,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L44" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L45" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4720,7 +4760,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K44" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K45" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4760,7 +4800,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H44" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H45" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -5940,6 +5980,51 @@
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43893</v>
+      </c>
+      <c r="B45" s="1">
+        <v>80270</v>
+      </c>
+      <c r="C45" s="1">
+        <v>27433</v>
+      </c>
+      <c r="D45" s="1">
+        <v>520</v>
+      </c>
+      <c r="E45" s="1">
+        <v>6416</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2981</v>
+      </c>
+      <c r="G45" s="1">
+        <v>49856</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="17"/>
+        <v>80790</v>
+      </c>
+      <c r="I45" s="1">
+        <v>119</v>
+      </c>
+      <c r="J45" s="1">
+        <v>143</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="16"/>
+        <v>262</v>
+      </c>
+      <c r="L45" s="8">
+        <f t="shared" si="1"/>
+        <v>3.7137162077986792E-2</v>
+      </c>
+      <c r="M45" s="1">
+        <v>36432</v>
+      </c>
+      <c r="N45" s="5">
+        <v>43894</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -6063,9 +6148,10 @@
     <hyperlink ref="O42" r:id="rId41" xr:uid="{40250C01-650B-4987-95B1-63E3DAEA594B}"/>
     <hyperlink ref="O43" r:id="rId42" xr:uid="{485BAD8C-EA54-4137-9166-94AB83C9A8B4}"/>
     <hyperlink ref="O44" r:id="rId43" xr:uid="{88E0185A-7AC5-442E-8200-E94F7A85A8A5}"/>
+    <hyperlink ref="O45" r:id="rId44" xr:uid="{2AEC89F6-5923-4CD6-B7E3-A998DF2BC6EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId44"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId45"/>
 </worksheet>
 </file>
 
@@ -6073,7 +6159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C085D2E-E5C9-40C8-9598-ED41C47D49B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B52769-B6BB-472B-B517-FB028EB99132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,10 @@
     <t>截至3月3日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>截至3月4日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -556,10 +560,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$45</c:f>
+              <c:f>数据!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -691,6 +695,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -704,10 +711,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$45</c:f>
+              <c:f>数据!$H$2:$H$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -839,6 +846,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>80790</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>80931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,10 +915,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$45</c:f>
+              <c:f>数据!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1040,6 +1050,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,10 +1066,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$45</c:f>
+              <c:f>数据!$D$2:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1188,6 +1201,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1254,10 +1270,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$45</c:f>
+              <c:f>数据!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1389,6 +1405,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1402,10 +1421,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$45</c:f>
+              <c:f>数据!$B$2:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1537,6 +1556,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>80270</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>80409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,10 +1633,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$45</c:f>
+              <c:f>数据!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1746,6 +1768,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1759,10 +1784,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$45</c:f>
+              <c:f>数据!$K$2:$K$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1894,6 +1919,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1942,10 +1970,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$45</c:f>
+              <c:f>数据!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2077,6 +2105,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2090,10 +2121,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$45</c:f>
+              <c:f>数据!$E$2:$E$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2225,6 +2256,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>6416</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2306,10 +2340,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$45</c:f>
+              <c:f>数据!$F$2:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2441,6 +2475,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>2981</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2520,10 +2557,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$45</c:f>
+              <c:f>数据!$G$2:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2655,6 +2692,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>49856</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>52045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3757,9 +3797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3914,7 +3954,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L45" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L46" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4760,7 +4800,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K45" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K46" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4800,7 +4840,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H45" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H46" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -6030,6 +6070,51 @@
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43894</v>
+      </c>
+      <c r="B46" s="1">
+        <v>80409</v>
+      </c>
+      <c r="C46" s="1">
+        <v>25352</v>
+      </c>
+      <c r="D46" s="1">
+        <v>522</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5952</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3012</v>
+      </c>
+      <c r="G46" s="1">
+        <v>52045</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="17"/>
+        <v>80931</v>
+      </c>
+      <c r="I46" s="1">
+        <v>139</v>
+      </c>
+      <c r="J46" s="1">
+        <v>143</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="16"/>
+        <v>282</v>
+      </c>
+      <c r="L46" s="8">
+        <f t="shared" si="1"/>
+        <v>3.7458493452225496E-2</v>
+      </c>
+      <c r="M46" s="1">
+        <v>32870</v>
+      </c>
+      <c r="N46" s="5">
+        <v>43895</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -6149,9 +6234,10 @@
     <hyperlink ref="O43" r:id="rId42" xr:uid="{485BAD8C-EA54-4137-9166-94AB83C9A8B4}"/>
     <hyperlink ref="O44" r:id="rId43" xr:uid="{88E0185A-7AC5-442E-8200-E94F7A85A8A5}"/>
     <hyperlink ref="O45" r:id="rId44" xr:uid="{2AEC89F6-5923-4CD6-B7E3-A998DF2BC6EF}"/>
+    <hyperlink ref="O46" r:id="rId45" xr:uid="{9E740EA0-0A14-474E-9C5F-8070FE382990}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId45"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId46"/>
 </worksheet>
 </file>
 
@@ -6159,8 +6245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B52769-B6BB-472B-B517-FB028EB99132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E29C50-1271-4385-ABDC-F47556CD2E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,10 @@
     <t>截至3月4日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>截至3月5日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -560,10 +564,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$46</c:f>
+              <c:f>数据!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -698,6 +702,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -711,10 +718,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$46</c:f>
+              <c:f>数据!$H$2:$H$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -849,6 +856,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>80931</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>81034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,10 +925,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$46</c:f>
+              <c:f>数据!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1053,6 +1063,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1066,10 +1079,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$46</c:f>
+              <c:f>数据!$D$2:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1204,6 +1217,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,10 +1286,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$46</c:f>
+              <c:f>数据!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1408,6 +1424,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,10 +1440,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$46</c:f>
+              <c:f>数据!$B$2:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1559,6 +1578,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>80409</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>80552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1633,10 +1655,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$46</c:f>
+              <c:f>数据!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1771,6 +1793,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1784,10 +1809,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$46</c:f>
+              <c:f>数据!$K$2:$K$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1922,6 +1947,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1970,10 +1998,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$46</c:f>
+              <c:f>数据!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2108,6 +2136,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2121,10 +2152,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$46</c:f>
+              <c:f>数据!$E$2:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2259,6 +2290,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>5952</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2340,10 +2374,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$46</c:f>
+              <c:f>数据!$F$2:$F$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2478,6 +2512,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>3012</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2557,10 +2594,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$46</c:f>
+              <c:f>数据!$G$2:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2695,6 +2732,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>52045</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>53726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3797,9 +3837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46:XFD46"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3954,7 +3994,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L46" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L47" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4800,7 +4840,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K46" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K47" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4840,7 +4880,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H46" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H47" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -6120,6 +6160,51 @@
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43895</v>
+      </c>
+      <c r="B47" s="1">
+        <v>80552</v>
+      </c>
+      <c r="C47" s="1">
+        <v>23784</v>
+      </c>
+      <c r="D47" s="1">
+        <v>482</v>
+      </c>
+      <c r="E47" s="1">
+        <v>5737</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3042</v>
+      </c>
+      <c r="G47" s="1">
+        <v>53726</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="17"/>
+        <v>81034</v>
+      </c>
+      <c r="I47" s="1">
+        <v>143</v>
+      </c>
+      <c r="J47" s="1">
+        <v>102</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="16"/>
+        <v>245</v>
+      </c>
+      <c r="L47" s="8">
+        <f t="shared" si="1"/>
+        <v>3.7764425464296356E-2</v>
+      </c>
+      <c r="M47" s="1">
+        <v>29896</v>
+      </c>
+      <c r="N47" s="5">
+        <v>43896</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -6235,9 +6320,10 @@
     <hyperlink ref="O44" r:id="rId43" xr:uid="{88E0185A-7AC5-442E-8200-E94F7A85A8A5}"/>
     <hyperlink ref="O45" r:id="rId44" xr:uid="{2AEC89F6-5923-4CD6-B7E3-A998DF2BC6EF}"/>
     <hyperlink ref="O46" r:id="rId45" xr:uid="{9E740EA0-0A14-474E-9C5F-8070FE382990}"/>
+    <hyperlink ref="O47" r:id="rId46" xr:uid="{E4640280-90F5-4B4E-829E-82C024536FEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId47"/>
 </worksheet>
 </file>
 
@@ -6245,8 +6331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E29C50-1271-4385-ABDC-F47556CD2E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70985556-A0E7-4F1A-8834-E955A71DF54E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +282,10 @@
     <t>截至3月5日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>截至3月6日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -564,10 +568,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$47</c:f>
+              <c:f>数据!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -705,6 +709,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,10 +725,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$47</c:f>
+              <c:f>数据!$H$2:$H$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -859,6 +866,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>81034</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>81153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -925,10 +935,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$47</c:f>
+              <c:f>数据!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1066,6 +1076,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,10 +1092,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$47</c:f>
+              <c:f>数据!$D$2:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1220,6 +1233,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,10 +1302,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$47</c:f>
+              <c:f>数据!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1427,6 +1443,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1440,10 +1459,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$47</c:f>
+              <c:f>数据!$B$2:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1581,6 +1600,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>80552</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>80651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1655,10 +1677,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$47</c:f>
+              <c:f>数据!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1796,6 +1818,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1809,10 +1834,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$47</c:f>
+              <c:f>数据!$K$2:$K$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1950,6 +1975,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1998,10 +2026,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$47</c:f>
+              <c:f>数据!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2139,6 +2167,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2152,10 +2183,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$47</c:f>
+              <c:f>数据!$E$2:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2293,6 +2324,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>5737</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2374,10 +2408,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$47</c:f>
+              <c:f>数据!$F$2:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2515,6 +2549,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>3042</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3070</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2594,10 +2631,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$47</c:f>
+              <c:f>数据!$G$2:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2735,6 +2772,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>53726</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>55404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3837,9 +3877,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47:XFD47"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3994,7 +4034,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L47" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L48" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4840,7 +4880,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K47" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K48" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4880,7 +4920,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H47" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H48" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -6210,6 +6250,51 @@
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43896</v>
+      </c>
+      <c r="B48" s="1">
+        <v>80651</v>
+      </c>
+      <c r="C48" s="1">
+        <v>22177</v>
+      </c>
+      <c r="D48" s="1">
+        <v>502</v>
+      </c>
+      <c r="E48" s="1">
+        <v>5489</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3070</v>
+      </c>
+      <c r="G48" s="1">
+        <v>55404</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="17"/>
+        <v>81153</v>
+      </c>
+      <c r="I48" s="1">
+        <v>99</v>
+      </c>
+      <c r="J48" s="1">
+        <v>99</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="16"/>
+        <v>198</v>
+      </c>
+      <c r="L48" s="8">
+        <f t="shared" si="1"/>
+        <v>3.8065244076328872E-2</v>
+      </c>
+      <c r="M48" s="1">
+        <v>26730</v>
+      </c>
+      <c r="N48" s="5">
+        <v>43897</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
@@ -6321,9 +6406,10 @@
     <hyperlink ref="O45" r:id="rId44" xr:uid="{2AEC89F6-5923-4CD6-B7E3-A998DF2BC6EF}"/>
     <hyperlink ref="O46" r:id="rId45" xr:uid="{9E740EA0-0A14-474E-9C5F-8070FE382990}"/>
     <hyperlink ref="O47" r:id="rId46" xr:uid="{E4640280-90F5-4B4E-829E-82C024536FEB}"/>
+    <hyperlink ref="O48" r:id="rId47" xr:uid="{5D3AA972-2980-4708-A54F-41A97E603518}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId47"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId48"/>
 </worksheet>
 </file>
 
@@ -6331,8 +6417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70985556-A0E7-4F1A-8834-E955A71DF54E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46064E9E-FAE8-4350-B3DF-B0CF8B0BBD6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,6 +286,10 @@
     <t>截至3月6日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>截至3月7日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -568,10 +572,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$48</c:f>
+              <c:f>数据!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -712,6 +716,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -725,10 +732,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$48</c:f>
+              <c:f>数据!$H$2:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -868,6 +875,9 @@
                   <c:v>81034</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>81153</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>81153</c:v>
                 </c:pt>
               </c:numCache>
@@ -935,10 +945,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$48</c:f>
+              <c:f>数据!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1079,6 +1089,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1092,10 +1105,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$48</c:f>
+              <c:f>数据!$D$2:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1236,6 +1249,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1302,10 +1318,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$48</c:f>
+              <c:f>数据!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1446,6 +1462,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,10 +1478,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$48</c:f>
+              <c:f>数据!$B$2:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1603,6 +1622,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>80651</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>80695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1677,10 +1699,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$48</c:f>
+              <c:f>数据!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1821,6 +1843,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1834,10 +1859,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$48</c:f>
+              <c:f>数据!$K$2:$K$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -1978,6 +2003,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2026,10 +2054,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$48</c:f>
+              <c:f>数据!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2170,6 +2198,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2183,10 +2214,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$48</c:f>
+              <c:f>数据!$E$2:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2327,6 +2358,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>5489</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,10 +2442,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$48</c:f>
+              <c:f>数据!$F$2:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2552,6 +2586,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3070</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2631,10 +2668,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$48</c:f>
+              <c:f>数据!$G$2:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2775,6 +2812,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>55404</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3877,9 +3917,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="A48:XFD48"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4034,7 +4074,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L48" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L49" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4880,7 +4920,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K48" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K49" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4920,7 +4960,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H48" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H49" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -6297,62 +6337,107 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43897</v>
       </c>
+      <c r="B49" s="1">
+        <v>80695</v>
+      </c>
+      <c r="C49" s="1">
+        <v>20533</v>
+      </c>
+      <c r="D49" s="1">
+        <v>458</v>
+      </c>
+      <c r="E49" s="1">
+        <v>5264</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3097</v>
+      </c>
+      <c r="G49" s="1">
+        <v>57065</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="17"/>
+        <v>81153</v>
+      </c>
+      <c r="I49" s="1">
+        <v>44</v>
+      </c>
+      <c r="J49" s="1">
+        <v>84</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="16"/>
+        <v>128</v>
+      </c>
+      <c r="L49" s="8">
+        <f t="shared" si="1"/>
+        <v>3.8379081727492409E-2</v>
+      </c>
+      <c r="M49" s="1">
+        <v>23074</v>
+      </c>
+      <c r="N49" s="5">
+        <v>43898</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43898</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43899</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43900</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43901</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43902</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43903</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43904</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43905</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43906</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43907</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43908</v>
       </c>
@@ -6407,9 +6492,10 @@
     <hyperlink ref="O46" r:id="rId45" xr:uid="{9E740EA0-0A14-474E-9C5F-8070FE382990}"/>
     <hyperlink ref="O47" r:id="rId46" xr:uid="{E4640280-90F5-4B4E-829E-82C024536FEB}"/>
     <hyperlink ref="O48" r:id="rId47" xr:uid="{5D3AA972-2980-4708-A54F-41A97E603518}"/>
+    <hyperlink ref="O49" r:id="rId48" xr:uid="{51EC8EF3-1324-4AAB-80AB-194DBB5AE042}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId48"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId49"/>
 </worksheet>
 </file>
 
@@ -6417,8 +6503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46064E9E-FAE8-4350-B3DF-B0CF8B0BBD6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E45832-1C29-44DA-BA30-C486F2EAD7BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,10 @@
     <t>截至3月7日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>截至3月8日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -572,10 +576,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$49</c:f>
+              <c:f>数据!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -719,6 +723,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,10 +739,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$49</c:f>
+              <c:f>数据!$H$2:$H$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -879,6 +886,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>81153</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>81156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -945,10 +955,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$49</c:f>
+              <c:f>数据!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1092,6 +1102,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,10 +1118,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$49</c:f>
+              <c:f>数据!$D$2:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1252,6 +1265,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1318,10 +1334,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$49</c:f>
+              <c:f>数据!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1465,6 +1481,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1478,10 +1497,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$49</c:f>
+              <c:f>数据!$B$2:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1625,6 +1644,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>80695</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>80735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1699,10 +1721,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$49</c:f>
+              <c:f>数据!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1846,6 +1868,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1859,10 +1884,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$49</c:f>
+              <c:f>数据!$K$2:$K$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -2006,6 +2031,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2054,10 +2082,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$49</c:f>
+              <c:f>数据!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2201,6 +2229,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2214,10 +2245,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$49</c:f>
+              <c:f>数据!$E$2:$E$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2361,6 +2392,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>5264</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2442,10 +2476,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$49</c:f>
+              <c:f>数据!$F$2:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2589,6 +2623,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3097</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2668,10 +2705,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$49</c:f>
+              <c:f>数据!$G$2:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2815,6 +2852,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>57065</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>58600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3917,9 +3957,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49:XFD49"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4074,7 +4114,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L49" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L50" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4920,7 +4960,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K49" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K50" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -4960,7 +5000,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H49" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H50" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -6390,6 +6430,51 @@
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43898</v>
+      </c>
+      <c r="B50" s="1">
+        <v>80735</v>
+      </c>
+      <c r="C50" s="1">
+        <v>19016</v>
+      </c>
+      <c r="D50" s="1">
+        <v>421</v>
+      </c>
+      <c r="E50" s="1">
+        <v>5111</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3119</v>
+      </c>
+      <c r="G50" s="1">
+        <v>58600</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="17"/>
+        <v>81156</v>
+      </c>
+      <c r="I50" s="1">
+        <v>40</v>
+      </c>
+      <c r="J50" s="1">
+        <v>60</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="L50" s="8">
+        <f t="shared" si="1"/>
+        <v>3.8632563324456554E-2</v>
+      </c>
+      <c r="M50" s="1">
+        <v>20146</v>
+      </c>
+      <c r="N50" s="5">
+        <v>43899</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -6493,9 +6578,10 @@
     <hyperlink ref="O47" r:id="rId46" xr:uid="{E4640280-90F5-4B4E-829E-82C024536FEB}"/>
     <hyperlink ref="O48" r:id="rId47" xr:uid="{5D3AA972-2980-4708-A54F-41A97E603518}"/>
     <hyperlink ref="O49" r:id="rId48" xr:uid="{51EC8EF3-1324-4AAB-80AB-194DBB5AE042}"/>
+    <hyperlink ref="O50" r:id="rId49" xr:uid="{B8905CE4-1BA3-4E29-A0A3-AD7B4DF39F36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId49"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId50"/>
 </worksheet>
 </file>
 
@@ -6503,8 +6589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E45832-1C29-44DA-BA30-C486F2EAD7BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8414760-D0A2-4E20-972C-43F20B6067DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,10 @@
     <t>截至3月8日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>截至3月9日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -576,10 +580,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$50</c:f>
+              <c:f>数据!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -726,6 +730,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,10 +746,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$50</c:f>
+              <c:f>数据!$H$2:$H$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -889,6 +896,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>81156</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>81103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -955,10 +965,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$50</c:f>
+              <c:f>数据!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1105,6 +1115,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,10 +1131,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$50</c:f>
+              <c:f>数据!$D$2:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1268,6 +1281,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1334,10 +1350,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$50</c:f>
+              <c:f>数据!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1484,6 +1500,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1497,10 +1516,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$50</c:f>
+              <c:f>数据!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1647,6 +1666,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>80735</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>80754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1721,10 +1743,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$50</c:f>
+              <c:f>数据!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1871,6 +1893,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1884,10 +1909,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$50</c:f>
+              <c:f>数据!$K$2:$K$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -2034,6 +2059,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2082,10 +2110,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$50</c:f>
+              <c:f>数据!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2232,6 +2260,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2245,10 +2276,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$50</c:f>
+              <c:f>数据!$E$2:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2395,6 +2426,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>5111</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2476,10 +2510,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$50</c:f>
+              <c:f>数据!$F$2:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2626,6 +2660,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>3119</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2705,10 +2742,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$50</c:f>
+              <c:f>数据!$G$2:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2855,6 +2892,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>58600</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>59897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3625,10 +3665,10 @@
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3957,9 +3997,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4114,7 +4154,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L50" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L51" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -4960,7 +5000,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K50" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K51" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -5000,7 +5040,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H50" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H51" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -6480,6 +6520,51 @@
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43899</v>
+      </c>
+      <c r="B51" s="1">
+        <v>80754</v>
+      </c>
+      <c r="C51" s="1">
+        <v>17721</v>
+      </c>
+      <c r="D51" s="1">
+        <v>349</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4794</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3136</v>
+      </c>
+      <c r="G51" s="1">
+        <v>59897</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="17"/>
+        <v>81103</v>
+      </c>
+      <c r="I51" s="1">
+        <v>19</v>
+      </c>
+      <c r="J51" s="1">
+        <v>36</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="16"/>
+        <v>55</v>
+      </c>
+      <c r="L51" s="8">
+        <f t="shared" si="1"/>
+        <v>3.8833989647571635E-2</v>
+      </c>
+      <c r="M51" s="1">
+        <v>16982</v>
+      </c>
+      <c r="N51" s="5">
+        <v>43900</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -6579,9 +6664,10 @@
     <hyperlink ref="O48" r:id="rId47" xr:uid="{5D3AA972-2980-4708-A54F-41A97E603518}"/>
     <hyperlink ref="O49" r:id="rId48" xr:uid="{51EC8EF3-1324-4AAB-80AB-194DBB5AE042}"/>
     <hyperlink ref="O50" r:id="rId49" xr:uid="{B8905CE4-1BA3-4E29-A0A3-AD7B4DF39F36}"/>
+    <hyperlink ref="O51" r:id="rId50" xr:uid="{B14F441B-A83B-4CFE-82D4-EBE63C4EE90E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId50"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId51"/>
 </worksheet>
 </file>
 
@@ -6589,8 +6675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8414760-D0A2-4E20-972C-43F20B6067DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A811824-C640-4B2F-B0FC-DE1FCEBC3C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,10 @@
     <t>截至3月9日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>截至3月10日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -580,10 +584,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$51</c:f>
+              <c:f>数据!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -733,6 +737,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -746,10 +753,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$51</c:f>
+              <c:f>数据!$H$2:$H$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -899,6 +906,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>81103</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>81063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,10 +975,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$51</c:f>
+              <c:f>数据!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1118,6 +1128,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1131,10 +1144,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$51</c:f>
+              <c:f>数据!$D$2:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1284,6 +1297,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1350,10 +1366,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$51</c:f>
+              <c:f>数据!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1503,6 +1519,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1516,10 +1535,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$51</c:f>
+              <c:f>数据!$B$2:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1669,6 +1688,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>80754</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>80778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1743,10 +1765,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$51</c:f>
+              <c:f>数据!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1896,6 +1918,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1909,10 +1934,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$51</c:f>
+              <c:f>数据!$K$2:$K$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -2061,6 +2086,9 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
@@ -2110,10 +2138,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$51</c:f>
+              <c:f>数据!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2263,6 +2291,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2276,10 +2307,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$51</c:f>
+              <c:f>数据!$E$2:$E$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2429,6 +2460,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>4794</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2510,10 +2544,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$51</c:f>
+              <c:f>数据!$F$2:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2663,6 +2697,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>3136</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2742,10 +2779,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$51</c:f>
+              <c:f>数据!$G$2:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2895,6 +2932,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>59897</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>61475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3997,9 +4037,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="A51:XFD51"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4154,7 +4194,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L51" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L52" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -5000,7 +5040,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K51" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K52" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -5040,7 +5080,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H51" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H52" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -6570,6 +6610,51 @@
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43900</v>
+      </c>
+      <c r="B52" s="1">
+        <v>80778</v>
+      </c>
+      <c r="C52" s="1">
+        <v>16145</v>
+      </c>
+      <c r="D52" s="1">
+        <v>285</v>
+      </c>
+      <c r="E52" s="1">
+        <v>4492</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3158</v>
+      </c>
+      <c r="G52" s="1">
+        <v>61475</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="17"/>
+        <v>81063</v>
+      </c>
+      <c r="I52" s="1">
+        <v>24</v>
+      </c>
+      <c r="J52" s="1">
+        <v>31</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="16"/>
+        <v>55</v>
+      </c>
+      <c r="L52" s="8">
+        <f t="shared" si="1"/>
+        <v>3.9094803040431801E-2</v>
+      </c>
+      <c r="M52" s="1">
+        <v>14607</v>
+      </c>
+      <c r="N52" s="5">
+        <v>43901</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -6665,9 +6750,10 @@
     <hyperlink ref="O49" r:id="rId48" xr:uid="{51EC8EF3-1324-4AAB-80AB-194DBB5AE042}"/>
     <hyperlink ref="O50" r:id="rId49" xr:uid="{B8905CE4-1BA3-4E29-A0A3-AD7B4DF39F36}"/>
     <hyperlink ref="O51" r:id="rId50" xr:uid="{B14F441B-A83B-4CFE-82D4-EBE63C4EE90E}"/>
+    <hyperlink ref="O52" r:id="rId51" display="截至3月9日24时" xr:uid="{E3FC4552-F1DB-4794-B995-81928D56CC0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId51"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId52"/>
 </worksheet>
 </file>
 
@@ -6675,8 +6761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A811824-C640-4B2F-B0FC-DE1FCEBC3C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9648BEB6-9A61-4BBA-A3CF-94865D61FC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,10 @@
     <t>截至3月10日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>截至3月11日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -584,10 +588,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$52</c:f>
+              <c:f>数据!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -740,6 +744,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -753,10 +760,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$52</c:f>
+              <c:f>数据!$H$2:$H$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -909,6 +916,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>81063</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>81046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -975,10 +985,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$52</c:f>
+              <c:f>数据!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1131,6 +1141,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1144,10 +1157,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$52</c:f>
+              <c:f>数据!$D$2:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1300,6 +1313,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,10 +1382,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$52</c:f>
+              <c:f>数据!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1522,6 +1538,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1535,10 +1554,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$52</c:f>
+              <c:f>数据!$B$2:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1691,6 +1710,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>80778</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>80793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1765,10 +1787,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$52</c:f>
+              <c:f>数据!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1921,6 +1943,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1934,10 +1959,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$52</c:f>
+              <c:f>数据!$K$2:$K$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -2090,6 +2115,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2138,10 +2166,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$52</c:f>
+              <c:f>数据!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2294,6 +2322,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2307,10 +2338,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$52</c:f>
+              <c:f>数据!$E$2:$E$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2463,6 +2494,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>4492</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2544,10 +2578,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$52</c:f>
+              <c:f>数据!$F$2:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2700,6 +2734,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>3158</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2779,10 +2816,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$52</c:f>
+              <c:f>数据!$G$2:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2935,6 +2972,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>61475</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>62793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4037,9 +4077,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="A52:XFD52"/>
+      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4194,7 +4234,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L52" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L53" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -5040,7 +5080,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K52" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K53" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -5080,7 +5120,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H52" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H53" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -6660,6 +6700,51 @@
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43901</v>
+      </c>
+      <c r="B53" s="1">
+        <v>80793</v>
+      </c>
+      <c r="C53" s="1">
+        <v>14831</v>
+      </c>
+      <c r="D53" s="1">
+        <v>253</v>
+      </c>
+      <c r="E53" s="1">
+        <v>4257</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3169</v>
+      </c>
+      <c r="G53" s="1">
+        <v>62793</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="17"/>
+        <v>81046</v>
+      </c>
+      <c r="I53" s="1">
+        <v>15</v>
+      </c>
+      <c r="J53" s="1">
+        <v>33</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="16"/>
+        <v>48</v>
+      </c>
+      <c r="L53" s="8">
+        <f t="shared" si="1"/>
+        <v>3.9223695122102165E-2</v>
+      </c>
+      <c r="M53" s="1">
+        <v>13701</v>
+      </c>
+      <c r="N53" s="5">
+        <v>43902</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -6751,9 +6836,10 @@
     <hyperlink ref="O50" r:id="rId49" xr:uid="{B8905CE4-1BA3-4E29-A0A3-AD7B4DF39F36}"/>
     <hyperlink ref="O51" r:id="rId50" xr:uid="{B14F441B-A83B-4CFE-82D4-EBE63C4EE90E}"/>
     <hyperlink ref="O52" r:id="rId51" display="截至3月9日24时" xr:uid="{E3FC4552-F1DB-4794-B995-81928D56CC0D}"/>
+    <hyperlink ref="O53" r:id="rId52" xr:uid="{0AAE44BC-5EB3-4079-BB87-5A16FD98AFED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId52"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId53"/>
 </worksheet>
 </file>
 
@@ -6762,7 +6848,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9648BEB6-9A61-4BBA-A3CF-94865D61FC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A010299E-E7E0-4B94-97A0-C2CCA0D25600}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +306,10 @@
     <t>截至3月11日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>截至3月12日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -588,10 +592,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$53</c:f>
+              <c:f>数据!$A$2:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -747,6 +751,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -760,10 +767,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$53</c:f>
+              <c:f>数据!$H$2:$H$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -919,6 +926,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>81046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>80960</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,10 +995,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$53</c:f>
+              <c:f>数据!$A$2:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1144,6 +1154,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1157,10 +1170,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$53</c:f>
+              <c:f>数据!$D$2:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1316,6 +1329,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1382,10 +1398,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$53</c:f>
+              <c:f>数据!$A$2:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1541,6 +1557,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1554,10 +1573,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$53</c:f>
+              <c:f>数据!$B$2:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1713,6 +1732,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>80793</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>80813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1787,10 +1809,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$53</c:f>
+              <c:f>数据!$A$2:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1946,6 +1968,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1959,10 +1984,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$53</c:f>
+              <c:f>数据!$K$2:$K$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -2118,6 +2143,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2166,10 +2194,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$53</c:f>
+              <c:f>数据!$A$2:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2325,6 +2353,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2338,10 +2369,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$53</c:f>
+              <c:f>数据!$E$2:$E$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2497,6 +2528,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>4257</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2578,10 +2612,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$53</c:f>
+              <c:f>数据!$F$2:$F$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2737,6 +2771,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>3169</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2816,10 +2853,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$53</c:f>
+              <c:f>数据!$G$2:$G$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2975,6 +3012,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>62793</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>64111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4077,9 +4117,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
+      <selection pane="bottomLeft" activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4234,7 +4274,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L53" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L54" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -5080,7 +5120,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K53" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K54" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -5120,7 +5160,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H53" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H54" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -6750,6 +6790,51 @@
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43902</v>
+      </c>
+      <c r="B54" s="1">
+        <v>80813</v>
+      </c>
+      <c r="C54" s="1">
+        <v>13526</v>
+      </c>
+      <c r="D54" s="1">
+        <v>147</v>
+      </c>
+      <c r="E54" s="1">
+        <v>4020</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3176</v>
+      </c>
+      <c r="G54" s="1">
+        <v>64111</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="17"/>
+        <v>80960</v>
+      </c>
+      <c r="I54" s="1">
+        <v>8</v>
+      </c>
+      <c r="J54" s="1">
+        <v>33</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="16"/>
+        <v>41</v>
+      </c>
+      <c r="L54" s="8">
+        <f t="shared" si="1"/>
+        <v>3.9300607575513839E-2</v>
+      </c>
+      <c r="M54" s="1">
+        <v>12161</v>
+      </c>
+      <c r="N54" s="5">
+        <v>43903</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -6837,9 +6922,10 @@
     <hyperlink ref="O51" r:id="rId50" xr:uid="{B14F441B-A83B-4CFE-82D4-EBE63C4EE90E}"/>
     <hyperlink ref="O52" r:id="rId51" display="截至3月9日24时" xr:uid="{E3FC4552-F1DB-4794-B995-81928D56CC0D}"/>
     <hyperlink ref="O53" r:id="rId52" xr:uid="{0AAE44BC-5EB3-4079-BB87-5A16FD98AFED}"/>
+    <hyperlink ref="O54" r:id="rId53" xr:uid="{A656282D-7BDB-4379-9431-0EAC125A55E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId53"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId54"/>
 </worksheet>
 </file>
 
@@ -6847,8 +6933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A010299E-E7E0-4B94-97A0-C2CCA0D25600}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72428067-A754-4753-9EE6-21A378F58BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +310,10 @@
     <t>截至3月12日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>截至3月13日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -592,10 +596,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$54</c:f>
+              <c:f>数据!$A$2:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -754,6 +758,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -767,10 +774,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$54</c:f>
+              <c:f>数据!$H$2:$H$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -929,6 +936,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>80960</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>80939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,10 +1005,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$54</c:f>
+              <c:f>数据!$A$2:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1157,6 +1167,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1170,10 +1183,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$54</c:f>
+              <c:f>数据!$D$2:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1332,6 +1345,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1398,10 +1414,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$54</c:f>
+              <c:f>数据!$A$2:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1560,6 +1576,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1573,10 +1592,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$54</c:f>
+              <c:f>数据!$B$2:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1735,6 +1754,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>80813</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>80824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1809,10 +1831,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$54</c:f>
+              <c:f>数据!$A$2:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1971,6 +1993,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1984,10 +2009,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$54</c:f>
+              <c:f>数据!$K$2:$K$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -2146,6 +2171,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2194,10 +2222,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$54</c:f>
+              <c:f>数据!$A$2:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2356,6 +2384,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2369,10 +2400,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$54</c:f>
+              <c:f>数据!$E$2:$E$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2531,6 +2562,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>4020</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3610</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2612,10 +2646,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$54</c:f>
+              <c:f>数据!$F$2:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2774,6 +2808,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>3176</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2853,10 +2890,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$54</c:f>
+              <c:f>数据!$G$2:$G$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -3015,6 +3052,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>64111</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>65541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4117,9 +4157,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M54" sqref="M54"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4274,7 +4314,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L54" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L55" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -5120,7 +5160,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K54" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K55" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -5160,7 +5200,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H54" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H55" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -6840,6 +6880,51 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43903</v>
+      </c>
+      <c r="B55" s="1">
+        <v>80824</v>
+      </c>
+      <c r="C55" s="1">
+        <v>12094</v>
+      </c>
+      <c r="D55" s="1">
+        <v>115</v>
+      </c>
+      <c r="E55" s="1">
+        <v>3610</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3189</v>
+      </c>
+      <c r="G55" s="1">
+        <v>65541</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="17"/>
+        <v>80939</v>
+      </c>
+      <c r="I55" s="1">
+        <v>11</v>
+      </c>
+      <c r="J55" s="1">
+        <v>17</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="L55" s="8">
+        <f t="shared" si="1"/>
+        <v>3.945610214787687E-2</v>
+      </c>
+      <c r="M55" s="1">
+        <v>10879</v>
+      </c>
+      <c r="N55" s="5">
+        <v>43904</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -6923,9 +7008,10 @@
     <hyperlink ref="O52" r:id="rId51" display="截至3月9日24时" xr:uid="{E3FC4552-F1DB-4794-B995-81928D56CC0D}"/>
     <hyperlink ref="O53" r:id="rId52" xr:uid="{0AAE44BC-5EB3-4079-BB87-5A16FD98AFED}"/>
     <hyperlink ref="O54" r:id="rId53" xr:uid="{A656282D-7BDB-4379-9431-0EAC125A55E6}"/>
+    <hyperlink ref="O55" r:id="rId54" xr:uid="{5F17DC28-5A30-4669-BFF0-084635032AB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId54"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId55"/>
 </worksheet>
 </file>
 
@@ -6933,8 +7019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72428067-A754-4753-9EE6-21A378F58BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD82F978-3F63-4709-8B96-F703A09CE777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +314,10 @@
     <t>截至3月13日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>截至3月14日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -596,10 +600,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$55</c:f>
+              <c:f>数据!$A$2:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -761,6 +765,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -774,10 +781,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$55</c:f>
+              <c:f>数据!$H$2:$H$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -939,6 +946,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>80939</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>80957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1005,10 +1015,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$55</c:f>
+              <c:f>数据!$A$2:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1170,6 +1180,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1183,10 +1196,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$55</c:f>
+              <c:f>数据!$D$2:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1348,6 +1361,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,10 +1430,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$55</c:f>
+              <c:f>数据!$A$2:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1579,6 +1595,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1592,10 +1611,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$55</c:f>
+              <c:f>数据!$B$2:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1757,6 +1776,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>80824</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>80844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1831,10 +1853,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$55</c:f>
+              <c:f>数据!$A$2:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1996,6 +2018,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2009,10 +2034,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$55</c:f>
+              <c:f>数据!$K$2:$K$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -2174,6 +2199,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2222,10 +2250,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$55</c:f>
+              <c:f>数据!$A$2:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2387,6 +2415,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2400,10 +2431,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$55</c:f>
+              <c:f>数据!$E$2:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2565,6 +2596,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>3610</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2646,10 +2680,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$55</c:f>
+              <c:f>数据!$F$2:$F$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2811,6 +2845,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>3189</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2890,10 +2927,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$55</c:f>
+              <c:f>数据!$G$2:$G$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -3055,6 +3092,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>65541</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>66911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4157,9 +4197,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="A55:XFD55"/>
+      <selection pane="bottomLeft" activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4314,7 +4354,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L55" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L56" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -5160,7 +5200,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K55" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K56" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -5200,7 +5240,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H55" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H56" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -6930,6 +6970,51 @@
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43904</v>
+      </c>
+      <c r="B56" s="1">
+        <v>80844</v>
+      </c>
+      <c r="C56" s="1">
+        <v>10734</v>
+      </c>
+      <c r="D56" s="1">
+        <v>113</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3226</v>
+      </c>
+      <c r="F56" s="1">
+        <v>3199</v>
+      </c>
+      <c r="G56" s="1">
+        <v>66911</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="17"/>
+        <v>80957</v>
+      </c>
+      <c r="I56" s="1">
+        <v>20</v>
+      </c>
+      <c r="J56" s="1">
+        <v>39</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="16"/>
+        <v>59</v>
+      </c>
+      <c r="L56" s="8">
+        <f t="shared" si="1"/>
+        <v>3.9570036118945127E-2</v>
+      </c>
+      <c r="M56" s="1">
+        <v>10189</v>
+      </c>
+      <c r="N56" s="5">
+        <v>43905</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -7009,9 +7094,10 @@
     <hyperlink ref="O53" r:id="rId52" xr:uid="{0AAE44BC-5EB3-4079-BB87-5A16FD98AFED}"/>
     <hyperlink ref="O54" r:id="rId53" xr:uid="{A656282D-7BDB-4379-9431-0EAC125A55E6}"/>
     <hyperlink ref="O55" r:id="rId54" xr:uid="{5F17DC28-5A30-4669-BFF0-084635032AB7}"/>
+    <hyperlink ref="O56" r:id="rId55" xr:uid="{9F387A2C-330D-470C-834E-449BDAAF0399}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId55"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId56"/>
 </worksheet>
 </file>
 
@@ -7019,8 +7105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD82F978-3F63-4709-8B96-F703A09CE777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1D1073-251C-47BA-9CD0-DEC240089518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +318,10 @@
     <t>截至3月14日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>截至3月15日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -600,10 +604,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$56</c:f>
+              <c:f>数据!$A$2:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -768,6 +772,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,10 +788,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$56</c:f>
+              <c:f>数据!$H$2:$H$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -949,6 +956,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>80957</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>80994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1015,10 +1025,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$56</c:f>
+              <c:f>数据!$A$2:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1183,6 +1193,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1196,10 +1209,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$56</c:f>
+              <c:f>数据!$D$2:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1364,6 +1377,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1430,10 +1446,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$56</c:f>
+              <c:f>数据!$A$2:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1598,6 +1614,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,10 +1630,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$56</c:f>
+              <c:f>数据!$B$2:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1779,6 +1798,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>80844</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>80860</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1853,10 +1875,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$56</c:f>
+              <c:f>数据!$A$2:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2021,6 +2043,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2034,10 +2059,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$56</c:f>
+              <c:f>数据!$K$2:$K$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -2202,6 +2227,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2250,10 +2278,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$56</c:f>
+              <c:f>数据!$A$2:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2418,6 +2446,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2431,10 +2462,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$56</c:f>
+              <c:f>数据!$E$2:$E$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2599,6 +2630,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>3226</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2680,10 +2714,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$56</c:f>
+              <c:f>数据!$F$2:$F$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2848,6 +2882,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>3199</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2927,10 +2964,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$56</c:f>
+              <c:f>数据!$G$2:$G$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -3095,6 +3132,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>66911</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>67749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4197,9 +4237,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O56" sqref="O56"/>
+      <selection pane="bottomLeft" activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4354,7 +4394,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L56" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L57" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -5200,7 +5240,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K56" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K57" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -5240,7 +5280,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H56" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H57" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -7020,6 +7060,51 @@
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43905</v>
+      </c>
+      <c r="B57" s="1">
+        <v>80860</v>
+      </c>
+      <c r="C57" s="1">
+        <v>9898</v>
+      </c>
+      <c r="D57" s="1">
+        <v>134</v>
+      </c>
+      <c r="E57" s="1">
+        <v>3032</v>
+      </c>
+      <c r="F57" s="1">
+        <v>3213</v>
+      </c>
+      <c r="G57" s="1">
+        <v>67749</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="17"/>
+        <v>80994</v>
+      </c>
+      <c r="I57" s="1">
+        <v>16</v>
+      </c>
+      <c r="J57" s="1">
+        <v>41</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="16"/>
+        <v>57</v>
+      </c>
+      <c r="L57" s="8">
+        <f t="shared" si="1"/>
+        <v>3.9735345040811276E-2</v>
+      </c>
+      <c r="M57" s="1">
+        <v>9582</v>
+      </c>
+      <c r="N57" s="5">
+        <v>43906</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -7095,9 +7180,10 @@
     <hyperlink ref="O54" r:id="rId53" xr:uid="{A656282D-7BDB-4379-9431-0EAC125A55E6}"/>
     <hyperlink ref="O55" r:id="rId54" xr:uid="{5F17DC28-5A30-4669-BFF0-084635032AB7}"/>
     <hyperlink ref="O56" r:id="rId55" xr:uid="{9F387A2C-330D-470C-834E-449BDAAF0399}"/>
+    <hyperlink ref="O57" r:id="rId56" xr:uid="{72FF8AAD-FDE6-41D2-BC0C-C2019BAB5B8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId56"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId57"/>
 </worksheet>
 </file>
 
@@ -7105,8 +7191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1D1073-251C-47BA-9CD0-DEC240089518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10D14CA-0F4E-4B14-A885-A950C0F9C44A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,10 @@
   </si>
   <si>
     <t>截至3月15日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至3月16日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,10 +608,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$57</c:f>
+              <c:f>数据!$A$2:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -775,6 +779,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,10 +795,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$57</c:f>
+              <c:f>数据!$H$2:$H$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -959,6 +966,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>80994</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>81009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1025,10 +1035,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$57</c:f>
+              <c:f>数据!$A$2:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1196,6 +1206,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1209,10 +1222,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$57</c:f>
+              <c:f>数据!$D$2:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1380,6 +1393,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1446,10 +1462,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$57</c:f>
+              <c:f>数据!$A$2:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1617,6 +1633,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1630,10 +1649,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$57</c:f>
+              <c:f>数据!$B$2:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1801,6 +1820,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>80860</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>80881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1875,10 +1897,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$57</c:f>
+              <c:f>数据!$A$2:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2046,6 +2068,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2059,10 +2084,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$57</c:f>
+              <c:f>数据!$K$2:$K$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -2230,6 +2255,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2278,10 +2306,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$57</c:f>
+              <c:f>数据!$A$2:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2449,6 +2477,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2462,10 +2493,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$57</c:f>
+              <c:f>数据!$E$2:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2633,6 +2664,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>3032</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2830</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2714,10 +2748,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$57</c:f>
+              <c:f>数据!$F$2:$F$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2885,6 +2919,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>3213</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2964,10 +3001,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$57</c:f>
+              <c:f>数据!$G$2:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -3135,6 +3172,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>67749</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>68679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4237,9 +4277,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M57" sqref="M57"/>
+      <selection pane="bottomLeft" activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4394,7 +4434,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L57" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L58" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -5240,7 +5280,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K57" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K58" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -5280,7 +5320,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H57" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H58" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -7110,6 +7150,51 @@
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43906</v>
+      </c>
+      <c r="B58" s="1">
+        <v>80881</v>
+      </c>
+      <c r="C58" s="1">
+        <v>8976</v>
+      </c>
+      <c r="D58" s="1">
+        <v>128</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2830</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3226</v>
+      </c>
+      <c r="G58" s="1">
+        <v>68679</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="17"/>
+        <v>81009</v>
+      </c>
+      <c r="I58" s="1">
+        <v>21</v>
+      </c>
+      <c r="J58" s="1">
+        <v>45</v>
+      </c>
+      <c r="K58" s="1">
+        <f t="shared" si="16"/>
+        <v>66</v>
+      </c>
+      <c r="L58" s="8">
+        <f t="shared" si="1"/>
+        <v>3.9885758089044397E-2</v>
+      </c>
+      <c r="M58" s="1">
+        <v>9351</v>
+      </c>
+      <c r="N58" s="5">
+        <v>43907</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -7181,9 +7266,10 @@
     <hyperlink ref="O55" r:id="rId54" xr:uid="{5F17DC28-5A30-4669-BFF0-084635032AB7}"/>
     <hyperlink ref="O56" r:id="rId55" xr:uid="{9F387A2C-330D-470C-834E-449BDAAF0399}"/>
     <hyperlink ref="O57" r:id="rId56" xr:uid="{72FF8AAD-FDE6-41D2-BC0C-C2019BAB5B8B}"/>
+    <hyperlink ref="O58" r:id="rId57" xr:uid="{04BCCD41-84C5-408C-A40F-AADADC3256B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId57"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId58"/>
 </worksheet>
 </file>
 
@@ -7192,7 +7278,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10D14CA-0F4E-4B14-A885-A950C0F9C44A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75472B5C-6294-4D0F-AEEF-3A7AA9A8800D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" tabRatio="213" activeTab="1" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,10 @@
   </si>
   <si>
     <t>截至3月16日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至3月17日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,10 +612,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$58</c:f>
+              <c:f>数据!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -782,6 +786,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,10 +802,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$H$2:$H$58</c:f>
+              <c:f>数据!$H$2:$H$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -969,6 +976,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>81009</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>81013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,10 +1045,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$58</c:f>
+              <c:f>数据!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1209,6 +1219,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1222,10 +1235,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$D$2:$D$58</c:f>
+              <c:f>数据!$D$2:$D$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1396,6 +1409,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1462,10 +1478,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$58</c:f>
+              <c:f>数据!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1636,6 +1652,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1649,10 +1668,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$B$2:$B$58</c:f>
+              <c:f>数据!$B$2:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1823,6 +1842,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>80881</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>80894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1897,10 +1919,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$58</c:f>
+              <c:f>数据!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2071,6 +2093,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2084,10 +2109,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$K$2:$K$58</c:f>
+              <c:f>数据!$K$2:$K$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -2258,6 +2283,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2306,10 +2334,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$A$2:$A$58</c:f>
+              <c:f>数据!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2480,6 +2508,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2493,10 +2524,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$E$2:$E$58</c:f>
+              <c:f>数据!$E$2:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2667,6 +2698,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>2830</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2748,10 +2782,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$F$2:$F$58</c:f>
+              <c:f>数据!$F$2:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2922,6 +2956,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>3226</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3001,10 +3038,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>数据!$G$2:$G$58</c:f>
+              <c:f>数据!$G$2:$G$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -3175,6 +3212,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>68679</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>69601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4277,9 +4317,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J62" sqref="J62"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4434,7 +4474,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L58" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L59" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -5280,7 +5320,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K58" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K59" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -5320,7 +5360,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H58" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H59" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -7200,6 +7240,51 @@
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43907</v>
+      </c>
+      <c r="B59" s="1">
+        <v>80894</v>
+      </c>
+      <c r="C59" s="1">
+        <v>8056</v>
+      </c>
+      <c r="D59" s="1">
+        <v>119</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2622</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3237</v>
+      </c>
+      <c r="G59" s="1">
+        <v>69601</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="17"/>
+        <v>81013</v>
+      </c>
+      <c r="I59" s="1">
+        <v>13</v>
+      </c>
+      <c r="J59" s="1">
+        <v>21</v>
+      </c>
+      <c r="K59" s="1">
+        <f t="shared" si="16"/>
+        <v>34</v>
+      </c>
+      <c r="L59" s="8">
+        <f t="shared" si="1"/>
+        <v>4.0015328701757856E-2</v>
+      </c>
+      <c r="M59" s="1">
+        <v>9222</v>
+      </c>
+      <c r="N59" s="5">
+        <v>43908</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -7267,9 +7352,10 @@
     <hyperlink ref="O56" r:id="rId55" xr:uid="{9F387A2C-330D-470C-834E-449BDAAF0399}"/>
     <hyperlink ref="O57" r:id="rId56" xr:uid="{72FF8AAD-FDE6-41D2-BC0C-C2019BAB5B8B}"/>
     <hyperlink ref="O58" r:id="rId57" xr:uid="{04BCCD41-84C5-408C-A40F-AADADC3256B6}"/>
+    <hyperlink ref="O59" r:id="rId58" xr:uid="{C44163B2-E1CC-4F59-974E-84FDBA52EA92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId58"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId59"/>
 </worksheet>
 </file>
 
@@ -7277,8 +7363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FD884-C5D6-43A1-9A61-2F79C964CD28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoguo\Desktop\2019-nCoV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75472B5C-6294-4D0F-AEEF-3A7AA9A8800D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9384D3B-8251-4347-8D64-87914B7BFF5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" tabRatio="213" xr2:uid="{BE46CB7B-16FA-44A3-AB96-2E4099F73B65}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,10 @@
   </si>
   <si>
     <t>截至3月17日24时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至3月18日24时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,17 +609,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$2:$A$60</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$A$2:$A$59</c:f>
+              <c:f>数据!$A$2:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -789,23 +786,19 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$H$2:$H$60</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$H$2:$H$59</c:f>
+              <c:f>数据!$H$2:$H$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>345</c:v>
                 </c:pt>
@@ -979,6 +972,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>81013</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>81033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,17 +1034,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$2:$A$60</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$A$2:$A$59</c:f>
+              <c:f>数据!$A$2:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1222,23 +1211,19 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$D$2:$D$60</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$D$2:$D$59</c:f>
+              <c:f>数据!$D$2:$D$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -1412,6 +1397,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1471,17 +1459,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$2:$A$60</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$A$2:$A$59</c:f>
+              <c:f>数据!$A$2:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -1655,23 +1636,19 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$B$2:$B$60</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$B$2:$B$59</c:f>
+              <c:f>数据!$B$2:$B$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -1845,6 +1822,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>80894</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>80928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1912,17 +1892,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$2:$A$60</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$A$2:$A$59</c:f>
+              <c:f>数据!$A$2:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2096,23 +2069,19 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$K$2:$K$60</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$K$2:$K$59</c:f>
+              <c:f>数据!$K$2:$K$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -2286,6 +2255,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2327,17 +2299,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$2:$A$60</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$A$2:$A$59</c:f>
+              <c:f>数据!$A$2:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>43850</c:v>
                 </c:pt>
@@ -2511,23 +2476,19 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$E$2:$E$60</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$E$2:$E$59</c:f>
+              <c:f>数据!$E$2:$E$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2701,6 +2662,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>2622</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2756,14 +2720,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$4:$A$4</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$A$4</c:f>
+              <c:f>数据!$A$4:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2775,17 +2732,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$F$2:$F$60</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$F$2:$F$59</c:f>
+              <c:f>数据!$F$2:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2959,6 +2909,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>3237</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3012,14 +2965,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$A$4:$A$4</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$A$4</c:f>
+              <c:f>数据!$A$4:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3031,17 +2977,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>数据!$G$2:$G$60</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>数据!$G$2:$G$59</c:f>
+              <c:f>数据!$G$2:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -3215,6 +3154,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>69601</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>70420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4317,9 +4259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B34C20-683D-4988-B104-5CD8B51EFBBB}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="A59:XFD59"/>
+      <selection pane="bottomLeft" activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4474,7 +4416,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L59" si="1">F3/B3</f>
+        <f t="shared" ref="L3:L60" si="1">F3/B3</f>
         <v>2.0454545454545454E-2</v>
       </c>
       <c r="M3" s="1">
@@ -5320,7 +5262,7 @@
         <v>4214</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K59" si="16">I20+J20</f>
+        <f t="shared" ref="K20:K60" si="16">I20+J20</f>
         <v>7613</v>
       </c>
       <c r="L20" s="8">
@@ -5360,7 +5302,7 @@
         <v>2649</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H59" si="17">B21+D21</f>
+        <f t="shared" ref="H21:H60" si="17">B21+D21</f>
         <v>66140</v>
       </c>
       <c r="I21" s="1">
@@ -7290,6 +7232,51 @@
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43908</v>
+      </c>
+      <c r="B60" s="1">
+        <v>80928</v>
+      </c>
+      <c r="C60" s="1">
+        <v>7263</v>
+      </c>
+      <c r="D60" s="1">
+        <v>105</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2314</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3245</v>
+      </c>
+      <c r="G60" s="1">
+        <v>70420</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="17"/>
+        <v>81033</v>
+      </c>
+      <c r="I60" s="1">
+        <v>34</v>
+      </c>
+      <c r="J60" s="1">
+        <v>23</v>
+      </c>
+      <c r="K60" s="1">
+        <f t="shared" si="16"/>
+        <v>57</v>
+      </c>
+      <c r="L60" s="8">
+        <f t="shared" si="1"/>
+        <v>4.0097370502174774E-2</v>
+      </c>
+      <c r="M60" s="1">
+        <v>9144</v>
+      </c>
+      <c r="N60" s="5">
+        <v>43909</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -7353,9 +7340,10 @@
     <hyperlink ref="O57" r:id="rId56" xr:uid="{72FF8AAD-FDE6-41D2-BC0C-C2019BAB5B8B}"/>
     <hyperlink ref="O58" r:id="rId57" xr:uid="{04BCCD41-84C5-408C-A40F-AADADC3256B6}"/>
     <hyperlink ref="O59" r:id="rId58" xr:uid="{C44163B2-E1CC-4F59-974E-84FDBA52EA92}"/>
+    <hyperlink ref="O60" r:id="rId59" xr:uid="{FB1CA57C-8D38-49E9-AFDF-B8D6B67B68CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId59"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId60"/>
 </worksheet>
 </file>
 
@@ -7364,7 +7352,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
